--- a/data/uk_regression_result.xlsx
+++ b/data/uk_regression_result.xlsx
@@ -1587,3882 +1587,6786 @@
     </row>
     <row r="3" spans="1:104">
       <c r="A3">
-        <v>32871</v>
+        <v>32874</v>
+      </c>
+      <c r="D3">
+        <v>4.85404597841926</v>
+      </c>
+      <c r="E3">
+        <v>-0.124710575346587</v>
+      </c>
+      <c r="F3">
+        <v>1.87790561940051</v>
+      </c>
+      <c r="G3">
+        <v>-0.136214764046118</v>
       </c>
       <c r="H3">
-        <v>-0.10795668279322</v>
+        <v>-0.127047357628718</v>
+      </c>
+      <c r="I3">
+        <v>-0.127507907154661</v>
       </c>
       <c r="J3">
-        <v>-0.123760329710205</v>
+        <v>-0.129644884020093</v>
       </c>
       <c r="K3">
-        <v>-0.147894803989767</v>
+        <v>-0.14813274627896</v>
+      </c>
+      <c r="L3">
+        <v>0.855085029426814</v>
       </c>
       <c r="M3">
-        <v>-0.142180882457311</v>
+        <v>1.85830280513259</v>
       </c>
       <c r="N3">
-        <v>-0.172553766782831</v>
+        <v>2.86152058083837</v>
       </c>
       <c r="O3">
-        <v>-0.172981499866572</v>
+        <v>3.86473835654414</v>
       </c>
       <c r="P3">
-        <v>-0.160458855934365</v>
+        <v>4.86795613224991</v>
       </c>
       <c r="Q3">
-        <v>-0.151067068766587</v>
+        <v>5.87117390795569</v>
       </c>
       <c r="R3">
-        <v>-0.167771641763962</v>
+        <v>6.87439168366146</v>
+      </c>
+      <c r="S3">
+        <v>7.87760945936724</v>
       </c>
       <c r="T3">
-        <v>-0.135413690205987</v>
+        <v>8.88082723507301</v>
       </c>
       <c r="U3">
-        <v>-0.131129039444427</v>
+        <v>9.88404501077878</v>
       </c>
       <c r="V3">
-        <v>-0.160797346907384</v>
+        <v>10.8872627864845</v>
+      </c>
+      <c r="W3">
+        <v>11.8904805621903</v>
       </c>
       <c r="X3">
-        <v>-0.196380849059055</v>
+        <v>12.8936983378961</v>
       </c>
       <c r="Y3">
-        <v>-0.16075876456159</v>
+        <v>13.8969161136019</v>
+      </c>
+      <c r="Z3">
+        <v>14.9001338893076</v>
+      </c>
+      <c r="AA3">
+        <v>15.9033516650134</v>
+      </c>
+      <c r="AB3">
+        <v>16.9065694407192</v>
+      </c>
+      <c r="AC3">
+        <v>-0.14813274627896</v>
+      </c>
+      <c r="AD3">
+        <v>0.855085029426814</v>
+      </c>
+      <c r="AE3">
+        <v>17.9097872164249</v>
+      </c>
+      <c r="AF3">
+        <v>0.855085029426814</v>
       </c>
       <c r="AG3">
-        <v>-0.116167352198318</v>
+        <v>1.85830280513259</v>
+      </c>
+      <c r="AH3">
+        <v>18.9130049921307</v>
+      </c>
+      <c r="AI3">
+        <v>1.85830280513259</v>
+      </c>
+      <c r="AJ3">
+        <v>2.86152058083837</v>
+      </c>
+      <c r="AK3">
+        <v>19.9162227678365</v>
+      </c>
+      <c r="AL3">
+        <v>2.86152058083837</v>
       </c>
       <c r="AM3">
-        <v>-0.148753219650352</v>
+        <v>3.86473835654414</v>
       </c>
       <c r="AN3">
-        <v>-0.162625711403777</v>
+        <v>20.9194405435423</v>
+      </c>
+      <c r="AO3">
+        <v>3.86473835654414</v>
       </c>
       <c r="AP3">
-        <v>-0.21994969885232</v>
+        <v>4.86795613224991</v>
+      </c>
+      <c r="AQ3">
+        <v>21.922658319248</v>
+      </c>
+      <c r="AR3">
+        <v>4.86795613224991</v>
       </c>
       <c r="AS3">
-        <v>-0.141586516264961</v>
+        <v>5.87117390795569</v>
+      </c>
+      <c r="AT3">
+        <v>22.9258760949538</v>
+      </c>
+      <c r="AU3">
+        <v>5.87117390795569</v>
+      </c>
+      <c r="AV3">
+        <v>6.87439168366146</v>
+      </c>
+      <c r="AW3">
+        <v>23.9290938706596</v>
+      </c>
+      <c r="AX3">
+        <v>6.87439168366146</v>
       </c>
       <c r="AY3">
-        <v>-0.181290642274384</v>
+        <v>7.87760945936724</v>
       </c>
       <c r="AZ3">
-        <v>-0.127892057148251</v>
+        <v>24.9323116463654</v>
       </c>
       <c r="BA3">
-        <v>-0.144341652692848</v>
+        <v>7.87760945936724</v>
       </c>
       <c r="BB3">
-        <v>-0.166626121234802</v>
+        <v>8.88082723507301</v>
       </c>
       <c r="BC3">
-        <v>-0.143713502938746</v>
+        <v>25.9355294220711</v>
+      </c>
+      <c r="BD3">
+        <v>8.88082723507301</v>
+      </c>
+      <c r="BE3">
+        <v>9.88404501077878</v>
       </c>
       <c r="BF3">
-        <v>-0.13278529927208</v>
+        <v>26.9387471977769</v>
       </c>
       <c r="BG3">
-        <v>-0.1495929735543</v>
+        <v>9.88404501077878</v>
+      </c>
+      <c r="BH3">
+        <v>10.8872627864845</v>
       </c>
       <c r="BI3">
-        <v>-0.136147511822086</v>
+        <v>27.9419649734827</v>
+      </c>
+      <c r="BJ3">
+        <v>10.8872627864845</v>
       </c>
       <c r="BK3">
-        <v>-0.162133689427712</v>
+        <v>11.8904805621903</v>
+      </c>
+      <c r="BL3">
+        <v>28.9451827491885</v>
       </c>
       <c r="BM3">
-        <v>-0.13749891619441</v>
+        <v>11.8904805621903</v>
       </c>
       <c r="BN3">
-        <v>-0.149357004357083</v>
+        <v>12.8936983378961</v>
+      </c>
+      <c r="BO3">
+        <v>29.9484005248942</v>
       </c>
       <c r="BP3">
-        <v>-0.12561903769886</v>
+        <v>12.8936983378961</v>
+      </c>
+      <c r="BQ3">
+        <v>13.8969161136019</v>
       </c>
       <c r="BR3">
-        <v>-0.162796796413693</v>
+        <v>30.9516183006</v>
       </c>
       <c r="BS3">
-        <v>-0.170880212482528</v>
+        <v>13.8969161136019</v>
       </c>
       <c r="BT3">
-        <v>-0.147705411058937</v>
+        <v>14.9001338893076</v>
       </c>
       <c r="BU3">
-        <v>-0.177146850138691</v>
+        <v>31.9548360763058</v>
       </c>
       <c r="BV3">
-        <v>-0.185123556414369</v>
+        <v>14.9001338893076</v>
       </c>
       <c r="BW3">
-        <v>-0.163616679854096</v>
+        <v>15.9033516650134</v>
+      </c>
+      <c r="BX3">
+        <v>32.9580538520116</v>
       </c>
       <c r="BY3">
-        <v>-0.157254104739961</v>
+        <v>15.9033516650134</v>
+      </c>
+      <c r="BZ3">
+        <v>16.9065694407192</v>
       </c>
       <c r="CA3">
-        <v>-0.132567067719428</v>
+        <v>33.9612716277173</v>
+      </c>
+      <c r="CB3">
+        <v>16.9065694407192</v>
       </c>
       <c r="CC3">
-        <v>-0.14934951689196</v>
+        <v>17.9097872164249</v>
       </c>
       <c r="CD3">
-        <v>-0.152830398107898</v>
+        <v>34.9644894034231</v>
       </c>
       <c r="CE3">
-        <v>-0.223248111547309</v>
+        <v>17.9097872164249</v>
       </c>
       <c r="CF3">
-        <v>-0.199783503039937</v>
+        <v>18.9130049921307</v>
+      </c>
+      <c r="CG3">
+        <v>35.9677071791289</v>
       </c>
       <c r="CH3">
-        <v>-0.151323334086083</v>
+        <v>18.9130049921307</v>
       </c>
       <c r="CI3">
-        <v>-0.140471611015256</v>
+        <v>19.9162227678365</v>
+      </c>
+      <c r="CJ3">
+        <v>36.9709249548347</v>
+      </c>
+      <c r="CK3">
+        <v>36.9709249548347</v>
+      </c>
+      <c r="CL3">
+        <v>19.9162227678365</v>
       </c>
       <c r="CM3">
-        <v>-0.121150260786173</v>
+        <v>20.9194405435423</v>
+      </c>
+      <c r="CN3">
+        <v>37.9741427305404</v>
       </c>
       <c r="CO3">
-        <v>-0.181884218067884</v>
+        <v>37.9741427305404</v>
       </c>
       <c r="CP3">
-        <v>-0.14433193924171</v>
+        <v>20.9194405435423</v>
       </c>
       <c r="CQ3">
-        <v>-0.110653243379644</v>
+        <v>21.922658319248</v>
       </c>
       <c r="CR3">
-        <v>-0.165851756476321</v>
+        <v>38.9773605062462</v>
       </c>
       <c r="CS3">
-        <v>-0.192145443367477</v>
+        <v>38.9773605062462</v>
       </c>
       <c r="CT3">
-        <v>-0.166352473340099</v>
+        <v>21.922658319248</v>
       </c>
       <c r="CU3">
-        <v>-0.181499243048432</v>
+        <v>22.9258760949538</v>
       </c>
       <c r="CV3">
-        <v>-0.174247094633905</v>
+        <v>39.980578281952</v>
       </c>
       <c r="CW3">
-        <v>-0.163845365024492</v>
+        <v>39.980578281952</v>
       </c>
       <c r="CX3">
-        <v>-0.160131159801511</v>
+        <v>22.9258760949538</v>
       </c>
       <c r="CY3">
-        <v>-0.131987701415953</v>
+        <v>23.9290938706596</v>
+      </c>
+      <c r="CZ3">
+        <v>40.9837960576578</v>
       </c>
     </row>
     <row r="4" spans="1:104">
       <c r="A4">
-        <v>32874</v>
+        <v>32905</v>
+      </c>
+      <c r="D4">
+        <v>4.85404785127701</v>
+      </c>
+      <c r="E4">
+        <v>-0.124718820181033</v>
+      </c>
+      <c r="F4">
+        <v>1.87785712326856</v>
+      </c>
+      <c r="G4">
+        <v>-0.136217392829657</v>
       </c>
       <c r="H4">
-        <v>-0.107528512378709</v>
+        <v>-0.127049324520449</v>
+      </c>
+      <c r="I4">
+        <v>-0.127509475231745</v>
       </c>
       <c r="J4">
-        <v>-0.122954950926511</v>
+        <v>-0.129652623921086</v>
       </c>
       <c r="K4">
-        <v>-0.147920548552256</v>
+        <v>-0.148145042912286</v>
+      </c>
+      <c r="L4">
+        <v>0.855072732793488</v>
       </c>
       <c r="M4">
-        <v>-0.14261771447686</v>
+        <v>1.85829050849926</v>
       </c>
       <c r="N4">
-        <v>-0.17352472450827</v>
+        <v>2.86150828420504</v>
       </c>
       <c r="O4">
-        <v>-0.173847096607047</v>
+        <v>3.86472605991081</v>
       </c>
       <c r="P4">
-        <v>-0.161252573473924</v>
+        <v>4.86794383561659</v>
       </c>
       <c r="Q4">
-        <v>-0.15166602183843</v>
+        <v>5.87116161132236</v>
       </c>
       <c r="R4">
-        <v>-0.168788007610918</v>
+        <v>6.87437938702814</v>
+      </c>
+      <c r="S4">
+        <v>7.87759716273391</v>
       </c>
       <c r="T4">
-        <v>-0.135958767632621</v>
+        <v>8.88081493843969</v>
       </c>
       <c r="U4">
-        <v>-0.130807267922001</v>
+        <v>9.88403271414546</v>
       </c>
       <c r="V4">
-        <v>-0.161129919451519</v>
+        <v>10.8872504898512</v>
+      </c>
+      <c r="W4">
+        <v>11.890468265557</v>
       </c>
       <c r="X4">
-        <v>-0.197753384242615</v>
+        <v>12.8936860412628</v>
       </c>
       <c r="Y4">
-        <v>-0.160689678548999</v>
+        <v>13.8969038169685</v>
+      </c>
+      <c r="Z4">
+        <v>14.9001215926743</v>
+      </c>
+      <c r="AA4">
+        <v>15.9033393683801</v>
+      </c>
+      <c r="AB4">
+        <v>16.9065571440858</v>
+      </c>
+      <c r="AC4">
+        <v>-0.148145042912286</v>
+      </c>
+      <c r="AD4">
+        <v>0.855072732793488</v>
+      </c>
+      <c r="AE4">
+        <v>17.9097749197916</v>
+      </c>
+      <c r="AF4">
+        <v>0.855072732793488</v>
       </c>
       <c r="AG4">
-        <v>-0.11577488594536</v>
+        <v>1.85829050849926</v>
+      </c>
+      <c r="AH4">
+        <v>18.9129926954974</v>
+      </c>
+      <c r="AI4">
+        <v>1.85829050849926</v>
+      </c>
+      <c r="AJ4">
+        <v>2.86150828420504</v>
+      </c>
+      <c r="AK4">
+        <v>19.9162104712032</v>
+      </c>
+      <c r="AL4">
+        <v>2.86150828420504</v>
       </c>
       <c r="AM4">
-        <v>-0.149385207086839</v>
+        <v>3.86472605991081</v>
       </c>
       <c r="AN4">
-        <v>-0.163198749234454</v>
+        <v>20.9194282469089</v>
+      </c>
+      <c r="AO4">
+        <v>3.86472605991081</v>
       </c>
       <c r="AP4">
-        <v>-0.22184264719943</v>
+        <v>4.86794383561659</v>
+      </c>
+      <c r="AQ4">
+        <v>21.9226460226147</v>
+      </c>
+      <c r="AR4">
+        <v>4.86794383561659</v>
       </c>
       <c r="AS4">
-        <v>-0.141858765348702</v>
+        <v>5.87116161132236</v>
+      </c>
+      <c r="AT4">
+        <v>22.9258637983205</v>
+      </c>
+      <c r="AU4">
+        <v>5.87116161132236</v>
+      </c>
+      <c r="AV4">
+        <v>6.87437938702814</v>
+      </c>
+      <c r="AW4">
+        <v>23.9290815740263</v>
+      </c>
+      <c r="AX4">
+        <v>6.87437938702814</v>
       </c>
       <c r="AY4">
-        <v>-0.182053710750617</v>
+        <v>7.87759716273391</v>
       </c>
       <c r="AZ4">
-        <v>-0.127822505534876</v>
+        <v>24.932299349732</v>
       </c>
       <c r="BA4">
-        <v>-0.144969184087441</v>
+        <v>7.87759716273391</v>
       </c>
       <c r="BB4">
-        <v>-0.167131600534088</v>
+        <v>8.88081493843969</v>
       </c>
       <c r="BC4">
-        <v>-0.14431826999546</v>
+        <v>25.9355171254378</v>
+      </c>
+      <c r="BD4">
+        <v>8.88081493843969</v>
+      </c>
+      <c r="BE4">
+        <v>9.88403271414546</v>
       </c>
       <c r="BF4">
-        <v>-0.132996455421431</v>
+        <v>26.9387349011436</v>
       </c>
       <c r="BG4">
-        <v>-0.149451222042072</v>
+        <v>9.88403271414546</v>
+      </c>
+      <c r="BH4">
+        <v>10.8872504898512</v>
       </c>
       <c r="BI4">
-        <v>-0.136482718122805</v>
+        <v>27.9419526768494</v>
+      </c>
+      <c r="BJ4">
+        <v>10.8872504898512</v>
       </c>
       <c r="BK4">
-        <v>-0.162265358808248</v>
+        <v>11.890468265557</v>
+      </c>
+      <c r="BL4">
+        <v>28.9451704525551</v>
       </c>
       <c r="BM4">
-        <v>-0.137471876710538</v>
+        <v>11.890468265557</v>
       </c>
       <c r="BN4">
-        <v>-0.149272718243221</v>
+        <v>12.8936860412628</v>
+      </c>
+      <c r="BO4">
+        <v>29.9483882282609</v>
       </c>
       <c r="BP4">
-        <v>-0.125856136702896</v>
+        <v>12.8936860412628</v>
+      </c>
+      <c r="BQ4">
+        <v>13.8969038169685</v>
       </c>
       <c r="BR4">
-        <v>-0.163291557384076</v>
+        <v>30.9516060039667</v>
       </c>
       <c r="BS4">
-        <v>-0.171348335843358</v>
+        <v>13.8969038169685</v>
       </c>
       <c r="BT4">
-        <v>-0.1477257158885</v>
+        <v>14.9001215926743</v>
       </c>
       <c r="BU4">
-        <v>-0.177770428786433</v>
+        <v>31.9548237796725</v>
       </c>
       <c r="BV4">
-        <v>-0.18599231609673</v>
+        <v>14.9001215926743</v>
       </c>
       <c r="BW4">
-        <v>-0.164425190346342</v>
+        <v>15.9033393683801</v>
+      </c>
+      <c r="BX4">
+        <v>32.9580415553782</v>
       </c>
       <c r="BY4">
-        <v>-0.157842340110554</v>
+        <v>15.9033393683801</v>
+      </c>
+      <c r="BZ4">
+        <v>16.9065571440858</v>
       </c>
       <c r="CA4">
-        <v>-0.132517590850794</v>
+        <v>33.961259331084</v>
+      </c>
+      <c r="CB4">
+        <v>16.9065571440858</v>
       </c>
       <c r="CC4">
-        <v>-0.149267158504696</v>
+        <v>17.9097749197916</v>
       </c>
       <c r="CD4">
-        <v>-0.153504395749313</v>
+        <v>34.9644771067898</v>
       </c>
       <c r="CE4">
-        <v>-0.224689838194545</v>
+        <v>17.9097749197916</v>
       </c>
       <c r="CF4">
-        <v>-0.201448950819395</v>
+        <v>18.9129926954974</v>
+      </c>
+      <c r="CG4">
+        <v>35.9676948824956</v>
       </c>
       <c r="CH4">
-        <v>-0.151303500856934</v>
+        <v>18.9129926954974</v>
       </c>
       <c r="CI4">
-        <v>-0.140656281012458</v>
+        <v>19.9162104712032</v>
+      </c>
+      <c r="CJ4">
+        <v>36.9709126582013</v>
+      </c>
+      <c r="CK4">
+        <v>36.9709126582013</v>
+      </c>
+      <c r="CL4">
+        <v>19.9162104712032</v>
       </c>
       <c r="CM4">
-        <v>-0.121771038346395</v>
+        <v>20.9194282469089</v>
+      </c>
+      <c r="CN4">
+        <v>37.9741304339071</v>
       </c>
       <c r="CO4">
-        <v>-0.183121959221469</v>
+        <v>37.9741304339071</v>
       </c>
       <c r="CP4">
-        <v>-0.144932276874856</v>
+        <v>20.9194282469089</v>
       </c>
       <c r="CQ4">
-        <v>-0.110207699749595</v>
+        <v>21.9226460226147</v>
       </c>
       <c r="CR4">
-        <v>-0.165818163394255</v>
+        <v>38.9773482096129</v>
       </c>
       <c r="CS4">
-        <v>-0.193224602083738</v>
+        <v>38.9773482096129</v>
       </c>
       <c r="CT4">
-        <v>-0.166991568150444</v>
+        <v>21.9226460226147</v>
       </c>
       <c r="CU4">
-        <v>-0.18232316631615</v>
+        <v>22.9258637983205</v>
       </c>
       <c r="CV4">
-        <v>-0.175252200867525</v>
+        <v>39.9805659853187</v>
       </c>
       <c r="CW4">
-        <v>-0.164506616916848</v>
+        <v>39.9805659853187</v>
       </c>
       <c r="CX4">
-        <v>-0.16056946246388</v>
+        <v>22.9258637983205</v>
       </c>
       <c r="CY4">
-        <v>-0.131628744468546</v>
+        <v>23.9290815740263</v>
+      </c>
+      <c r="CZ4">
+        <v>40.9837837610244</v>
       </c>
     </row>
     <row r="5" spans="1:104">
       <c r="A5">
-        <v>32875</v>
+        <v>32933</v>
+      </c>
+      <c r="D5">
+        <v>4.85403871538118</v>
+      </c>
+      <c r="E5">
+        <v>-0.124678601457156</v>
+      </c>
+      <c r="F5">
+        <v>1.87809368987916</v>
+      </c>
+      <c r="G5">
+        <v>-0.136204569489181</v>
       </c>
       <c r="H5">
-        <v>-0.109617149547251</v>
+        <v>-0.127039729922047</v>
+      </c>
+      <c r="I5">
+        <v>-0.127501826071575</v>
       </c>
       <c r="J5">
-        <v>-0.126883629801478</v>
+        <v>-0.129614868288406</v>
       </c>
       <c r="K5">
-        <v>-0.147794965260465</v>
+        <v>-0.14808505930636</v>
+      </c>
+      <c r="L5">
+        <v>0.855132716399414</v>
       </c>
       <c r="M5">
-        <v>-0.140486825556196</v>
+        <v>1.85835049210519</v>
       </c>
       <c r="N5">
-        <v>-0.168788343091657</v>
+        <v>2.86156826781097</v>
       </c>
       <c r="O5">
-        <v>-0.169624671460772</v>
+        <v>3.86478604351674</v>
       </c>
       <c r="P5">
-        <v>-0.157380778743927</v>
+        <v>4.86800381922251</v>
       </c>
       <c r="Q5">
-        <v>-0.148744298137621</v>
+        <v>5.87122159492829</v>
       </c>
       <c r="R5">
-        <v>-0.163830123056451</v>
+        <v>6.87443937063406</v>
+      </c>
+      <c r="S5">
+        <v>7.87765714633984</v>
       </c>
       <c r="T5">
-        <v>-0.133299852083072</v>
+        <v>8.88087492204561</v>
       </c>
       <c r="U5">
-        <v>-0.132376885856216</v>
+        <v>9.88409269775138</v>
       </c>
       <c r="V5">
-        <v>-0.159507613581296</v>
+        <v>10.8873104734571</v>
+      </c>
+      <c r="W5">
+        <v>11.8905282491629</v>
       </c>
       <c r="X5">
-        <v>-0.191058087458079</v>
+        <v>12.8937460248687</v>
       </c>
       <c r="Y5">
-        <v>-0.161026683649851</v>
+        <v>13.8969638005745</v>
+      </c>
+      <c r="Z5">
+        <v>14.9001815762802</v>
+      </c>
+      <c r="AA5">
+        <v>15.903399351986</v>
+      </c>
+      <c r="AB5">
+        <v>16.9066171276918</v>
+      </c>
+      <c r="AC5">
+        <v>-0.14808505930636</v>
+      </c>
+      <c r="AD5">
+        <v>0.855132716399414</v>
+      </c>
+      <c r="AE5">
+        <v>17.9098349033975</v>
+      </c>
+      <c r="AF5">
+        <v>0.855132716399414</v>
       </c>
       <c r="AG5">
-        <v>-0.11768935638877</v>
+        <v>1.85835049210519</v>
+      </c>
+      <c r="AH5">
+        <v>18.9130526791033</v>
+      </c>
+      <c r="AI5">
+        <v>1.85835049210519</v>
+      </c>
+      <c r="AJ5">
+        <v>2.86156826781097</v>
+      </c>
+      <c r="AK5">
+        <v>19.9162704548091</v>
+      </c>
+      <c r="AL5">
+        <v>2.86156826781097</v>
       </c>
       <c r="AM5">
-        <v>-0.146302340066695</v>
+        <v>3.86478604351674</v>
       </c>
       <c r="AN5">
-        <v>-0.160403441404748</v>
+        <v>20.9194882305149</v>
+      </c>
+      <c r="AO5">
+        <v>3.86478604351674</v>
       </c>
       <c r="AP5">
-        <v>-0.212608748401416</v>
+        <v>4.86800381922251</v>
+      </c>
+      <c r="AQ5">
+        <v>21.9227060062206</v>
+      </c>
+      <c r="AR5">
+        <v>4.86800381922251</v>
       </c>
       <c r="AS5">
-        <v>-0.140530720401806</v>
+        <v>5.87122159492829</v>
+      </c>
+      <c r="AT5">
+        <v>22.9259237819264</v>
+      </c>
+      <c r="AU5">
+        <v>5.87122159492829</v>
+      </c>
+      <c r="AV5">
+        <v>6.87443937063406</v>
+      </c>
+      <c r="AW5">
+        <v>23.9291415576322</v>
+      </c>
+      <c r="AX5">
+        <v>6.87443937063406</v>
       </c>
       <c r="AY5">
-        <v>-0.1783314237182</v>
+        <v>7.87765714633984</v>
       </c>
       <c r="AZ5">
-        <v>-0.128161781860154</v>
+        <v>24.932359333338</v>
       </c>
       <c r="BA5">
-        <v>-0.141908053867436</v>
+        <v>7.87765714633984</v>
       </c>
       <c r="BB5">
-        <v>-0.16466584667386</v>
+        <v>8.88087492204561</v>
       </c>
       <c r="BC5">
-        <v>-0.141368185379257</v>
+        <v>25.9355771090437</v>
+      </c>
+      <c r="BD5">
+        <v>8.88087492204561</v>
+      </c>
+      <c r="BE5">
+        <v>9.88409269775138</v>
       </c>
       <c r="BF5">
-        <v>-0.131966424931342</v>
+        <v>26.9387948847495</v>
       </c>
       <c r="BG5">
-        <v>-0.150142693164558</v>
+        <v>9.88409269775138</v>
+      </c>
+      <c r="BH5">
+        <v>10.8873104734571</v>
       </c>
       <c r="BI5">
-        <v>-0.13484756465334</v>
+        <v>27.9420126604553</v>
+      </c>
+      <c r="BJ5">
+        <v>10.8873104734571</v>
       </c>
       <c r="BK5">
-        <v>-0.16162306883952</v>
+        <v>11.8905282491629</v>
+      </c>
+      <c r="BL5">
+        <v>28.9452304361611</v>
       </c>
       <c r="BM5">
-        <v>-0.137603776695032</v>
+        <v>11.8905282491629</v>
       </c>
       <c r="BN5">
-        <v>-0.149683870215046</v>
+        <v>12.8937460248687</v>
+      </c>
+      <c r="BO5">
+        <v>29.9484482118668</v>
       </c>
       <c r="BP5">
-        <v>-0.124699555641547</v>
+        <v>12.8937460248687</v>
+      </c>
+      <c r="BQ5">
+        <v>13.8969638005745</v>
       </c>
       <c r="BR5">
-        <v>-0.160878088080119</v>
+        <v>30.9516659875726</v>
       </c>
       <c r="BS5">
-        <v>-0.169064806160426</v>
+        <v>13.8969638005745</v>
       </c>
       <c r="BT5">
-        <v>-0.147626667891982</v>
+        <v>14.9001815762802</v>
       </c>
       <c r="BU5">
-        <v>-0.17472858026762</v>
+        <v>31.9548837632784</v>
       </c>
       <c r="BV5">
-        <v>-0.181754461958256</v>
+        <v>14.9001815762802</v>
       </c>
       <c r="BW5">
-        <v>-0.160481234836976</v>
+        <v>15.903399351986</v>
+      </c>
+      <c r="BX5">
+        <v>32.9581015389842</v>
       </c>
       <c r="BY5">
-        <v>-0.154972897904293</v>
+        <v>15.903399351986</v>
+      </c>
+      <c r="BZ5">
+        <v>16.9066171276918</v>
       </c>
       <c r="CA5">
-        <v>-0.13275894154507</v>
+        <v>33.9613193146899</v>
+      </c>
+      <c r="CB5">
+        <v>16.9066171276918</v>
       </c>
       <c r="CC5">
-        <v>-0.149668906927638</v>
+        <v>17.9098349033975</v>
       </c>
       <c r="CD5">
-        <v>-0.15021660080212</v>
+        <v>34.9645370903957</v>
       </c>
       <c r="CE5">
-        <v>-0.217657021913373</v>
+        <v>17.9098349033975</v>
       </c>
       <c r="CF5">
-        <v>-0.193324811419412</v>
+        <v>18.9130526791033</v>
+      </c>
+      <c r="CG5">
+        <v>35.9677548661015</v>
       </c>
       <c r="CH5">
-        <v>-0.151400248362528</v>
+        <v>18.9130526791033</v>
       </c>
       <c r="CI5">
-        <v>-0.139755451326428</v>
+        <v>19.9162704548091</v>
+      </c>
+      <c r="CJ5">
+        <v>36.9709726418073</v>
+      </c>
+      <c r="CK5">
+        <v>36.9709726418073</v>
+      </c>
+      <c r="CL5">
+        <v>19.9162704548091</v>
       </c>
       <c r="CM5">
-        <v>-0.11874285367568</v>
+        <v>20.9194882305149</v>
+      </c>
+      <c r="CN5">
+        <v>37.974190417513</v>
       </c>
       <c r="CO5">
-        <v>-0.177084194605345</v>
+        <v>37.974190417513</v>
       </c>
       <c r="CP5">
-        <v>-0.142003799213236</v>
+        <v>20.9194882305149</v>
       </c>
       <c r="CQ5">
-        <v>-0.112381084351587</v>
+        <v>21.9227060062206</v>
       </c>
       <c r="CR5">
-        <v>-0.165982032165732</v>
+        <v>38.9774081932188</v>
       </c>
       <c r="CS5">
-        <v>-0.187960410703051</v>
+        <v>38.9774081932188</v>
       </c>
       <c r="CT5">
-        <v>-0.163874030997321</v>
+        <v>21.9227060062206</v>
       </c>
       <c r="CU5">
-        <v>-0.178304026500186</v>
+        <v>22.9259237819264</v>
       </c>
       <c r="CV5">
-        <v>-0.170349241282457</v>
+        <v>39.9806259689246</v>
       </c>
       <c r="CW5">
-        <v>-0.161280996385082</v>
+        <v>39.9806259689246</v>
       </c>
       <c r="CX5">
-        <v>-0.158431399672364</v>
+        <v>22.9259237819264</v>
       </c>
       <c r="CY5">
-        <v>-0.133379754806604</v>
+        <v>23.9291415576322</v>
+      </c>
+      <c r="CZ5">
+        <v>40.9838437446304</v>
       </c>
     </row>
     <row r="6" spans="1:104">
       <c r="A6">
-        <v>32876</v>
+        <v>32964</v>
+      </c>
+      <c r="D6">
+        <v>4.85404481470164</v>
+      </c>
+      <c r="E6">
+        <v>-0.124705452341863</v>
+      </c>
+      <c r="F6">
+        <v>1.87793575292407</v>
+      </c>
+      <c r="G6">
+        <v>-0.136213130626967</v>
       </c>
       <c r="H6">
-        <v>-0.108222730470758</v>
+        <v>-0.12704613548221</v>
+      </c>
+      <c r="I6">
+        <v>-0.12750693281535</v>
       </c>
       <c r="J6">
-        <v>-0.124260759323457</v>
+        <v>-0.129640074760477</v>
       </c>
       <c r="K6">
-        <v>-0.147878807365929</v>
+        <v>-0.14812510565124</v>
+      </c>
+      <c r="L6">
+        <v>0.855092670054534</v>
       </c>
       <c r="M6">
-        <v>-0.141909452810758</v>
+        <v>1.85831044576031</v>
       </c>
       <c r="N6">
-        <v>-0.171950453150955</v>
+        <v>2.86152822146609</v>
       </c>
       <c r="O6">
-        <v>-0.172443653264652</v>
+        <v>3.86474599717186</v>
       </c>
       <c r="P6">
-        <v>-0.159965672143837</v>
+        <v>4.86796377287763</v>
       </c>
       <c r="Q6">
-        <v>-0.150694903693248</v>
+        <v>5.87118154858341</v>
       </c>
       <c r="R6">
-        <v>-0.167140113372587</v>
+        <v>6.87439932428918</v>
+      </c>
+      <c r="S6">
+        <v>7.87761709999496</v>
       </c>
       <c r="T6">
-        <v>-0.135075001266911</v>
+        <v>8.88083487570073</v>
       </c>
       <c r="U6">
-        <v>-0.131328975178747</v>
+        <v>9.8840526514065</v>
       </c>
       <c r="V6">
-        <v>-0.160590699857561</v>
+        <v>10.8872704271123</v>
+      </c>
+      <c r="W6">
+        <v>11.890488202818</v>
       </c>
       <c r="X6">
-        <v>-0.195528011530938</v>
+        <v>12.8937059785238</v>
       </c>
       <c r="Y6">
-        <v>-0.160801691799384</v>
+        <v>13.8969237542296</v>
+      </c>
+      <c r="Z6">
+        <v>14.9001415299353</v>
+      </c>
+      <c r="AA6">
+        <v>15.9033593056411</v>
+      </c>
+      <c r="AB6">
+        <v>16.9065770813469</v>
+      </c>
+      <c r="AC6">
+        <v>-0.14812510565124</v>
+      </c>
+      <c r="AD6">
+        <v>0.855092670054534</v>
+      </c>
+      <c r="AE6">
+        <v>17.9097948570527</v>
+      </c>
+      <c r="AF6">
+        <v>0.855092670054534</v>
       </c>
       <c r="AG6">
-        <v>-0.116411214762317</v>
+        <v>1.85831044576031</v>
+      </c>
+      <c r="AH6">
+        <v>18.9130126327584</v>
+      </c>
+      <c r="AI6">
+        <v>1.85831044576031</v>
+      </c>
+      <c r="AJ6">
+        <v>2.86152822146609</v>
+      </c>
+      <c r="AK6">
+        <v>19.9162304084642</v>
+      </c>
+      <c r="AL6">
+        <v>2.86152822146609</v>
       </c>
       <c r="AM6">
-        <v>-0.148360528366666</v>
+        <v>3.86474599717186</v>
       </c>
       <c r="AN6">
-        <v>-0.162269649007063</v>
+        <v>20.91944818417</v>
+      </c>
+      <c r="AO6">
+        <v>3.86474599717186</v>
       </c>
       <c r="AP6">
-        <v>-0.218773497754862</v>
+        <v>4.86796377287763</v>
+      </c>
+      <c r="AQ6">
+        <v>21.9226659598758</v>
+      </c>
+      <c r="AR6">
+        <v>4.86796377287763</v>
       </c>
       <c r="AS6">
-        <v>-0.14141735175946</v>
+        <v>5.87118154858341</v>
+      </c>
+      <c r="AT6">
+        <v>22.9258837355815</v>
+      </c>
+      <c r="AU6">
+        <v>5.87118154858341</v>
+      </c>
+      <c r="AV6">
+        <v>6.87439932428918</v>
+      </c>
+      <c r="AW6">
+        <v>23.9291015112873</v>
+      </c>
+      <c r="AX6">
+        <v>6.87439932428918</v>
       </c>
       <c r="AY6">
-        <v>-0.180816502564999</v>
+        <v>7.87761709999496</v>
       </c>
       <c r="AZ6">
-        <v>-0.127935273691432</v>
+        <v>24.9323192869931</v>
       </c>
       <c r="BA6">
-        <v>-0.143951730212323</v>
+        <v>7.87761709999496</v>
       </c>
       <c r="BB6">
-        <v>-0.166312036961203</v>
+        <v>8.88083487570073</v>
       </c>
       <c r="BC6">
-        <v>-0.143337725291722</v>
+        <v>25.9355370626989</v>
+      </c>
+      <c r="BD6">
+        <v>8.88083487570073</v>
+      </c>
+      <c r="BE6">
+        <v>9.8840526514065</v>
       </c>
       <c r="BF6">
-        <v>-0.132654095430739</v>
+        <v>26.9387548384046</v>
       </c>
       <c r="BG6">
-        <v>-0.149681052177525</v>
+        <v>9.8840526514065</v>
+      </c>
+      <c r="BH6">
+        <v>10.8872704271123</v>
       </c>
       <c r="BI6">
-        <v>-0.135939228263064</v>
+        <v>27.9419726141104</v>
+      </c>
+      <c r="BJ6">
+        <v>10.8872704271123</v>
       </c>
       <c r="BK6">
-        <v>-0.162051875430977</v>
+        <v>11.890488202818</v>
+      </c>
+      <c r="BL6">
+        <v>28.9451903898162</v>
       </c>
       <c r="BM6">
-        <v>-0.137515717429719</v>
+        <v>11.890488202818</v>
       </c>
       <c r="BN6">
-        <v>-0.149409376319464</v>
+        <v>12.8937059785238</v>
+      </c>
+      <c r="BO6">
+        <v>29.948408165522</v>
       </c>
       <c r="BP6">
-        <v>-0.125471714022977</v>
+        <v>12.8937059785238</v>
+      </c>
+      <c r="BQ6">
+        <v>13.8969237542296</v>
       </c>
       <c r="BR6">
-        <v>-0.16248937207365</v>
+        <v>30.9516259412277</v>
       </c>
       <c r="BS6">
-        <v>-0.170589339669441</v>
+        <v>13.8969237542296</v>
       </c>
       <c r="BT6">
-        <v>-0.147692794463851</v>
+        <v>14.9001415299353</v>
       </c>
       <c r="BU6">
-        <v>-0.176759383734262</v>
+        <v>31.9548437169335</v>
       </c>
       <c r="BV6">
-        <v>-0.18458374448903</v>
+        <v>14.9001415299353</v>
       </c>
       <c r="BW6">
-        <v>-0.163114304324548</v>
+        <v>15.9033593056411</v>
+      </c>
+      <c r="BX6">
+        <v>32.9580614926393</v>
       </c>
       <c r="BY6">
-        <v>-0.156888599210182</v>
+        <v>15.9033593056411</v>
+      </c>
+      <c r="BZ6">
+        <v>16.9065770813469</v>
       </c>
       <c r="CA6">
-        <v>-0.13259781063287</v>
+        <v>33.9612792683451</v>
+      </c>
+      <c r="CB6">
+        <v>16.9065770813469</v>
       </c>
       <c r="CC6">
-        <v>-0.149400691043454</v>
+        <v>17.9097948570527</v>
       </c>
       <c r="CD6">
-        <v>-0.152411603391852</v>
+        <v>34.9644970440508</v>
       </c>
       <c r="CE6">
-        <v>-0.222352281258383</v>
+        <v>17.9097948570527</v>
       </c>
       <c r="CF6">
-        <v>-0.198748661540459</v>
+        <v>18.9130126327584</v>
+      </c>
+      <c r="CG6">
+        <v>35.9677148197566</v>
       </c>
       <c r="CH6">
-        <v>-0.151335657647857</v>
+        <v>18.9130126327584</v>
       </c>
       <c r="CI6">
-        <v>-0.140356864591398</v>
+        <v>19.9162304084642</v>
+      </c>
+      <c r="CJ6">
+        <v>36.9709325954624</v>
+      </c>
+      <c r="CK6">
+        <v>36.9709325954624</v>
+      </c>
+      <c r="CL6">
+        <v>19.9162304084642</v>
       </c>
       <c r="CM6">
-        <v>-0.120764534863579</v>
+        <v>20.91944818417</v>
+      </c>
+      <c r="CN6">
+        <v>37.9741503711682</v>
       </c>
       <c r="CO6">
-        <v>-0.181115136066552</v>
+        <v>37.9741503711682</v>
       </c>
       <c r="CP6">
-        <v>-0.143958913858302</v>
+        <v>20.91944818417</v>
       </c>
       <c r="CQ6">
-        <v>-0.110930086066572</v>
+        <v>21.9226659598758</v>
       </c>
       <c r="CR6">
-        <v>-0.165872629850945</v>
+        <v>38.9773681468739</v>
       </c>
       <c r="CS6">
-        <v>-0.191474898041539</v>
+        <v>38.9773681468739</v>
       </c>
       <c r="CT6">
-        <v>-0.165955365823428</v>
+        <v>21.9226659598758</v>
       </c>
       <c r="CU6">
-        <v>-0.180987290647201</v>
+        <v>22.9258837355815</v>
       </c>
       <c r="CV6">
-        <v>-0.173622562508213</v>
+        <v>39.9805859225797</v>
       </c>
       <c r="CW6">
-        <v>-0.163434489998413</v>
+        <v>39.9805859225797</v>
       </c>
       <c r="CX6">
-        <v>-0.159858816357336</v>
+        <v>22.9258837355815</v>
       </c>
       <c r="CY6">
-        <v>-0.132210742660647</v>
+        <v>23.9291015112873</v>
+      </c>
+      <c r="CZ6">
+        <v>40.9838036982855</v>
       </c>
     </row>
     <row r="7" spans="1:104">
       <c r="A7">
-        <v>32877</v>
+        <v>32994</v>
+      </c>
+      <c r="D7">
+        <v>4.85404098556773</v>
+      </c>
+      <c r="E7">
+        <v>-0.124688595442161</v>
+      </c>
+      <c r="F7">
+        <v>1.87803490524028</v>
+      </c>
+      <c r="G7">
+        <v>-0.136207755971995</v>
       </c>
       <c r="H7">
-        <v>-0.109098142315497</v>
+        <v>-0.127042114091989</v>
+      </c>
+      <c r="I7">
+        <v>-0.127503726817911</v>
       </c>
       <c r="J7">
-        <v>-0.125907389036419</v>
+        <v>-0.129624250217779</v>
       </c>
       <c r="K7">
-        <v>-0.147826171559773</v>
+        <v>-0.148099964683766</v>
+      </c>
+      <c r="L7">
+        <v>0.855117811022008</v>
       </c>
       <c r="M7">
-        <v>-0.141016331961878</v>
+        <v>1.85833558672778</v>
       </c>
       <c r="N7">
-        <v>-0.169965290550312</v>
+        <v>2.86155336243356</v>
       </c>
       <c r="O7">
-        <v>-0.170673905487372</v>
+        <v>3.86477113813933</v>
       </c>
       <c r="P7">
-        <v>-0.158342884319276</v>
+        <v>4.86798891384511</v>
       </c>
       <c r="Q7">
-        <v>-0.149470319752455</v>
+        <v>5.87120668955088</v>
       </c>
       <c r="R7">
-        <v>-0.165062112018787</v>
+        <v>6.87442446525666</v>
+      </c>
+      <c r="S7">
+        <v>7.87764224096243</v>
       </c>
       <c r="T7">
-        <v>-0.133960568276207</v>
+        <v>8.8808600166682</v>
       </c>
       <c r="U7">
-        <v>-0.131986850156757</v>
+        <v>9.88407779237398</v>
       </c>
       <c r="V7">
-        <v>-0.15991074175092</v>
+        <v>10.8872955680797</v>
+      </c>
+      <c r="W7">
+        <v>11.8905133437855</v>
       </c>
       <c r="X7">
-        <v>-0.19272180746759</v>
+        <v>12.8937311194913</v>
       </c>
       <c r="Y7">
-        <v>-0.160942940964853</v>
+        <v>13.896948895197</v>
+      </c>
+      <c r="Z7">
+        <v>14.9001666709028</v>
+      </c>
+      <c r="AA7">
+        <v>15.9033844466086</v>
+      </c>
+      <c r="AB7">
+        <v>16.9066022223144</v>
+      </c>
+      <c r="AC7">
+        <v>-0.148099964683766</v>
+      </c>
+      <c r="AD7">
+        <v>0.855117811022008</v>
+      </c>
+      <c r="AE7">
+        <v>17.9098199980201</v>
+      </c>
+      <c r="AF7">
+        <v>0.855117811022008</v>
       </c>
       <c r="AG7">
-        <v>-0.11721362799512</v>
+        <v>1.85833558672778</v>
+      </c>
+      <c r="AH7">
+        <v>18.9130377737259</v>
+      </c>
+      <c r="AI7">
+        <v>1.85833558672778</v>
+      </c>
+      <c r="AJ7">
+        <v>2.86155336243356</v>
+      </c>
+      <c r="AK7">
+        <v>19.9162555494317</v>
+      </c>
+      <c r="AL7">
+        <v>2.86155336243356</v>
       </c>
       <c r="AM7">
-        <v>-0.147068404322416</v>
+        <v>3.86477113813933</v>
       </c>
       <c r="AN7">
-        <v>-0.16109804983193</v>
+        <v>20.9194733251375</v>
+      </c>
+      <c r="AO7">
+        <v>3.86477113813933</v>
       </c>
       <c r="AP7">
-        <v>-0.214903287790849</v>
+        <v>4.86798891384511</v>
+      </c>
+      <c r="AQ7">
+        <v>21.9226911008432</v>
+      </c>
+      <c r="AR7">
+        <v>4.86798891384511</v>
       </c>
       <c r="AS7">
-        <v>-0.140860727423568</v>
+        <v>5.87120668955088</v>
+      </c>
+      <c r="AT7">
+        <v>22.925908876549</v>
+      </c>
+      <c r="AU7">
+        <v>5.87120668955088</v>
+      </c>
+      <c r="AV7">
+        <v>6.87442446525666</v>
+      </c>
+      <c r="AW7">
+        <v>23.9291266522548</v>
+      </c>
+      <c r="AX7">
+        <v>6.87442446525666</v>
       </c>
       <c r="AY7">
-        <v>-0.179256377998237</v>
+        <v>7.87764224096243</v>
       </c>
       <c r="AZ7">
-        <v>-0.128077474796661</v>
+        <v>24.9323444279606</v>
       </c>
       <c r="BA7">
-        <v>-0.142668716727148</v>
+        <v>7.87764224096243</v>
       </c>
       <c r="BB7">
-        <v>-0.165278563954036</v>
+        <v>8.8808600166682</v>
       </c>
       <c r="BC7">
-        <v>-0.142101254422151</v>
+        <v>25.9355622036663</v>
+      </c>
+      <c r="BD7">
+        <v>8.8808600166682</v>
+      </c>
+      <c r="BE7">
+        <v>9.88407779237398</v>
       </c>
       <c r="BF7">
-        <v>-0.132222378086507</v>
+        <v>26.9387799793721</v>
       </c>
       <c r="BG7">
-        <v>-0.149970868915462</v>
+        <v>9.88407779237398</v>
+      </c>
+      <c r="BH7">
+        <v>10.8872955680797</v>
       </c>
       <c r="BI7">
-        <v>-0.135253885333859</v>
+        <v>27.9419977550779</v>
+      </c>
+      <c r="BJ7">
+        <v>10.8872955680797</v>
       </c>
       <c r="BK7">
-        <v>-0.161782672021764</v>
+        <v>11.8905133437855</v>
+      </c>
+      <c r="BL7">
+        <v>28.9452155307837</v>
       </c>
       <c r="BM7">
-        <v>-0.137571000755366</v>
+        <v>11.8905133437855</v>
       </c>
       <c r="BN7">
-        <v>-0.149581702710828</v>
+        <v>12.8937311194913</v>
+      </c>
+      <c r="BO7">
+        <v>29.9484333064894</v>
       </c>
       <c r="BP7">
-        <v>-0.12498695545612</v>
+        <v>12.8937311194913</v>
+      </c>
+      <c r="BQ7">
+        <v>13.896948895197</v>
       </c>
       <c r="BR7">
-        <v>-0.161477813126305</v>
+        <v>30.9516510821952</v>
       </c>
       <c r="BS7">
-        <v>-0.169632242399337</v>
+        <v>13.896948895197</v>
       </c>
       <c r="BT7">
-        <v>-0.147651280413131</v>
+        <v>14.9001666709028</v>
       </c>
       <c r="BU7">
-        <v>-0.175484451800954</v>
+        <v>31.954868857901</v>
       </c>
       <c r="BV7">
-        <v>-0.18280752994829</v>
+        <v>14.9001666709028</v>
       </c>
       <c r="BW7">
-        <v>-0.161461271705948</v>
+        <v>15.9033844466086</v>
+      </c>
+      <c r="BX7">
+        <v>32.9580866336068</v>
       </c>
       <c r="BY7">
-        <v>-0.155685928045947</v>
+        <v>15.9033844466086</v>
+      </c>
+      <c r="BZ7">
+        <v>16.9066022223144</v>
       </c>
       <c r="CA7">
-        <v>-0.132698968105162</v>
+        <v>33.9613044093125</v>
+      </c>
+      <c r="CB7">
+        <v>16.9066022223144</v>
       </c>
       <c r="CC7">
-        <v>-0.149569076119304</v>
+        <v>17.9098199980201</v>
       </c>
       <c r="CD7">
-        <v>-0.15103358777325</v>
+        <v>34.9645221850183</v>
       </c>
       <c r="CE7">
-        <v>-0.21940461243053</v>
+        <v>17.9098199980201</v>
       </c>
       <c r="CF7">
-        <v>-0.195343585749332</v>
+        <v>18.9130377737259</v>
+      </c>
+      <c r="CG7">
+        <v>35.9677399607241</v>
       </c>
       <c r="CH7">
-        <v>-0.151376207492331</v>
+        <v>18.9130377737259</v>
       </c>
       <c r="CI7">
-        <v>-0.139979299263576</v>
+        <v>19.9162555494317</v>
+      </c>
+      <c r="CJ7">
+        <v>36.9709577364299</v>
+      </c>
+      <c r="CK7">
+        <v>36.9709577364299</v>
+      </c>
+      <c r="CL7">
+        <v>19.9162555494317</v>
       </c>
       <c r="CM7">
-        <v>-0.119495329867744</v>
+        <v>20.9194733251375</v>
+      </c>
+      <c r="CN7">
+        <v>37.9741755121356</v>
       </c>
       <c r="CO7">
-        <v>-0.17858452388541</v>
+        <v>37.9741755121356</v>
       </c>
       <c r="CP7">
-        <v>-0.142731499125553</v>
+        <v>20.9194733251375</v>
       </c>
       <c r="CQ7">
-        <v>-0.1118410181578</v>
+        <v>21.9226911008432</v>
       </c>
       <c r="CR7">
-        <v>-0.165941312274917</v>
+        <v>38.9773932878414</v>
       </c>
       <c r="CS7">
-        <v>-0.189268514109934</v>
+        <v>38.9773932878414</v>
       </c>
       <c r="CT7">
-        <v>-0.164648710463962</v>
+        <v>21.9226911008432</v>
       </c>
       <c r="CU7">
-        <v>-0.179302745981642</v>
+        <v>22.925908876549</v>
       </c>
       <c r="CV7">
-        <v>-0.171567581892293</v>
+        <v>39.9806110635472</v>
       </c>
       <c r="CW7">
-        <v>-0.162082533582684</v>
+        <v>39.9806110635472</v>
       </c>
       <c r="CX7">
-        <v>-0.158962688719334</v>
+        <v>22.925908876549</v>
       </c>
       <c r="CY7">
-        <v>-0.132944644753975</v>
+        <v>23.9291266522548</v>
+      </c>
+      <c r="CZ7">
+        <v>40.983828839253</v>
       </c>
     </row>
     <row r="8" spans="1:104">
       <c r="A8">
-        <v>32878</v>
+        <v>33025</v>
+      </c>
+      <c r="D8">
+        <v>4.85404326447589</v>
+      </c>
+      <c r="E8">
+        <v>-0.124698627822097</v>
+      </c>
+      <c r="F8">
+        <v>1.87797589476236</v>
+      </c>
+      <c r="G8">
+        <v>-0.136210954696651</v>
       </c>
       <c r="H8">
-        <v>-0.108577141159756</v>
+        <v>-0.127044507421444</v>
+      </c>
+      <c r="I8">
+        <v>-0.127505634866541</v>
       </c>
       <c r="J8">
-        <v>-0.124927397745821</v>
+        <v>-0.129633668190684</v>
       </c>
       <c r="K8">
-        <v>-0.147857497747562</v>
+        <v>-0.148114927324709</v>
+      </c>
+      <c r="L8">
+        <v>0.855102848381065</v>
       </c>
       <c r="M8">
-        <v>-0.141547872627314</v>
+        <v>1.85832062408684</v>
       </c>
       <c r="N8">
-        <v>-0.171146759610257</v>
+        <v>2.86153839979262</v>
       </c>
       <c r="O8">
-        <v>-0.171727170465306</v>
+        <v>3.86475617549839</v>
       </c>
       <c r="P8">
-        <v>-0.159308686115538</v>
+        <v>4.86797395120416</v>
       </c>
       <c r="Q8">
-        <v>-0.150199130599931</v>
+        <v>5.87119172690994</v>
       </c>
       <c r="R8">
-        <v>-0.166298834041075</v>
+        <v>6.87440950261571</v>
+      </c>
+      <c r="S8">
+        <v>7.87762727832149</v>
       </c>
       <c r="T8">
-        <v>-0.134623822811363</v>
+        <v>8.88084505402726</v>
       </c>
       <c r="U8">
-        <v>-0.131595316016642</v>
+        <v>9.88406282973303</v>
       </c>
       <c r="V8">
-        <v>-0.160315418659902</v>
+        <v>10.8872806054388</v>
+      </c>
+      <c r="W8">
+        <v>11.8904983811446</v>
       </c>
       <c r="X8">
-        <v>-0.194391919163057</v>
+        <v>12.8937161568503</v>
       </c>
       <c r="Y8">
-        <v>-0.160858876556884</v>
+        <v>13.8969339325561</v>
+      </c>
+      <c r="Z8">
+        <v>14.9001517082619</v>
+      </c>
+      <c r="AA8">
+        <v>15.9033694839677</v>
+      </c>
+      <c r="AB8">
+        <v>16.9065872596734</v>
+      </c>
+      <c r="AC8">
+        <v>-0.148114927324709</v>
+      </c>
+      <c r="AD8">
+        <v>0.855102848381065</v>
+      </c>
+      <c r="AE8">
+        <v>17.9098050353792</v>
+      </c>
+      <c r="AF8">
+        <v>0.855102848381065</v>
       </c>
       <c r="AG8">
-        <v>-0.11673607194629</v>
+        <v>1.85832062408684</v>
+      </c>
+      <c r="AH8">
+        <v>18.913022811085</v>
+      </c>
+      <c r="AI8">
+        <v>1.85832062408684</v>
+      </c>
+      <c r="AJ8">
+        <v>2.86153839979262</v>
+      </c>
+      <c r="AK8">
+        <v>19.9162405867907</v>
+      </c>
+      <c r="AL8">
+        <v>2.86153839979262</v>
       </c>
       <c r="AM8">
-        <v>-0.147837411646752</v>
+        <v>3.86475617549839</v>
       </c>
       <c r="AN8">
-        <v>-0.16179532680845</v>
+        <v>20.9194583624965</v>
+      </c>
+      <c r="AO8">
+        <v>3.86475617549839</v>
       </c>
       <c r="AP8">
-        <v>-0.217206642350566</v>
+        <v>4.86797395120416</v>
+      </c>
+      <c r="AQ8">
+        <v>21.9226761382023</v>
+      </c>
+      <c r="AR8">
+        <v>4.86797395120416</v>
       </c>
       <c r="AS8">
-        <v>-0.141192002267581</v>
+        <v>5.87119172690994</v>
+      </c>
+      <c r="AT8">
+        <v>22.9258939139081</v>
+      </c>
+      <c r="AU8">
+        <v>5.87119172690994</v>
+      </c>
+      <c r="AV8">
+        <v>6.87440950261571</v>
+      </c>
+      <c r="AW8">
+        <v>23.9291116896138</v>
+      </c>
+      <c r="AX8">
+        <v>6.87440950261571</v>
       </c>
       <c r="AY8">
-        <v>-0.180184885771198</v>
+        <v>7.87762727832149</v>
       </c>
       <c r="AZ8">
-        <v>-0.127992843841966</v>
+        <v>24.9323294653196</v>
       </c>
       <c r="BA8">
-        <v>-0.14343230190437</v>
+        <v>7.87762727832149</v>
       </c>
       <c r="BB8">
-        <v>-0.165893635173825</v>
+        <v>8.88084505402726</v>
       </c>
       <c r="BC8">
-        <v>-0.142837139772524</v>
+        <v>25.9355472410254</v>
+      </c>
+      <c r="BD8">
+        <v>8.88084505402726</v>
+      </c>
+      <c r="BE8">
+        <v>9.88406282973303</v>
       </c>
       <c r="BF8">
-        <v>-0.132479314563492</v>
+        <v>26.9387650167312</v>
       </c>
       <c r="BG8">
-        <v>-0.149798384551302</v>
+        <v>9.88406282973303</v>
+      </c>
+      <c r="BH8">
+        <v>10.8872806054388</v>
       </c>
       <c r="BI8">
-        <v>-0.135661767018738</v>
+        <v>27.9419827924369</v>
+      </c>
+      <c r="BJ8">
+        <v>10.8872806054388</v>
       </c>
       <c r="BK8">
-        <v>-0.16194288836813</v>
+        <v>11.8904983811446</v>
+      </c>
+      <c r="BL8">
+        <v>28.9452005681427</v>
       </c>
       <c r="BM8">
-        <v>-0.137538098896968</v>
+        <v>11.8904983811446</v>
       </c>
       <c r="BN8">
-        <v>-0.149479142699098</v>
+        <v>12.8937161568503</v>
+      </c>
+      <c r="BO8">
+        <v>29.9484183438485</v>
       </c>
       <c r="BP8">
-        <v>-0.125275459404411</v>
+        <v>12.8937161568503</v>
+      </c>
+      <c r="BQ8">
+        <v>13.8969339325561</v>
       </c>
       <c r="BR8">
-        <v>-0.162079842198489</v>
+        <v>30.9516361195543</v>
       </c>
       <c r="BS8">
-        <v>-0.17020185861698</v>
+        <v>13.8969339325561</v>
       </c>
       <c r="BT8">
-        <v>-0.147675987490759</v>
+        <v>14.9001517082619</v>
       </c>
       <c r="BU8">
-        <v>-0.176243227244463</v>
+        <v>31.95485389526</v>
       </c>
       <c r="BV8">
-        <v>-0.183864643618993</v>
+        <v>14.9001517082619</v>
       </c>
       <c r="BW8">
-        <v>-0.162445073684347</v>
+        <v>15.9033694839677</v>
+      </c>
+      <c r="BX8">
+        <v>32.9580716709658</v>
       </c>
       <c r="BY8">
-        <v>-0.156401697509552</v>
+        <v>15.9033694839677</v>
+      </c>
+      <c r="BZ8">
+        <v>16.9065872596734</v>
       </c>
       <c r="CA8">
-        <v>-0.13263876425906</v>
+        <v>33.9612894466716</v>
+      </c>
+      <c r="CB8">
+        <v>16.9065872596734</v>
       </c>
       <c r="CC8">
-        <v>-0.149468861780585</v>
+        <v>17.9098050353792</v>
       </c>
       <c r="CD8">
-        <v>-0.15185371344808</v>
+        <v>34.9645072223774</v>
       </c>
       <c r="CE8">
-        <v>-0.221158916847682</v>
+        <v>17.9098050353792</v>
       </c>
       <c r="CF8">
-        <v>-0.197370115814265</v>
+        <v>18.913022811085</v>
+      </c>
+      <c r="CG8">
+        <v>35.9677249980831</v>
       </c>
       <c r="CH8">
-        <v>-0.151352074261826</v>
+        <v>18.913022811085</v>
       </c>
       <c r="CI8">
-        <v>-0.140204007180593</v>
+        <v>19.9162405867907</v>
+      </c>
+      <c r="CJ8">
+        <v>36.9709427737889</v>
+      </c>
+      <c r="CK8">
+        <v>36.9709427737889</v>
+      </c>
+      <c r="CL8">
+        <v>19.9162405867907</v>
       </c>
       <c r="CM8">
-        <v>-0.120250696925748</v>
+        <v>20.9194583624965</v>
+      </c>
+      <c r="CN8">
+        <v>37.9741605494947</v>
       </c>
       <c r="CO8">
-        <v>-0.180090617136295</v>
+        <v>37.9741605494947</v>
       </c>
       <c r="CP8">
-        <v>-0.143461994718203</v>
+        <v>20.9194583624965</v>
       </c>
       <c r="CQ8">
-        <v>-0.111298877135625</v>
+        <v>21.9226761382023</v>
       </c>
       <c r="CR8">
-        <v>-0.165900435946268</v>
+        <v>38.9773783252005</v>
       </c>
       <c r="CS8">
-        <v>-0.190581642993536</v>
+        <v>38.9773783252005</v>
       </c>
       <c r="CT8">
-        <v>-0.165426366097168</v>
+        <v>21.9226761382023</v>
       </c>
       <c r="CU8">
-        <v>-0.180305302347457</v>
+        <v>22.9258939139081</v>
       </c>
       <c r="CV8">
-        <v>-0.172790603127788</v>
+        <v>39.9805961009062</v>
       </c>
       <c r="CW8">
-        <v>-0.162887150128986</v>
+        <v>39.9805961009062</v>
       </c>
       <c r="CX8">
-        <v>-0.159496018874616</v>
+        <v>22.9258939139081</v>
       </c>
       <c r="CY8">
-        <v>-0.132507863093865</v>
+        <v>23.9291116896138</v>
+      </c>
+      <c r="CZ8">
+        <v>40.983813876612</v>
       </c>
     </row>
     <row r="9" spans="1:104">
       <c r="A9">
-        <v>32881</v>
+        <v>33055</v>
+      </c>
+      <c r="D9">
+        <v>4.85403857306786</v>
+      </c>
+      <c r="E9">
+        <v>-0.124677974954851</v>
+      </c>
+      <c r="F9">
+        <v>1.87809737496691</v>
+      </c>
+      <c r="G9">
+        <v>-0.136204369735147</v>
       </c>
       <c r="H9">
-        <v>-0.10964968504</v>
+        <v>-0.127039580463352</v>
+      </c>
+      <c r="I9">
+        <v>-0.127501706917708</v>
       </c>
       <c r="J9">
-        <v>-0.126944828321248</v>
+        <v>-0.129614280154606</v>
       </c>
       <c r="K9">
-        <v>-0.147793009001933</v>
+        <v>-0.148084124918997</v>
+      </c>
+      <c r="L9">
+        <v>0.855133650786777</v>
       </c>
       <c r="M9">
-        <v>-0.140453631891891</v>
+        <v>1.85835142649255</v>
       </c>
       <c r="N9">
-        <v>-0.168714562683284</v>
+        <v>2.86156920219833</v>
       </c>
       <c r="O9">
-        <v>-0.169558897144006</v>
+        <v>3.8647869779041</v>
       </c>
       <c r="P9">
-        <v>-0.157320466330042</v>
+        <v>4.86800475360988</v>
       </c>
       <c r="Q9">
-        <v>-0.148698785340226</v>
+        <v>5.87122252931565</v>
       </c>
       <c r="R9">
-        <v>-0.163752892209751</v>
+        <v>6.87444030502142</v>
+      </c>
+      <c r="S9">
+        <v>7.8776580807272</v>
       </c>
       <c r="T9">
-        <v>-0.133258433147851</v>
+        <v>8.88087585643297</v>
       </c>
       <c r="U9">
-        <v>-0.132401336389649</v>
+        <v>9.88409363213875</v>
       </c>
       <c r="V9">
-        <v>-0.159482342307916</v>
+        <v>10.8873114078445</v>
+      </c>
+      <c r="W9">
+        <v>11.8905291835503</v>
       </c>
       <c r="X9">
-        <v>-0.190953792282608</v>
+        <v>12.893746959256</v>
       </c>
       <c r="Y9">
-        <v>-0.161031933306029</v>
+        <v>13.8969647349618</v>
+      </c>
+      <c r="Z9">
+        <v>14.9001825106676</v>
+      </c>
+      <c r="AA9">
+        <v>15.9034002863734</v>
+      </c>
+      <c r="AB9">
+        <v>16.9066180620791</v>
+      </c>
+      <c r="AC9">
+        <v>-0.148084124918997</v>
+      </c>
+      <c r="AD9">
+        <v>0.855133650786777</v>
+      </c>
+      <c r="AE9">
+        <v>17.9098358377849</v>
+      </c>
+      <c r="AF9">
+        <v>0.855133650786777</v>
       </c>
       <c r="AG9">
-        <v>-0.117719178820434</v>
+        <v>1.85835142649255</v>
+      </c>
+      <c r="AH9">
+        <v>18.9130536134907</v>
+      </c>
+      <c r="AI9">
+        <v>1.85835142649255</v>
+      </c>
+      <c r="AJ9">
+        <v>2.86156920219833</v>
+      </c>
+      <c r="AK9">
+        <v>19.9162713891965</v>
+      </c>
+      <c r="AL9">
+        <v>2.86156920219833</v>
       </c>
       <c r="AM9">
-        <v>-0.146254317078743</v>
+        <v>3.8647869779041</v>
       </c>
       <c r="AN9">
-        <v>-0.160359897835288</v>
+        <v>20.9194891649022</v>
+      </c>
+      <c r="AO9">
+        <v>3.8647869779041</v>
       </c>
       <c r="AP9">
-        <v>-0.212464908460273</v>
+        <v>4.86800475360988</v>
+      </c>
+      <c r="AQ9">
+        <v>21.922706940608</v>
+      </c>
+      <c r="AR9">
+        <v>4.86800475360988</v>
       </c>
       <c r="AS9">
-        <v>-0.140510032942351</v>
+        <v>5.87122252931565</v>
+      </c>
+      <c r="AT9">
+        <v>22.9259247163138</v>
+      </c>
+      <c r="AU9">
+        <v>5.87122252931565</v>
+      </c>
+      <c r="AV9">
+        <v>6.87444030502142</v>
+      </c>
+      <c r="AW9">
+        <v>23.9291424920196</v>
+      </c>
+      <c r="AX9">
+        <v>6.87444030502142</v>
       </c>
       <c r="AY9">
-        <v>-0.178273440242382</v>
+        <v>7.8776580807272</v>
       </c>
       <c r="AZ9">
-        <v>-0.128167066896055</v>
+        <v>24.9323602677253</v>
       </c>
       <c r="BA9">
-        <v>-0.141860369481858</v>
+        <v>7.8776580807272</v>
       </c>
       <c r="BB9">
-        <v>-0.164627436691481</v>
+        <v>8.88087585643297</v>
       </c>
       <c r="BC9">
-        <v>-0.141322230793135</v>
+        <v>25.9355780434311</v>
+      </c>
+      <c r="BD9">
+        <v>8.88087585643297</v>
+      </c>
+      <c r="BE9">
+        <v>9.88409363213875</v>
       </c>
       <c r="BF9">
-        <v>-0.131950379756025</v>
+        <v>26.9387958191369</v>
       </c>
       <c r="BG9">
-        <v>-0.150153464472295</v>
+        <v>9.88409363213875</v>
+      </c>
+      <c r="BH9">
+        <v>10.8873114078445</v>
       </c>
       <c r="BI9">
-        <v>-0.134822093248037</v>
+        <v>27.9420135948427</v>
+      </c>
+      <c r="BJ9">
+        <v>10.8873114078445</v>
       </c>
       <c r="BK9">
-        <v>-0.161613063645255</v>
+        <v>11.8905291835503</v>
+      </c>
+      <c r="BL9">
+        <v>28.9452313705484</v>
       </c>
       <c r="BM9">
-        <v>-0.137605831351079</v>
+        <v>11.8905291835503</v>
       </c>
       <c r="BN9">
-        <v>-0.149690274885134</v>
+        <v>12.893746959256</v>
+      </c>
+      <c r="BO9">
+        <v>29.9484491462542</v>
       </c>
       <c r="BP9">
-        <v>-0.12468153914002</v>
+        <v>12.893746959256</v>
+      </c>
+      <c r="BQ9">
+        <v>13.8969647349618</v>
       </c>
       <c r="BR9">
-        <v>-0.160840492554087</v>
+        <v>30.95166692196</v>
       </c>
       <c r="BS9">
-        <v>-0.169029234753117</v>
+        <v>13.8969647349618</v>
       </c>
       <c r="BT9">
-        <v>-0.147625124983802</v>
+        <v>14.9001825106676</v>
       </c>
       <c r="BU9">
-        <v>-0.174681196240409</v>
+        <v>31.9548846976658</v>
       </c>
       <c r="BV9">
-        <v>-0.181688447298231</v>
+        <v>14.9001825106676</v>
       </c>
       <c r="BW9">
-        <v>-0.160419798347282</v>
+        <v>15.9034002863734</v>
+      </c>
+      <c r="BX9">
+        <v>32.9581024733715</v>
       </c>
       <c r="BY9">
-        <v>-0.154928199515553</v>
+        <v>15.9034002863734</v>
+      </c>
+      <c r="BZ9">
+        <v>16.9066180620791</v>
       </c>
       <c r="CA9">
-        <v>-0.132762701156305</v>
+        <v>33.9613202490773</v>
+      </c>
+      <c r="CB9">
+        <v>16.9066180620791</v>
       </c>
       <c r="CC9">
-        <v>-0.149675165115081</v>
+        <v>17.9098358377849</v>
       </c>
       <c r="CD9">
-        <v>-0.150165385574182</v>
+        <v>34.9645380247831</v>
       </c>
       <c r="CE9">
-        <v>-0.217547469068786</v>
+        <v>17.9098358377849</v>
       </c>
       <c r="CF9">
-        <v>-0.193198258621001</v>
+        <v>18.9130536134907</v>
+      </c>
+      <c r="CG9">
+        <v>35.9677558004889</v>
       </c>
       <c r="CH9">
-        <v>-0.151401755435089</v>
+        <v>18.9130536134907</v>
       </c>
       <c r="CI9">
-        <v>-0.139741418761002</v>
+        <v>19.9162713891965</v>
+      </c>
+      <c r="CJ9">
+        <v>36.9709735761946</v>
+      </c>
+      <c r="CK9">
+        <v>36.9709735761946</v>
+      </c>
+      <c r="CL9">
+        <v>19.9162713891965</v>
       </c>
       <c r="CM9">
-        <v>-0.118695682495409</v>
+        <v>20.9194891649022</v>
+      </c>
+      <c r="CN9">
+        <v>37.9741913519004</v>
       </c>
       <c r="CO9">
-        <v>-0.17699014205766</v>
+        <v>37.9741913519004</v>
       </c>
       <c r="CP9">
-        <v>-0.141958181206834</v>
+        <v>20.9194891649022</v>
       </c>
       <c r="CQ9">
-        <v>-0.112414939987226</v>
+        <v>21.922706940608</v>
       </c>
       <c r="CR9">
-        <v>-0.16598458481169</v>
+        <v>38.9774091276062</v>
       </c>
       <c r="CS9">
-        <v>-0.187878408398832</v>
+        <v>38.9774091276062</v>
       </c>
       <c r="CT9">
-        <v>-0.163825467939568</v>
+        <v>21.922706940608</v>
       </c>
       <c r="CU9">
-        <v>-0.178241418836054</v>
+        <v>22.9259247163138</v>
       </c>
       <c r="CV9">
-        <v>-0.170272866022822</v>
+        <v>39.980626903312</v>
       </c>
       <c r="CW9">
-        <v>-0.161230749671577</v>
+        <v>39.980626903312</v>
       </c>
       <c r="CX9">
-        <v>-0.158398094257954</v>
+        <v>22.9259247163138</v>
       </c>
       <c r="CY9">
-        <v>-0.133407030958257</v>
+        <v>23.9291424920196</v>
+      </c>
+      <c r="CZ9">
+        <v>40.9838446790177</v>
       </c>
     </row>
     <row r="10" spans="1:104">
       <c r="A10">
-        <v>32882</v>
+        <v>33086</v>
+      </c>
+      <c r="D10">
+        <v>4.85404546036309</v>
+      </c>
+      <c r="E10">
+        <v>-0.12470829472096</v>
+      </c>
+      <c r="F10">
+        <v>1.8779190340448</v>
+      </c>
+      <c r="G10">
+        <v>-0.136214036891299</v>
       </c>
       <c r="H10">
-        <v>-0.10807512015255</v>
+        <v>-0.127046813561555</v>
+      </c>
+      <c r="I10">
+        <v>-0.12750747340468</v>
       </c>
       <c r="J10">
-        <v>-0.123983107681703</v>
+        <v>-0.129642743065455</v>
       </c>
       <c r="K10">
-        <v>-0.147887682717734</v>
+        <v>-0.148129344874448</v>
+      </c>
+      <c r="L10">
+        <v>0.855088430831326</v>
       </c>
       <c r="M10">
-        <v>-0.142060049188331</v>
+        <v>1.8583062065371</v>
       </c>
       <c r="N10">
-        <v>-0.172285187579027</v>
+        <v>2.86152398224288</v>
       </c>
       <c r="O10">
-        <v>-0.172742064845581</v>
+        <v>3.86474175794865</v>
       </c>
       <c r="P10">
-        <v>-0.16023930361068</v>
+        <v>4.86795953365443</v>
       </c>
       <c r="Q10">
-        <v>-0.150901390761318</v>
+        <v>5.8711773093602</v>
       </c>
       <c r="R10">
-        <v>-0.167490502098665</v>
+        <v>6.87439508506597</v>
+      </c>
+      <c r="S10">
+        <v>7.87761286077175</v>
       </c>
       <c r="T10">
-        <v>-0.135262914886505</v>
+        <v>8.88083063647752</v>
       </c>
       <c r="U10">
-        <v>-0.131218045522689</v>
+        <v>9.8840484121833</v>
       </c>
       <c r="V10">
-        <v>-0.160705353129724</v>
+        <v>10.887266187889</v>
+      </c>
+      <c r="W10">
+        <v>11.8904839635948</v>
       </c>
       <c r="X10">
-        <v>-0.196001188444454</v>
+        <v>12.8937017393006</v>
       </c>
       <c r="Y10">
-        <v>-0.16077787462763</v>
+        <v>13.8969195150064</v>
+      </c>
+      <c r="Z10">
+        <v>14.9001372907121</v>
+      </c>
+      <c r="AA10">
+        <v>15.9033550664179</v>
+      </c>
+      <c r="AB10">
+        <v>16.9065728421237</v>
+      </c>
+      <c r="AC10">
+        <v>-0.148129344874448</v>
+      </c>
+      <c r="AD10">
+        <v>0.855088430831326</v>
+      </c>
+      <c r="AE10">
+        <v>17.9097906178295</v>
+      </c>
+      <c r="AF10">
+        <v>0.855088430831326</v>
       </c>
       <c r="AG10">
-        <v>-0.116275913334377</v>
+        <v>1.8583062065371</v>
+      </c>
+      <c r="AH10">
+        <v>18.9130083935352</v>
+      </c>
+      <c r="AI10">
+        <v>1.8583062065371</v>
+      </c>
+      <c r="AJ10">
+        <v>2.86152398224288</v>
+      </c>
+      <c r="AK10">
+        <v>19.916226169241</v>
+      </c>
+      <c r="AL10">
+        <v>2.86152398224288</v>
       </c>
       <c r="AM10">
-        <v>-0.14857840392145</v>
+        <v>3.86474175794865</v>
       </c>
       <c r="AN10">
-        <v>-0.162467201882425</v>
+        <v>20.9194439449468</v>
+      </c>
+      <c r="AO10">
+        <v>3.86474175794865</v>
       </c>
       <c r="AP10">
-        <v>-0.219426085365773</v>
+        <v>4.86795953365443</v>
+      </c>
+      <c r="AQ10">
+        <v>21.9226617206526</v>
+      </c>
+      <c r="AR10">
+        <v>4.86795953365443</v>
       </c>
       <c r="AS10">
-        <v>-0.141511208720429</v>
+        <v>5.8711773093602</v>
+      </c>
+      <c r="AT10">
+        <v>22.9258794963583</v>
+      </c>
+      <c r="AU10">
+        <v>5.8711773093602</v>
+      </c>
+      <c r="AV10">
+        <v>6.87439508506597</v>
+      </c>
+      <c r="AW10">
+        <v>23.9290972720641</v>
+      </c>
+      <c r="AX10">
+        <v>6.87439508506597</v>
       </c>
       <c r="AY10">
-        <v>-0.181079567869779</v>
+        <v>7.87761286077175</v>
       </c>
       <c r="AZ10">
-        <v>-0.127911296005366</v>
+        <v>24.9323150477699</v>
       </c>
       <c r="BA10">
-        <v>-0.144168069561569</v>
+        <v>7.87761286077175</v>
       </c>
       <c r="BB10">
-        <v>-0.166486299258846</v>
+        <v>8.88083063647752</v>
       </c>
       <c r="BC10">
-        <v>-0.143546216711629</v>
+        <v>25.9355328234757</v>
+      </c>
+      <c r="BD10">
+        <v>8.88083063647752</v>
+      </c>
+      <c r="BE10">
+        <v>9.8840484121833</v>
       </c>
       <c r="BF10">
-        <v>-0.132726890806928</v>
+        <v>26.9387505991814</v>
       </c>
       <c r="BG10">
-        <v>-0.149632183817832</v>
+        <v>9.8840484121833</v>
+      </c>
+      <c r="BH10">
+        <v>10.887266187889</v>
       </c>
       <c r="BI10">
-        <v>-0.136054789514</v>
+        <v>27.9419683748872</v>
+      </c>
+      <c r="BJ10">
+        <v>10.887266187889</v>
       </c>
       <c r="BK10">
-        <v>-0.162097268009494</v>
+        <v>11.8904839635948</v>
+      </c>
+      <c r="BL10">
+        <v>28.945186150593</v>
       </c>
       <c r="BM10">
-        <v>-0.137506395658098</v>
+        <v>11.8904839635948</v>
       </c>
       <c r="BN10">
-        <v>-0.149380318963641</v>
+        <v>12.8937017393006</v>
+      </c>
+      <c r="BO10">
+        <v>29.9484039262988</v>
       </c>
       <c r="BP10">
-        <v>-0.125553453111542</v>
+        <v>12.8937017393006</v>
+      </c>
+      <c r="BQ10">
+        <v>13.8969195150064</v>
       </c>
       <c r="BR10">
-        <v>-0.162659939263256</v>
+        <v>30.9516217020045</v>
       </c>
       <c r="BS10">
-        <v>-0.170750723632253</v>
+        <v>13.8969195150064</v>
       </c>
       <c r="BT10">
-        <v>-0.147699794485924</v>
+        <v>14.9001372907121</v>
       </c>
       <c r="BU10">
-        <v>-0.176974360387252</v>
+        <v>31.9548394777103</v>
       </c>
       <c r="BV10">
-        <v>-0.184883246483595</v>
+        <v>14.9001372907121</v>
       </c>
       <c r="BW10">
-        <v>-0.16339303561235</v>
+        <v>15.9033550664179</v>
+      </c>
+      <c r="BX10">
+        <v>32.9580572534161</v>
       </c>
       <c r="BY10">
-        <v>-0.157091391386595</v>
+        <v>15.9033550664179</v>
+      </c>
+      <c r="BZ10">
+        <v>16.9065728421237</v>
       </c>
       <c r="CA10">
-        <v>-0.132580753647904</v>
+        <v>33.9612750291219</v>
+      </c>
+      <c r="CB10">
+        <v>16.9065728421237</v>
       </c>
       <c r="CC10">
-        <v>-0.149372298264926</v>
+        <v>17.9097906178295</v>
       </c>
       <c r="CD10">
-        <v>-0.152643961824264</v>
+        <v>34.9644928048276</v>
       </c>
       <c r="CE10">
-        <v>-0.222849311697562</v>
+        <v>17.9097906178295</v>
       </c>
       <c r="CF10">
-        <v>-0.199322819091643</v>
+        <v>18.9130083935352</v>
+      </c>
+      <c r="CG10">
+        <v>35.9677105805334</v>
       </c>
       <c r="CH10">
-        <v>-0.151328820208449</v>
+        <v>18.9130083935352</v>
       </c>
       <c r="CI10">
-        <v>-0.140420528955228</v>
+        <v>19.916226169241</v>
+      </c>
+      <c r="CJ10">
+        <v>36.9709283562392</v>
+      </c>
+      <c r="CK10">
+        <v>36.9709283562392</v>
+      </c>
+      <c r="CL10">
+        <v>19.916226169241</v>
       </c>
       <c r="CM10">
-        <v>-0.120978545851016</v>
+        <v>20.9194439449468</v>
+      </c>
+      <c r="CN10">
+        <v>37.974146131945</v>
       </c>
       <c r="CO10">
-        <v>-0.181541843189108</v>
+        <v>37.974146131945</v>
       </c>
       <c r="CP10">
-        <v>-0.14416587824925</v>
+        <v>20.9194439449468</v>
       </c>
       <c r="CQ10">
-        <v>-0.110776486390419</v>
+        <v>21.9226617206526</v>
       </c>
       <c r="CR10">
-        <v>-0.165861048748269</v>
+        <v>38.9773639076507</v>
       </c>
       <c r="CS10">
-        <v>-0.191846934399274</v>
+        <v>38.9773639076507</v>
       </c>
       <c r="CT10">
-        <v>-0.166175691621575</v>
+        <v>21.9226617206526</v>
       </c>
       <c r="CU10">
-        <v>-0.181271335437791</v>
+        <v>22.9258794963583</v>
       </c>
       <c r="CV10">
-        <v>-0.173969069520256</v>
+        <v>39.9805816833565</v>
       </c>
       <c r="CW10">
-        <v>-0.16366245437647</v>
+        <v>39.9805816833565</v>
       </c>
       <c r="CX10">
-        <v>-0.160009919734101</v>
+        <v>22.9258794963583</v>
       </c>
       <c r="CY10">
-        <v>-0.132086993453709</v>
+        <v>23.9290972720641</v>
+      </c>
+      <c r="CZ10">
+        <v>40.9837994590623</v>
       </c>
     </row>
     <row r="11" spans="1:104">
       <c r="A11">
-        <v>32883</v>
+        <v>33117</v>
+      </c>
+      <c r="D11">
+        <v>4.85403430064368</v>
+      </c>
+      <c r="E11">
+        <v>-0.124659166569609</v>
+      </c>
+      <c r="F11">
+        <v>1.8782080059248</v>
+      </c>
+      <c r="G11">
+        <v>-0.136198372868402</v>
       </c>
       <c r="H11">
-        <v>-0.110626441354223</v>
+        <v>-0.127035093525787</v>
+      </c>
+      <c r="I11">
+        <v>-0.127498129769122</v>
       </c>
       <c r="J11">
-        <v>-0.128782084669777</v>
+        <v>-0.129596623640027</v>
       </c>
       <c r="K11">
-        <v>-0.147734279666334</v>
+        <v>-0.148056073438002</v>
+      </c>
+      <c r="L11">
+        <v>0.855161702267772</v>
       </c>
       <c r="M11">
-        <v>-0.139457116441762</v>
+        <v>1.85837947797355</v>
       </c>
       <c r="N11">
-        <v>-0.16649958225254</v>
+        <v>2.86159725367932</v>
       </c>
       <c r="O11">
-        <v>-0.167584269628478</v>
+        <v>3.8648150293851</v>
       </c>
       <c r="P11">
-        <v>-0.15550981199196</v>
+        <v>4.86803280509087</v>
       </c>
       <c r="Q11">
-        <v>-0.147332434058078</v>
+        <v>5.87125058079665</v>
       </c>
       <c r="R11">
-        <v>-0.161434325291236</v>
+        <v>6.87446835650242</v>
+      </c>
+      <c r="S11">
+        <v>7.87768613220819</v>
       </c>
       <c r="T11">
-        <v>-0.13201498474469</v>
+        <v>8.88090390791397</v>
       </c>
       <c r="U11">
-        <v>-0.133135372081082</v>
+        <v>9.88412168361974</v>
       </c>
       <c r="V11">
-        <v>-0.158723666973488</v>
+        <v>10.8873394593255</v>
+      </c>
+      <c r="W11">
+        <v>11.8905572350313</v>
       </c>
       <c r="X11">
-        <v>-0.187822720257084</v>
+        <v>12.893775010737</v>
       </c>
       <c r="Y11">
-        <v>-0.16118953457117</v>
+        <v>13.8969927864428</v>
+      </c>
+      <c r="Z11">
+        <v>14.9002105621486</v>
+      </c>
+      <c r="AA11">
+        <v>15.9034283378544</v>
+      </c>
+      <c r="AB11">
+        <v>16.9066461135601</v>
+      </c>
+      <c r="AC11">
+        <v>-0.148056073438002</v>
+      </c>
+      <c r="AD11">
+        <v>0.855161702267772</v>
+      </c>
+      <c r="AE11">
+        <v>17.9098638892659</v>
+      </c>
+      <c r="AF11">
+        <v>0.855161702267772</v>
       </c>
       <c r="AG11">
-        <v>-0.11861448563684</v>
+        <v>1.85837947797355</v>
+      </c>
+      <c r="AH11">
+        <v>18.9130816649717</v>
+      </c>
+      <c r="AI11">
+        <v>1.85837947797355</v>
+      </c>
+      <c r="AJ11">
+        <v>2.86159725367932</v>
+      </c>
+      <c r="AK11">
+        <v>19.9162994406775</v>
+      </c>
+      <c r="AL11">
+        <v>2.86159725367932</v>
       </c>
       <c r="AM11">
-        <v>-0.144812606726562</v>
+        <v>3.8648150293851</v>
       </c>
       <c r="AN11">
-        <v>-0.159052665246504</v>
+        <v>20.9195172163832</v>
+      </c>
+      <c r="AO11">
+        <v>3.8648150293851</v>
       </c>
       <c r="AP11">
-        <v>-0.208146652952951</v>
+        <v>4.86803280509087</v>
+      </c>
+      <c r="AQ11">
+        <v>21.922734992089</v>
+      </c>
+      <c r="AR11">
+        <v>4.86803280509087</v>
       </c>
       <c r="AS11">
-        <v>-0.139888969453206</v>
+        <v>5.87125058079665</v>
+      </c>
+      <c r="AT11">
+        <v>22.9259527677948</v>
+      </c>
+      <c r="AU11">
+        <v>5.87125058079665</v>
+      </c>
+      <c r="AV11">
+        <v>6.87446835650242</v>
+      </c>
+      <c r="AW11">
+        <v>23.9291705435006</v>
+      </c>
+      <c r="AX11">
+        <v>6.87446835650242</v>
       </c>
       <c r="AY11">
-        <v>-0.176532703547171</v>
+        <v>7.87768613220819</v>
       </c>
       <c r="AZ11">
-        <v>-0.128325730304891</v>
+        <v>24.9323883192063</v>
       </c>
       <c r="BA11">
-        <v>-0.140428824397781</v>
+        <v>7.87768613220819</v>
       </c>
       <c r="BB11">
-        <v>-0.163474320827906</v>
+        <v>8.88090390791397</v>
       </c>
       <c r="BC11">
-        <v>-0.139942616459076</v>
+        <v>25.9356060949121</v>
+      </c>
+      <c r="BD11">
+        <v>8.88090390791397</v>
+      </c>
+      <c r="BE11">
+        <v>9.88412168361974</v>
       </c>
       <c r="BF11">
-        <v>-0.131468683461336</v>
+        <v>26.9388238706179</v>
       </c>
       <c r="BG11">
-        <v>-0.15047683264517</v>
+        <v>9.88412168361974</v>
+      </c>
+      <c r="BH11">
+        <v>10.8873394593255</v>
       </c>
       <c r="BI11">
-        <v>-0.134057409702192</v>
+        <v>27.9420416463237</v>
+      </c>
+      <c r="BJ11">
+        <v>10.8873394593255</v>
       </c>
       <c r="BK11">
-        <v>-0.161312695160022</v>
+        <v>11.8905572350313</v>
+      </c>
+      <c r="BL11">
+        <v>28.9452594220294</v>
       </c>
       <c r="BM11">
-        <v>-0.137667514703574</v>
+        <v>11.8905572350313</v>
       </c>
       <c r="BN11">
-        <v>-0.149882551117039</v>
+        <v>12.893775010737</v>
+      </c>
+      <c r="BO11">
+        <v>29.9484771977352</v>
       </c>
       <c r="BP11">
-        <v>-0.124140661159106</v>
+        <v>12.893775010737</v>
+      </c>
+      <c r="BQ11">
+        <v>13.8969927864428</v>
       </c>
       <c r="BR11">
-        <v>-0.159711827691981</v>
+        <v>30.951694973441</v>
       </c>
       <c r="BS11">
-        <v>-0.167961336474703</v>
+        <v>13.8969927864428</v>
       </c>
       <c r="BT11">
-        <v>-0.147578804944368</v>
+        <v>14.9002105621486</v>
       </c>
       <c r="BU11">
-        <v>-0.173258668291367</v>
+        <v>31.9549127491467</v>
       </c>
       <c r="BV11">
-        <v>-0.179706604376514</v>
+        <v>14.9002105621486</v>
       </c>
       <c r="BW11">
-        <v>-0.158575397843064</v>
+        <v>15.9034283378544</v>
+      </c>
+      <c r="BX11">
+        <v>32.9581305248525</v>
       </c>
       <c r="BY11">
-        <v>-0.153586297803051</v>
+        <v>15.9034283378544</v>
+      </c>
+      <c r="BZ11">
+        <v>16.9066461135601</v>
       </c>
       <c r="CA11">
-        <v>-0.132875569402703</v>
+        <v>33.9613483005583</v>
+      </c>
+      <c r="CB11">
+        <v>16.9066461135601</v>
       </c>
       <c r="CC11">
-        <v>-0.149863043754199</v>
+        <v>17.9098638892659</v>
       </c>
       <c r="CD11">
-        <v>-0.148627840172373</v>
+        <v>34.9645660762641</v>
       </c>
       <c r="CE11">
-        <v>-0.214258555219667</v>
+        <v>17.9098638892659</v>
       </c>
       <c r="CF11">
-        <v>-0.189398984828464</v>
+        <v>18.9130816649717</v>
+      </c>
+      <c r="CG11">
+        <v>35.9677838519699</v>
       </c>
       <c r="CH11">
-        <v>-0.151446999644278</v>
+        <v>18.9130816649717</v>
       </c>
       <c r="CI11">
-        <v>-0.139320143540431</v>
+        <v>19.9162994406775</v>
+      </c>
+      <c r="CJ11">
+        <v>36.9710016276756</v>
+      </c>
+      <c r="CK11">
+        <v>36.9710016276756</v>
+      </c>
+      <c r="CL11">
+        <v>19.9162994406775</v>
       </c>
       <c r="CM11">
-        <v>-0.117279544478571</v>
+        <v>20.9195172163832</v>
+      </c>
+      <c r="CN11">
+        <v>37.9742194033814</v>
       </c>
       <c r="CO11">
-        <v>-0.174166566569579</v>
+        <v>37.9742194033814</v>
       </c>
       <c r="CP11">
-        <v>-0.140588671418283</v>
+        <v>20.9195172163832</v>
       </c>
       <c r="CQ11">
-        <v>-0.113431328647355</v>
+        <v>21.922734992089</v>
       </c>
       <c r="CR11">
-        <v>-0.166061218446126</v>
+        <v>38.9774371790872</v>
       </c>
       <c r="CS11">
-        <v>-0.185416596338888</v>
+        <v>38.9774371790872</v>
       </c>
       <c r="CT11">
-        <v>-0.16236754401434</v>
+        <v>21.922734992089</v>
       </c>
       <c r="CU11">
-        <v>-0.176361858205747</v>
+        <v>22.9259527677948</v>
       </c>
       <c r="CV11">
-        <v>-0.167979984901475</v>
+        <v>39.980654954793</v>
       </c>
       <c r="CW11">
-        <v>-0.159722280288219</v>
+        <v>39.980654954793</v>
       </c>
       <c r="CX11">
-        <v>-0.157398223929458</v>
+        <v>22.9259527677948</v>
       </c>
       <c r="CY11">
-        <v>-0.134225895253946</v>
+        <v>23.9291705435006</v>
+      </c>
+      <c r="CZ11">
+        <v>40.9838727304987</v>
       </c>
     </row>
     <row r="12" spans="1:104">
       <c r="A12">
-        <v>32884</v>
+        <v>33147</v>
+      </c>
+      <c r="D12">
+        <v>4.85404731493564</v>
+      </c>
+      <c r="E12">
+        <v>-0.124716459058955</v>
+      </c>
+      <c r="F12">
+        <v>1.87787101139313</v>
+      </c>
+      <c r="G12">
+        <v>-0.136216640009344</v>
       </c>
       <c r="H12">
-        <v>-0.107651130076537</v>
+        <v>-0.127048761250013</v>
+      </c>
+      <c r="I12">
+        <v>-0.127509026172222</v>
       </c>
       <c r="J12">
-        <v>-0.123185592019379</v>
+        <v>-0.129650407399792</v>
       </c>
       <c r="K12">
-        <v>-0.1479131759294</v>
+        <v>-0.148141521452563</v>
+      </c>
+      <c r="L12">
+        <v>0.855076254253212</v>
       </c>
       <c r="M12">
-        <v>-0.14249261630389</v>
+        <v>1.85829402995899</v>
       </c>
       <c r="N12">
-        <v>-0.173246665593064</v>
+        <v>2.86151180566476</v>
       </c>
       <c r="O12">
-        <v>-0.1735992105412</v>
+        <v>3.86472958137054</v>
       </c>
       <c r="P12">
-        <v>-0.161025271880613</v>
+        <v>4.86794735707631</v>
       </c>
       <c r="Q12">
-        <v>-0.151494496099407</v>
+        <v>5.87116513278209</v>
       </c>
       <c r="R12">
-        <v>-0.168496944902982</v>
+        <v>6.87438290848786</v>
+      </c>
+      <c r="S12">
+        <v>7.87760068419363</v>
       </c>
       <c r="T12">
-        <v>-0.135802670581244</v>
+        <v>8.88081845989941</v>
       </c>
       <c r="U12">
-        <v>-0.13089941553886</v>
+        <v>9.88403623560518</v>
       </c>
       <c r="V12">
-        <v>-0.161034678682095</v>
+        <v>10.8872540113109</v>
+      </c>
+      <c r="W12">
+        <v>11.8904717870167</v>
       </c>
       <c r="X12">
-        <v>-0.197360323212022</v>
+        <v>12.8936895627225</v>
       </c>
       <c r="Y12">
-        <v>-0.160709463119648</v>
+        <v>13.8969073384283</v>
+      </c>
+      <c r="Z12">
+        <v>14.900125114134</v>
+      </c>
+      <c r="AA12">
+        <v>15.9033428898398</v>
+      </c>
+      <c r="AB12">
+        <v>16.9065606655456</v>
+      </c>
+      <c r="AC12">
+        <v>-0.148141521452563</v>
+      </c>
+      <c r="AD12">
+        <v>0.855076254253212</v>
+      </c>
+      <c r="AE12">
+        <v>17.9097784412513</v>
+      </c>
+      <c r="AF12">
+        <v>0.855076254253212</v>
       </c>
       <c r="AG12">
-        <v>-0.115887278830955</v>
+        <v>1.85829402995899</v>
+      </c>
+      <c r="AH12">
+        <v>18.9129962169571</v>
+      </c>
+      <c r="AI12">
+        <v>1.85829402995899</v>
+      </c>
+      <c r="AJ12">
+        <v>2.86151180566476</v>
+      </c>
+      <c r="AK12">
+        <v>19.9162139926629</v>
+      </c>
+      <c r="AL12">
+        <v>2.86151180566476</v>
       </c>
       <c r="AM12">
-        <v>-0.149204221101137</v>
+        <v>3.86472958137054</v>
       </c>
       <c r="AN12">
-        <v>-0.16303464499655</v>
+        <v>20.9194317683687</v>
+      </c>
+      <c r="AO12">
+        <v>3.86472958137054</v>
       </c>
       <c r="AP12">
-        <v>-0.221300552368576</v>
+        <v>4.86794735707631</v>
+      </c>
+      <c r="AQ12">
+        <v>21.9226495440744</v>
+      </c>
+      <c r="AR12">
+        <v>4.86794735707631</v>
       </c>
       <c r="AS12">
-        <v>-0.141780799765951</v>
+        <v>5.87116513278209</v>
+      </c>
+      <c r="AT12">
+        <v>22.9258673197802</v>
+      </c>
+      <c r="AU12">
+        <v>5.87116513278209</v>
+      </c>
+      <c r="AV12">
+        <v>6.87438290848786</v>
+      </c>
+      <c r="AW12">
+        <v>23.929085095486</v>
+      </c>
+      <c r="AX12">
+        <v>6.87438290848786</v>
       </c>
       <c r="AY12">
-        <v>-0.181835186311117</v>
+        <v>7.87760068419363</v>
       </c>
       <c r="AZ12">
-        <v>-0.12784242344238</v>
+        <v>24.9323028711918</v>
       </c>
       <c r="BA12">
-        <v>-0.144789474204851</v>
+        <v>7.87760068419363</v>
       </c>
       <c r="BB12">
-        <v>-0.166986843432995</v>
+        <v>8.88081845989941</v>
       </c>
       <c r="BC12">
-        <v>-0.144145079271151</v>
+        <v>25.9355206468975</v>
+      </c>
+      <c r="BD12">
+        <v>8.88081845989941</v>
+      </c>
+      <c r="BE12">
+        <v>9.88403623560518</v>
       </c>
       <c r="BF12">
-        <v>-0.132935985384179</v>
+        <v>26.9387384226033</v>
       </c>
       <c r="BG12">
-        <v>-0.14949181626228</v>
+        <v>9.88403623560518</v>
+      </c>
+      <c r="BH12">
+        <v>10.8872540113109</v>
       </c>
       <c r="BI12">
-        <v>-0.136386723108907</v>
+        <v>27.9419561983091</v>
+      </c>
+      <c r="BJ12">
+        <v>10.8872540113109</v>
       </c>
       <c r="BK12">
-        <v>-0.162227651867813</v>
+        <v>11.8904717870167</v>
+      </c>
+      <c r="BL12">
+        <v>28.9451739740149</v>
       </c>
       <c r="BM12">
-        <v>-0.1374796201677</v>
+        <v>11.8904717870167</v>
       </c>
       <c r="BN12">
-        <v>-0.149296855756909</v>
+        <v>12.8936895627225</v>
+      </c>
+      <c r="BO12">
+        <v>29.9483917497206</v>
       </c>
       <c r="BP12">
-        <v>-0.125788237256678</v>
+        <v>12.8936895627225</v>
+      </c>
+      <c r="BQ12">
+        <v>13.8969073384283</v>
       </c>
       <c r="BR12">
-        <v>-0.16314986975432</v>
+        <v>30.9516095254264</v>
       </c>
       <c r="BS12">
-        <v>-0.171214276583634</v>
+        <v>13.8969073384283</v>
       </c>
       <c r="BT12">
-        <v>-0.147719901074184</v>
+        <v>14.900125114134</v>
       </c>
       <c r="BU12">
-        <v>-0.177591850875373</v>
+        <v>31.9548273011322</v>
       </c>
       <c r="BV12">
-        <v>-0.18574352424048</v>
+        <v>14.900125114134</v>
       </c>
       <c r="BW12">
-        <v>-0.164193652407546</v>
+        <v>15.9033428898398</v>
+      </c>
+      <c r="BX12">
+        <v>32.958045076838</v>
       </c>
       <c r="BY12">
-        <v>-0.157673883663123</v>
+        <v>15.9033428898398</v>
+      </c>
+      <c r="BZ12">
+        <v>16.9065606655456</v>
       </c>
       <c r="CA12">
-        <v>-0.132531759834736</v>
+        <v>33.9612628525437</v>
+      </c>
+      <c r="CB12">
+        <v>16.9065606655456</v>
       </c>
       <c r="CC12">
-        <v>-0.149290743963899</v>
+        <v>17.9097784412513</v>
       </c>
       <c r="CD12">
-        <v>-0.153311379052382</v>
+        <v>34.9644806282495</v>
       </c>
       <c r="CE12">
-        <v>-0.22427696239465</v>
+        <v>17.9097784412513</v>
       </c>
       <c r="CF12">
-        <v>-0.200972006673677</v>
+        <v>18.9129962169571</v>
+      </c>
+      <c r="CG12">
+        <v>35.9676984039553</v>
       </c>
       <c r="CH12">
-        <v>-0.151309180616245</v>
+        <v>18.9129962169571</v>
       </c>
       <c r="CI12">
-        <v>-0.140603395971485</v>
+        <v>19.9162139926629</v>
+      </c>
+      <c r="CJ12">
+        <v>36.9709161796611</v>
+      </c>
+      <c r="CK12">
+        <v>36.9709161796611</v>
+      </c>
+      <c r="CL12">
+        <v>19.9162139926629</v>
       </c>
       <c r="CM12">
-        <v>-0.12159326259936</v>
+        <v>20.9194317683687</v>
+      </c>
+      <c r="CN12">
+        <v>37.9741339553668</v>
       </c>
       <c r="CO12">
-        <v>-0.182767499955679</v>
+        <v>37.9741339553668</v>
       </c>
       <c r="CP12">
-        <v>-0.144760354630812</v>
+        <v>20.9194317683687</v>
       </c>
       <c r="CQ12">
-        <v>-0.110335292718066</v>
+        <v>21.9226495440744</v>
       </c>
       <c r="CR12">
-        <v>-0.165827783644152</v>
+        <v>38.9773517310726</v>
       </c>
       <c r="CS12">
-        <v>-0.192915557009872</v>
+        <v>38.9773517310726</v>
       </c>
       <c r="CT12">
-        <v>-0.166808546783991</v>
+        <v>21.9226495440744</v>
       </c>
       <c r="CU12">
-        <v>-0.182087214529546</v>
+        <v>22.9258673197802</v>
       </c>
       <c r="CV12">
-        <v>-0.174964362641756</v>
+        <v>39.9805695067784</v>
       </c>
       <c r="CW12">
-        <v>-0.164317250295574</v>
+        <v>39.9805695067784</v>
       </c>
       <c r="CX12">
-        <v>-0.160443943134215</v>
+        <v>22.9258673197802</v>
       </c>
       <c r="CY12">
-        <v>-0.131731541095821</v>
+        <v>23.929085095486</v>
+      </c>
+      <c r="CZ12">
+        <v>40.9837872824842</v>
       </c>
     </row>
     <row r="13" spans="1:104">
       <c r="A13">
-        <v>32885</v>
+        <v>33178</v>
+      </c>
+      <c r="D13">
+        <v>4.85404133815735</v>
+      </c>
+      <c r="E13">
+        <v>-0.124690147638552</v>
+      </c>
+      <c r="F13">
+        <v>1.87802577521815</v>
+      </c>
+      <c r="G13">
+        <v>-0.136208250874391</v>
       </c>
       <c r="H13">
-        <v>-0.109017533714308</v>
+        <v>-0.127042484384717</v>
+      </c>
+      <c r="I13">
+        <v>-0.12750402202864</v>
       </c>
       <c r="J13">
-        <v>-0.125755766096158</v>
+        <v>-0.129625707353936</v>
       </c>
       <c r="K13">
-        <v>-0.147831018305601</v>
+        <v>-0.148102279683538</v>
+      </c>
+      <c r="L13">
+        <v>0.855115496022236</v>
       </c>
       <c r="M13">
-        <v>-0.141098571221895</v>
+        <v>1.85833327172801</v>
       </c>
       <c r="N13">
-        <v>-0.170148085861265</v>
+        <v>2.86155104743379</v>
       </c>
       <c r="O13">
-        <v>-0.170836865234423</v>
+        <v>3.86476882313956</v>
       </c>
       <c r="P13">
-        <v>-0.158492311879973</v>
+        <v>4.86798659884534</v>
       </c>
       <c r="Q13">
-        <v>-0.14958308039089</v>
+        <v>5.87120437455111</v>
       </c>
       <c r="R13">
-        <v>-0.16525345599409</v>
+        <v>6.87442215025688</v>
+      </c>
+      <c r="S13">
+        <v>7.87763992596266</v>
       </c>
       <c r="T13">
-        <v>-0.13406318612978</v>
+        <v>8.88085770166843</v>
       </c>
       <c r="U13">
-        <v>-0.131926272518868</v>
+        <v>9.88407547737421</v>
       </c>
       <c r="V13">
-        <v>-0.15997335282041</v>
+        <v>10.88729325308</v>
+      </c>
+      <c r="W13">
+        <v>11.8905110287857</v>
       </c>
       <c r="X13">
-        <v>-0.192980204912813</v>
+        <v>12.8937288044915</v>
       </c>
       <c r="Y13">
-        <v>-0.160929934632215</v>
+        <v>13.8969465801973</v>
+      </c>
+      <c r="Z13">
+        <v>14.900164355903</v>
+      </c>
+      <c r="AA13">
+        <v>15.9033821316088</v>
+      </c>
+      <c r="AB13">
+        <v>16.9065999073146</v>
+      </c>
+      <c r="AC13">
+        <v>-0.148102279683538</v>
+      </c>
+      <c r="AD13">
+        <v>0.855115496022236</v>
+      </c>
+      <c r="AE13">
+        <v>17.9098176830204</v>
+      </c>
+      <c r="AF13">
+        <v>0.855115496022236</v>
       </c>
       <c r="AG13">
-        <v>-0.117139741162698</v>
+        <v>1.85833327172801</v>
+      </c>
+      <c r="AH13">
+        <v>18.9130354587261</v>
+      </c>
+      <c r="AI13">
+        <v>1.85833327172801</v>
+      </c>
+      <c r="AJ13">
+        <v>2.86155104743379</v>
+      </c>
+      <c r="AK13">
+        <v>19.9162532344319</v>
+      </c>
+      <c r="AL13">
+        <v>2.86155104743379</v>
       </c>
       <c r="AM13">
-        <v>-0.147187384105927</v>
+        <v>3.86476882313956</v>
       </c>
       <c r="AN13">
-        <v>-0.161205931592075</v>
+        <v>20.9194710101377</v>
+      </c>
+      <c r="AO13">
+        <v>3.86476882313956</v>
       </c>
       <c r="AP13">
-        <v>-0.215259659724109</v>
+        <v>4.86798659884534</v>
+      </c>
+      <c r="AQ13">
+        <v>21.9226887858435</v>
+      </c>
+      <c r="AR13">
+        <v>4.86798659884534</v>
       </c>
       <c r="AS13">
-        <v>-0.140911981823853</v>
+        <v>5.87120437455111</v>
+      </c>
+      <c r="AT13">
+        <v>22.9259065615492</v>
+      </c>
+      <c r="AU13">
+        <v>5.87120437455111</v>
+      </c>
+      <c r="AV13">
+        <v>6.87442215025688</v>
+      </c>
+      <c r="AW13">
+        <v>23.929124337255</v>
+      </c>
+      <c r="AX13">
+        <v>6.87442215025688</v>
       </c>
       <c r="AY13">
-        <v>-0.179400035477587</v>
+        <v>7.87763992596266</v>
       </c>
       <c r="AZ13">
-        <v>-0.128064380808672</v>
+        <v>24.9323421129608</v>
       </c>
       <c r="BA13">
-        <v>-0.142786857603318</v>
+        <v>7.87763992596266</v>
       </c>
       <c r="BB13">
-        <v>-0.165373726949574</v>
+        <v>8.88085770166843</v>
       </c>
       <c r="BC13">
-        <v>-0.142215109618201</v>
+        <v>25.9355598886666</v>
+      </c>
+      <c r="BD13">
+        <v>8.88085770166843</v>
+      </c>
+      <c r="BE13">
+        <v>9.88407547737421</v>
       </c>
       <c r="BF13">
-        <v>-0.132262130954185</v>
+        <v>26.9387776643723</v>
       </c>
       <c r="BG13">
-        <v>-0.149944182365598</v>
+        <v>9.88407547737421</v>
+      </c>
+      <c r="BH13">
+        <v>10.88729325308</v>
       </c>
       <c r="BI13">
-        <v>-0.135316992241985</v>
+        <v>27.9419954400781</v>
+      </c>
+      <c r="BJ13">
+        <v>10.88729325308</v>
       </c>
       <c r="BK13">
-        <v>-0.161807460480342</v>
+        <v>11.8905110287857</v>
+      </c>
+      <c r="BL13">
+        <v>28.9452132157839</v>
       </c>
       <c r="BM13">
-        <v>-0.13756591022389</v>
+        <v>11.8905110287857</v>
       </c>
       <c r="BN13">
-        <v>-0.149565834763142</v>
+        <v>12.8937288044915</v>
+      </c>
+      <c r="BO13">
+        <v>29.9484309914897</v>
       </c>
       <c r="BP13">
-        <v>-0.125031592400689</v>
+        <v>12.8937288044915</v>
+      </c>
+      <c r="BQ13">
+        <v>13.8969465801973</v>
       </c>
       <c r="BR13">
-        <v>-0.161570958258229</v>
+        <v>30.9516487671954</v>
       </c>
       <c r="BS13">
-        <v>-0.169720372657807</v>
+        <v>13.8969465801973</v>
       </c>
       <c r="BT13">
-        <v>-0.147655103059099</v>
+        <v>14.900164355903</v>
       </c>
       <c r="BU13">
-        <v>-0.175601848521564</v>
+        <v>31.9548665429012</v>
       </c>
       <c r="BV13">
-        <v>-0.182971085159933</v>
+        <v>14.900164355903</v>
       </c>
       <c r="BW13">
-        <v>-0.161613484230723</v>
+        <v>15.9033821316088</v>
+      </c>
+      <c r="BX13">
+        <v>32.958084318607</v>
       </c>
       <c r="BY13">
-        <v>-0.155796670938932</v>
+        <v>15.9033821316088</v>
+      </c>
+      <c r="BZ13">
+        <v>16.9065999073146</v>
       </c>
       <c r="CA13">
-        <v>-0.132689653446707</v>
+        <v>33.9613020943128</v>
+      </c>
+      <c r="CB13">
+        <v>16.9065999073146</v>
       </c>
       <c r="CC13">
-        <v>-0.149553571091005</v>
+        <v>17.9098176830204</v>
       </c>
       <c r="CD13">
-        <v>-0.151160476519501</v>
+        <v>34.9645198700185</v>
       </c>
       <c r="CE13">
-        <v>-0.219676036060917</v>
+        <v>17.9098176830204</v>
       </c>
       <c r="CF13">
-        <v>-0.19565712776743</v>
+        <v>18.9130354587261</v>
+      </c>
+      <c r="CG13">
+        <v>35.9677376457243</v>
       </c>
       <c r="CH13">
-        <v>-0.151372473631222</v>
+        <v>18.9130354587261</v>
       </c>
       <c r="CI13">
-        <v>-0.14001406577161</v>
+        <v>19.9162532344319</v>
+      </c>
+      <c r="CJ13">
+        <v>36.9709554214301</v>
+      </c>
+      <c r="CK13">
+        <v>36.9709554214301</v>
+      </c>
+      <c r="CL13">
+        <v>19.9162532344319</v>
       </c>
       <c r="CM13">
-        <v>-0.119612199247513</v>
+        <v>20.9194710101377</v>
+      </c>
+      <c r="CN13">
+        <v>37.9741731971359</v>
       </c>
       <c r="CO13">
-        <v>-0.17881754461651</v>
+        <v>37.9741731971359</v>
       </c>
       <c r="CP13">
-        <v>-0.142844520425506</v>
+        <v>20.9194710101377</v>
       </c>
       <c r="CQ13">
-        <v>-0.111757138824782</v>
+        <v>21.9226887858435</v>
       </c>
       <c r="CR13">
-        <v>-0.165934987944082</v>
+        <v>38.9773909728416</v>
       </c>
       <c r="CS13">
-        <v>-0.18947167965251</v>
+        <v>38.9773909728416</v>
       </c>
       <c r="CT13">
-        <v>-0.164769028302241</v>
+        <v>21.9226887858435</v>
       </c>
       <c r="CU13">
-        <v>-0.179457860160125</v>
+        <v>22.9259065615492</v>
       </c>
       <c r="CV13">
-        <v>-0.171756806100209</v>
+        <v>39.9806087485474</v>
       </c>
       <c r="CW13">
-        <v>-0.162207022777337</v>
+        <v>39.9806087485474</v>
       </c>
       <c r="CX13">
-        <v>-0.159045204846824</v>
+        <v>22.9259065615492</v>
       </c>
       <c r="CY13">
-        <v>-0.132877066480378</v>
+        <v>23.929124337255</v>
+      </c>
+      <c r="CZ13">
+        <v>40.9838265242532</v>
       </c>
     </row>
     <row r="14" spans="1:104">
       <c r="A14">
-        <v>32888</v>
+        <v>33208</v>
+      </c>
+      <c r="D14">
+        <v>4.85404469188454</v>
+      </c>
+      <c r="E14">
+        <v>-0.1247049116672</v>
+      </c>
+      <c r="F14">
+        <v>1.87793893317347</v>
+      </c>
+      <c r="G14">
+        <v>-0.136212958238223</v>
       </c>
       <c r="H14">
-        <v>-0.108250808765817</v>
+        <v>-0.127046006498599</v>
+      </c>
+      <c r="I14">
+        <v>-0.12750682998496</v>
       </c>
       <c r="J14">
-        <v>-0.124313573956033</v>
+        <v>-0.129639567198028</v>
       </c>
       <c r="K14">
-        <v>-0.147877119104907</v>
+        <v>-0.148124299270212</v>
+      </c>
+      <c r="L14">
+        <v>0.855093476435562</v>
       </c>
       <c r="M14">
-        <v>-0.141880806510313</v>
+        <v>1.85831125214134</v>
       </c>
       <c r="N14">
-        <v>-0.171886780284778</v>
+        <v>2.86152902784711</v>
       </c>
       <c r="O14">
-        <v>-0.172386889696089</v>
+        <v>3.86474680355289</v>
       </c>
       <c r="P14">
-        <v>-0.159913622225128</v>
+        <v>4.86796457925866</v>
       </c>
       <c r="Q14">
-        <v>-0.150655625918541</v>
+        <v>5.87118235496444</v>
       </c>
       <c r="R14">
-        <v>-0.167073462760655</v>
+        <v>6.87440013067021</v>
+      </c>
+      <c r="S14">
+        <v>7.87761790637598</v>
       </c>
       <c r="T14">
-        <v>-0.135039256515999</v>
+        <v>8.88083568208176</v>
       </c>
       <c r="U14">
-        <v>-0.131350076112959</v>
+        <v>9.88405345778753</v>
       </c>
       <c r="V14">
-        <v>-0.160568890620617</v>
+        <v>10.8872712334933</v>
+      </c>
+      <c r="W14">
+        <v>11.8904890091991</v>
       </c>
       <c r="X14">
-        <v>-0.195438004266176</v>
+        <v>12.8937067849048</v>
       </c>
       <c r="Y14">
-        <v>-0.160806222279259</v>
+        <v>13.8969245606106</v>
+      </c>
+      <c r="Z14">
+        <v>14.9001423363164</v>
+      </c>
+      <c r="AA14">
+        <v>15.9033601120222</v>
+      </c>
+      <c r="AB14">
+        <v>16.9065778877279</v>
+      </c>
+      <c r="AC14">
+        <v>-0.148124299270212</v>
+      </c>
+      <c r="AD14">
+        <v>0.855093476435562</v>
+      </c>
+      <c r="AE14">
+        <v>17.9097956634337</v>
+      </c>
+      <c r="AF14">
+        <v>0.855093476435562</v>
       </c>
       <c r="AG14">
-        <v>-0.116436951671915</v>
+        <v>1.85831125214134</v>
+      </c>
+      <c r="AH14">
+        <v>18.9130134391395</v>
+      </c>
+      <c r="AI14">
+        <v>1.85831125214134</v>
+      </c>
+      <c r="AJ14">
+        <v>2.86152902784711</v>
+      </c>
+      <c r="AK14">
+        <v>19.9162312148452</v>
+      </c>
+      <c r="AL14">
+        <v>2.86152902784711</v>
       </c>
       <c r="AM14">
-        <v>-0.148319084284793</v>
+        <v>3.86474680355289</v>
       </c>
       <c r="AN14">
-        <v>-0.162232070686039</v>
+        <v>20.919448990551</v>
+      </c>
+      <c r="AO14">
+        <v>3.86474680355289</v>
       </c>
       <c r="AP14">
-        <v>-0.218649363157002</v>
+        <v>4.86796457925866</v>
+      </c>
+      <c r="AQ14">
+        <v>21.9226667662568</v>
+      </c>
+      <c r="AR14">
+        <v>4.86796457925866</v>
       </c>
       <c r="AS14">
-        <v>-0.141399498377153</v>
+        <v>5.87118235496444</v>
+      </c>
+      <c r="AT14">
+        <v>22.9258845419626</v>
+      </c>
+      <c r="AU14">
+        <v>5.87118235496444</v>
+      </c>
+      <c r="AV14">
+        <v>6.87440013067021</v>
+      </c>
+      <c r="AW14">
+        <v>23.9291023176683</v>
+      </c>
+      <c r="AX14">
+        <v>6.87440013067021</v>
       </c>
       <c r="AY14">
-        <v>-0.18076646253164</v>
+        <v>7.87761790637598</v>
       </c>
       <c r="AZ14">
-        <v>-0.127939834704188</v>
+        <v>24.9323200933741</v>
       </c>
       <c r="BA14">
-        <v>-0.143910578346013</v>
+        <v>7.87761790637598</v>
       </c>
       <c r="BB14">
-        <v>-0.166278888951835</v>
+        <v>8.88083568208176</v>
       </c>
       <c r="BC14">
-        <v>-0.143298066251105</v>
+        <v>25.9355378690799</v>
+      </c>
+      <c r="BD14">
+        <v>8.88083568208176</v>
+      </c>
+      <c r="BE14">
+        <v>9.88405345778753</v>
       </c>
       <c r="BF14">
-        <v>-0.13264024836316</v>
+        <v>26.9387556447857</v>
       </c>
       <c r="BG14">
-        <v>-0.149690347870666</v>
+        <v>9.88405345778753</v>
+      </c>
+      <c r="BH14">
+        <v>10.8872712334933</v>
       </c>
       <c r="BI14">
-        <v>-0.135917246311257</v>
+        <v>27.9419734204914</v>
+      </c>
+      <c r="BJ14">
+        <v>10.8872712334933</v>
       </c>
       <c r="BK14">
-        <v>-0.162043240897643</v>
+        <v>11.8904890091991</v>
+      </c>
+      <c r="BL14">
+        <v>28.9451911961972</v>
       </c>
       <c r="BM14">
-        <v>-0.137517490608296</v>
+        <v>11.8904890091991</v>
       </c>
       <c r="BN14">
-        <v>-0.149414903582195</v>
+        <v>12.8937067849048</v>
+      </c>
+      <c r="BO14">
+        <v>29.948408971903</v>
       </c>
       <c r="BP14">
-        <v>-0.125456165690892</v>
+        <v>12.8937067849048</v>
+      </c>
+      <c r="BQ14">
+        <v>13.8969245606106</v>
       </c>
       <c r="BR14">
-        <v>-0.162456926944237</v>
+        <v>30.9516267476088</v>
       </c>
       <c r="BS14">
-        <v>-0.170558641364739</v>
+        <v>13.8969245606106</v>
       </c>
       <c r="BT14">
-        <v>-0.147691462926275</v>
+        <v>14.9001423363164</v>
       </c>
       <c r="BU14">
-        <v>-0.176718491078745</v>
+        <v>31.9548445233145</v>
       </c>
       <c r="BV14">
-        <v>-0.184526773503017</v>
+        <v>14.9001423363164</v>
       </c>
       <c r="BW14">
-        <v>-0.163061284322722</v>
+        <v>15.9033601120222</v>
+      </c>
+      <c r="BX14">
+        <v>32.9580622990203</v>
       </c>
       <c r="BY14">
-        <v>-0.156850024274269</v>
+        <v>15.9033601120222</v>
+      </c>
+      <c r="BZ14">
+        <v>16.9065778877279</v>
       </c>
       <c r="CA14">
-        <v>-0.13260105519641</v>
+        <v>33.9612800747261</v>
+      </c>
+      <c r="CB14">
+        <v>16.9065778877279</v>
       </c>
       <c r="CC14">
-        <v>-0.149406091890919</v>
+        <v>17.9097956634337</v>
       </c>
       <c r="CD14">
-        <v>-0.1523674043907</v>
+        <v>34.9644978504319</v>
       </c>
       <c r="CE14">
-        <v>-0.22225773659854</v>
+        <v>17.9097956634337</v>
       </c>
       <c r="CF14">
-        <v>-0.198639445834349</v>
+        <v>18.9130134391395</v>
+      </c>
+      <c r="CG14">
+        <v>35.9677156261376</v>
       </c>
       <c r="CH14">
-        <v>-0.151336958259112</v>
+        <v>18.9130134391395</v>
       </c>
       <c r="CI14">
-        <v>-0.140344754416351</v>
+        <v>19.9162312148452</v>
+      </c>
+      <c r="CJ14">
+        <v>36.9709334018434</v>
+      </c>
+      <c r="CK14">
+        <v>36.9709334018434</v>
+      </c>
+      <c r="CL14">
+        <v>19.9162312148452</v>
       </c>
       <c r="CM14">
-        <v>-0.120723825896049</v>
+        <v>20.919448990551</v>
+      </c>
+      <c r="CN14">
+        <v>37.9741511775492</v>
       </c>
       <c r="CO14">
-        <v>-0.181033968241455</v>
+        <v>37.9741511775492</v>
       </c>
       <c r="CP14">
-        <v>-0.143919545287688</v>
+        <v>20.919448990551</v>
       </c>
       <c r="CQ14">
-        <v>-0.110959303651632</v>
+        <v>21.9226667662568</v>
       </c>
       <c r="CR14">
-        <v>-0.165874832797338</v>
+        <v>38.977368953255</v>
       </c>
       <c r="CS14">
-        <v>-0.191404129637597</v>
+        <v>38.977368953255</v>
       </c>
       <c r="CT14">
-        <v>-0.16591345565858</v>
+        <v>21.9226667662568</v>
       </c>
       <c r="CU14">
-        <v>-0.180933259915902</v>
+        <v>22.9258845419626</v>
       </c>
       <c r="CV14">
-        <v>-0.173556650272252</v>
+        <v>39.9805867289607</v>
       </c>
       <c r="CW14">
-        <v>-0.163391126830122</v>
+        <v>39.9805867289607</v>
       </c>
       <c r="CX14">
-        <v>-0.159830073615983</v>
+        <v>22.9258845419626</v>
       </c>
       <c r="CY14">
-        <v>-0.132234282117697</v>
+        <v>23.9291023176683</v>
+      </c>
+      <c r="CZ14">
+        <v>40.9838045046665</v>
       </c>
     </row>
     <row r="15" spans="1:104">
       <c r="A15">
-        <v>32889</v>
+        <v>33239</v>
+      </c>
+      <c r="D15">
+        <v>4.85404174003858</v>
+      </c>
+      <c r="E15">
+        <v>-0.124691916830159</v>
+      </c>
+      <c r="F15">
+        <v>1.87801536882974</v>
+      </c>
+      <c r="G15">
+        <v>-0.136208814963555</v>
       </c>
       <c r="H15">
-        <v>-0.108925656126111</v>
+        <v>-0.127042906443931</v>
+      </c>
+      <c r="I15">
+        <v>-0.12750435850948</v>
       </c>
       <c r="J15">
-        <v>-0.125582946448367</v>
+        <v>-0.129627368196002</v>
       </c>
       <c r="K15">
-        <v>-0.147836542620758</v>
+        <v>-0.148104918317537</v>
+      </c>
+      <c r="L15">
+        <v>0.855112857388238</v>
       </c>
       <c r="M15">
-        <v>-0.141192307433093</v>
+        <v>1.85833063309401</v>
       </c>
       <c r="N15">
-        <v>-0.170356435740265</v>
+        <v>2.86154840879979</v>
       </c>
       <c r="O15">
-        <v>-0.171022606561172</v>
+        <v>3.86476618450556</v>
       </c>
       <c r="P15">
-        <v>-0.158662629236737</v>
+        <v>4.86798396021134</v>
       </c>
       <c r="Q15">
-        <v>-0.149711604833072</v>
+        <v>5.87120173591711</v>
       </c>
       <c r="R15">
-        <v>-0.165471549630593</v>
+        <v>6.87441951162289</v>
+      </c>
+      <c r="S15">
+        <v>7.87763728732866</v>
       </c>
       <c r="T15">
-        <v>-0.134180149837787</v>
+        <v>8.88085506303443</v>
       </c>
       <c r="U15">
-        <v>-0.131857226198923</v>
+        <v>9.88407283874021</v>
       </c>
       <c r="V15">
-        <v>-0.160044716843285</v>
+        <v>10.887290614446</v>
+      </c>
+      <c r="W15">
+        <v>11.8905083901517</v>
       </c>
       <c r="X15">
-        <v>-0.193274726014942</v>
+        <v>12.8937261658575</v>
       </c>
       <c r="Y15">
-        <v>-0.160915110029674</v>
+        <v>13.8969439415633</v>
+      </c>
+      <c r="Z15">
+        <v>14.9001617172691</v>
+      </c>
+      <c r="AA15">
+        <v>15.9033794929748</v>
+      </c>
+      <c r="AB15">
+        <v>16.9065972686806</v>
+      </c>
+      <c r="AC15">
+        <v>-0.148104918317537</v>
+      </c>
+      <c r="AD15">
+        <v>0.855112857388238</v>
+      </c>
+      <c r="AE15">
+        <v>17.9098150443864</v>
+      </c>
+      <c r="AF15">
+        <v>0.855112857388238</v>
       </c>
       <c r="AG15">
-        <v>-0.117055525038584</v>
+        <v>1.85833063309401</v>
+      </c>
+      <c r="AH15">
+        <v>18.9130328200921</v>
+      </c>
+      <c r="AI15">
+        <v>1.85833063309401</v>
+      </c>
+      <c r="AJ15">
+        <v>2.86154840879979</v>
+      </c>
+      <c r="AK15">
+        <v>19.9162505957979</v>
+      </c>
+      <c r="AL15">
+        <v>2.86154840879979</v>
       </c>
       <c r="AM15">
-        <v>-0.147322997122304</v>
+        <v>3.86476618450556</v>
       </c>
       <c r="AN15">
-        <v>-0.161328895094559</v>
+        <v>20.9194683715037</v>
+      </c>
+      <c r="AO15">
+        <v>3.86476618450556</v>
       </c>
       <c r="AP15">
-        <v>-0.215665852031703</v>
+        <v>4.86798396021134</v>
+      </c>
+      <c r="AQ15">
+        <v>21.9226861472095</v>
+      </c>
+      <c r="AR15">
+        <v>4.86798396021134</v>
       </c>
       <c r="AS15">
-        <v>-0.140970401528614</v>
+        <v>5.87120173591711</v>
+      </c>
+      <c r="AT15">
+        <v>22.9259039229152</v>
+      </c>
+      <c r="AU15">
+        <v>5.87120173591711</v>
+      </c>
+      <c r="AV15">
+        <v>6.87441951162289</v>
+      </c>
+      <c r="AW15">
+        <v>23.929121698621</v>
+      </c>
+      <c r="AX15">
+        <v>6.87441951162289</v>
       </c>
       <c r="AY15">
-        <v>-0.179563776102462</v>
+        <v>7.87763728732866</v>
       </c>
       <c r="AZ15">
-        <v>-0.128049456296666</v>
+        <v>24.9323394743268</v>
       </c>
       <c r="BA15">
-        <v>-0.1429215144341</v>
+        <v>7.87763728732866</v>
       </c>
       <c r="BB15">
-        <v>-0.165482193619218</v>
+        <v>8.88085506303443</v>
       </c>
       <c r="BC15">
-        <v>-0.142344881635858</v>
+        <v>25.9355572500326</v>
+      </c>
+      <c r="BD15">
+        <v>8.88085506303443</v>
+      </c>
+      <c r="BE15">
+        <v>9.88407283874021</v>
       </c>
       <c r="BF15">
-        <v>-0.132307441225698</v>
+        <v>26.9387750257383</v>
       </c>
       <c r="BG15">
-        <v>-0.149913765067659</v>
+        <v>9.88407283874021</v>
+      </c>
+      <c r="BH15">
+        <v>10.887290614446</v>
       </c>
       <c r="BI15">
-        <v>-0.13538892142115</v>
+        <v>27.9419928014441</v>
+      </c>
+      <c r="BJ15">
+        <v>10.887290614446</v>
       </c>
       <c r="BK15">
-        <v>-0.161835714336081</v>
+        <v>11.8905083901517</v>
+      </c>
+      <c r="BL15">
+        <v>28.9452105771499</v>
       </c>
       <c r="BM15">
-        <v>-0.137560108042142</v>
+        <v>11.8905083901517</v>
       </c>
       <c r="BN15">
-        <v>-0.149547748495157</v>
+        <v>12.8937261658575</v>
+      </c>
+      <c r="BO15">
+        <v>29.9484283528557</v>
       </c>
       <c r="BP15">
-        <v>-0.12508246953726</v>
+        <v>12.8937261658575</v>
+      </c>
+      <c r="BQ15">
+        <v>13.8969439415633</v>
       </c>
       <c r="BR15">
-        <v>-0.161677124969314</v>
+        <v>30.9516461285614</v>
       </c>
       <c r="BS15">
-        <v>-0.169820823422068</v>
+        <v>13.8969439415633</v>
       </c>
       <c r="BT15">
-        <v>-0.147659460106446</v>
+        <v>14.9001617172691</v>
       </c>
       <c r="BU15">
-        <v>-0.175735657164721</v>
+        <v>31.9548639042672</v>
       </c>
       <c r="BV15">
-        <v>-0.183157505196518</v>
+        <v>14.9001617172691</v>
       </c>
       <c r="BW15">
-        <v>-0.161786975886246</v>
+        <v>15.9033794929748</v>
+      </c>
+      <c r="BX15">
+        <v>32.958081679973</v>
       </c>
       <c r="BY15">
-        <v>-0.15592289555724</v>
+        <v>15.9033794929748</v>
+      </c>
+      <c r="BZ15">
+        <v>16.9065972686806</v>
       </c>
       <c r="CA15">
-        <v>-0.132679036610028</v>
+        <v>33.9612994556788</v>
+      </c>
+      <c r="CB15">
+        <v>16.9065972686806</v>
       </c>
       <c r="CC15">
-        <v>-0.149535898478108</v>
+        <v>17.9098150443864</v>
       </c>
       <c r="CD15">
-        <v>-0.151305104162246</v>
+        <v>34.9645172313845</v>
       </c>
       <c r="CE15">
-        <v>-0.219985404393473</v>
+        <v>17.9098150443864</v>
       </c>
       <c r="CF15">
-        <v>-0.196014502588432</v>
+        <v>18.9130328200921</v>
+      </c>
+      <c r="CG15">
+        <v>35.9677350070903</v>
       </c>
       <c r="CH15">
-        <v>-0.15136821778075</v>
+        <v>18.9130328200921</v>
       </c>
       <c r="CI15">
-        <v>-0.140053692596305</v>
+        <v>19.9162505957979</v>
+      </c>
+      <c r="CJ15">
+        <v>36.9709527827961</v>
+      </c>
+      <c r="CK15">
+        <v>36.9709527827961</v>
+      </c>
+      <c r="CL15">
+        <v>19.9162505957979</v>
       </c>
       <c r="CM15">
-        <v>-0.119745406828203</v>
+        <v>20.9194683715037</v>
+      </c>
+      <c r="CN15">
+        <v>37.9741705585019</v>
       </c>
       <c r="CO15">
-        <v>-0.179083141369927</v>
+        <v>37.9741705585019</v>
       </c>
       <c r="CP15">
-        <v>-0.142973341969377</v>
+        <v>20.9194683715037</v>
       </c>
       <c r="CQ15">
-        <v>-0.11166153326032</v>
+        <v>21.9226861472095</v>
       </c>
       <c r="CR15">
-        <v>-0.165927779479285</v>
+        <v>38.9773883342076</v>
       </c>
       <c r="CS15">
-        <v>-0.189703247497394</v>
+        <v>38.9773883342076</v>
       </c>
       <c r="CT15">
-        <v>-0.164906166431859</v>
+        <v>21.9226861472095</v>
       </c>
       <c r="CU15">
-        <v>-0.17963465911711</v>
+        <v>22.9259039229152</v>
       </c>
       <c r="CV15">
-        <v>-0.171972483628354</v>
+        <v>39.9806061099134</v>
       </c>
       <c r="CW15">
-        <v>-0.16234891541401</v>
+        <v>39.9806061099134</v>
       </c>
       <c r="CX15">
-        <v>-0.159139256631239</v>
+        <v>22.9259039229152</v>
       </c>
       <c r="CY15">
-        <v>-0.132800040844145</v>
+        <v>23.929121698621</v>
+      </c>
+      <c r="CZ15">
+        <v>40.9838238856192</v>
       </c>
     </row>
     <row r="16" spans="1:104">
       <c r="A16">
-        <v>32890</v>
+        <v>33270</v>
       </c>
     </row>
-    <row r="17" spans="1:103">
+    <row r="17" spans="1:104">
       <c r="A17">
-        <v>32891</v>
+        <v>33298</v>
+      </c>
+      <c r="D17">
+        <v>4.85403138839343</v>
+      </c>
+      <c r="E17">
+        <v>-0.124646346043739</v>
+      </c>
+      <c r="F17">
+        <v>1.87828341628243</v>
+      </c>
+      <c r="G17">
+        <v>-0.136194285171119</v>
       </c>
       <c r="H17">
-        <v>-0.111292236393735</v>
+        <v>-0.127032035054876</v>
+      </c>
+      <c r="I17">
+        <v>-0.127495691445715</v>
       </c>
       <c r="J17">
-        <v>-0.130034429953191</v>
+        <v>-0.129584588273937</v>
       </c>
       <c r="K17">
-        <v>-0.14769424747023</v>
+        <v>-0.148036952459079</v>
+      </c>
+      <c r="L17">
+        <v>0.855180823246695</v>
       </c>
       <c r="M17">
-        <v>-0.138777852807802</v>
+        <v>1.85839859895247</v>
       </c>
       <c r="N17">
-        <v>-0.164989765564457</v>
+        <v>2.86161637465825</v>
       </c>
       <c r="O17">
-        <v>-0.16623828682235</v>
+        <v>3.86483415036402</v>
       </c>
       <c r="P17">
-        <v>-0.154275599672049</v>
+        <v>4.86805192606979</v>
       </c>
       <c r="Q17">
-        <v>-0.146401075957149</v>
+        <v>5.87126970177557</v>
       </c>
       <c r="R17">
-        <v>-0.159853900029945</v>
+        <v>6.87448747748134</v>
+      </c>
+      <c r="S17">
+        <v>7.87770525318712</v>
       </c>
       <c r="T17">
-        <v>-0.13116740201944</v>
+        <v>8.88092302889289</v>
       </c>
       <c r="U17">
-        <v>-0.133635719317198</v>
+        <v>9.88414080459867</v>
       </c>
       <c r="V17">
-        <v>-0.15820652439974</v>
+        <v>10.8873585803044</v>
+      </c>
+      <c r="W17">
+        <v>11.8905763560102</v>
       </c>
       <c r="X17">
-        <v>-0.185688459958387</v>
+        <v>12.893794131716</v>
       </c>
       <c r="Y17">
-        <v>-0.161296961714485</v>
+        <v>13.8970119074217</v>
+      </c>
+      <c r="Z17">
+        <v>14.9002296831275</v>
+      </c>
+      <c r="AA17">
+        <v>15.9034474588333</v>
+      </c>
+      <c r="AB17">
+        <v>16.9066652345391</v>
+      </c>
+      <c r="AC17">
+        <v>-0.148036952459079</v>
+      </c>
+      <c r="AD17">
+        <v>0.855180823246695</v>
+      </c>
+      <c r="AE17">
+        <v>17.9098830102448</v>
+      </c>
+      <c r="AF17">
+        <v>0.855180823246695</v>
       </c>
       <c r="AG17">
-        <v>-0.119224761535263</v>
+        <v>1.85839859895247</v>
+      </c>
+      <c r="AH17">
+        <v>18.9131007859506</v>
+      </c>
+      <c r="AI17">
+        <v>1.85839859895247</v>
+      </c>
+      <c r="AJ17">
+        <v>2.86161637465825</v>
+      </c>
+      <c r="AK17">
+        <v>19.9163185616564</v>
+      </c>
+      <c r="AL17">
+        <v>2.86161637465825</v>
       </c>
       <c r="AM17">
-        <v>-0.143829880956668</v>
+        <v>3.86483415036402</v>
       </c>
       <c r="AN17">
-        <v>-0.158161604743054</v>
+        <v>20.9195363373622</v>
+      </c>
+      <c r="AO17">
+        <v>3.86483415036402</v>
       </c>
       <c r="AP17">
-        <v>-0.20520316228465</v>
+        <v>4.86805192606979</v>
+      </c>
+      <c r="AQ17">
+        <v>21.9227541130679</v>
+      </c>
+      <c r="AR17">
+        <v>4.86805192606979</v>
       </c>
       <c r="AS17">
-        <v>-0.139465628457838</v>
+        <v>5.87126970177557</v>
+      </c>
+      <c r="AT17">
+        <v>22.9259718887737</v>
+      </c>
+      <c r="AU17">
+        <v>5.87126970177557</v>
+      </c>
+      <c r="AV17">
+        <v>6.87448747748134</v>
+      </c>
+      <c r="AW17">
+        <v>23.9291896644795</v>
+      </c>
+      <c r="AX17">
+        <v>6.87448747748134</v>
       </c>
       <c r="AY17">
-        <v>-0.175346149808136</v>
+        <v>7.87770525318712</v>
       </c>
       <c r="AZ17">
-        <v>-0.1284338814466</v>
+        <v>24.9324074401853</v>
       </c>
       <c r="BA17">
-        <v>-0.139453027669429</v>
+        <v>7.87770525318712</v>
       </c>
       <c r="BB17">
-        <v>-0.162688312270019</v>
+        <v>8.88092302889289</v>
       </c>
       <c r="BC17">
-        <v>-0.139002217746849</v>
+        <v>25.935625215891</v>
+      </c>
+      <c r="BD17">
+        <v>8.88092302889289</v>
+      </c>
+      <c r="BE17">
+        <v>9.88414080459867</v>
       </c>
       <c r="BF17">
-        <v>-0.131140340558521</v>
+        <v>26.9388429915968</v>
       </c>
       <c r="BG17">
-        <v>-0.150697252950933</v>
+        <v>9.88414080459867</v>
+      </c>
+      <c r="BH17">
+        <v>10.8873585803044</v>
       </c>
       <c r="BI17">
-        <v>-0.133536171698193</v>
+        <v>27.9420607673026</v>
+      </c>
+      <c r="BJ17">
+        <v>10.8873585803044</v>
       </c>
       <c r="BK17">
-        <v>-0.161107952334629</v>
+        <v>11.8905763560102</v>
+      </c>
+      <c r="BL17">
+        <v>28.9452785430083</v>
       </c>
       <c r="BM17">
-        <v>-0.137709560472322</v>
+        <v>11.8905763560102</v>
       </c>
       <c r="BN17">
-        <v>-0.150013614064423</v>
+        <v>12.893794131716</v>
+      </c>
+      <c r="BO17">
+        <v>29.9484963187141</v>
       </c>
       <c r="BP17">
-        <v>-0.123771977720432</v>
+        <v>12.893794131716</v>
+      </c>
+      <c r="BQ17">
+        <v>13.8970119074217</v>
       </c>
       <c r="BR17">
-        <v>-0.158942485886334</v>
+        <v>30.9517140944199</v>
       </c>
       <c r="BS17">
-        <v>-0.167233415532582</v>
+        <v>13.8970119074217</v>
       </c>
       <c r="BT17">
-        <v>-0.14754723140649</v>
+        <v>14.9002296831275</v>
       </c>
       <c r="BU17">
-        <v>-0.172289017992467</v>
+        <v>31.9549318701257</v>
       </c>
       <c r="BV17">
-        <v>-0.178355703269292</v>
+        <v>14.9002296831275</v>
       </c>
       <c r="BW17">
-        <v>-0.157318182825664</v>
+        <v>15.9034474588333</v>
+      </c>
+      <c r="BX17">
+        <v>32.9581496458314</v>
       </c>
       <c r="BY17">
-        <v>-0.152671605478377</v>
+        <v>15.9034474588333</v>
+      </c>
+      <c r="BZ17">
+        <v>16.9066652345391</v>
       </c>
       <c r="CA17">
-        <v>-0.13295250478308</v>
+        <v>33.9613674215372</v>
+      </c>
+      <c r="CB17">
+        <v>16.9066652345391</v>
       </c>
       <c r="CC17">
-        <v>-0.149991109131544</v>
+        <v>17.9098830102448</v>
       </c>
       <c r="CD17">
-        <v>-0.147579789510562</v>
+        <v>34.964585197243</v>
       </c>
       <c r="CE17">
-        <v>-0.21201670380367</v>
+        <v>17.9098830102448</v>
       </c>
       <c r="CF17">
-        <v>-0.186809252253426</v>
+        <v>18.9131007859506</v>
+      </c>
+      <c r="CG17">
+        <v>35.9678029729488</v>
       </c>
       <c r="CH17">
-        <v>-0.151477839854478</v>
+        <v>18.9131007859506</v>
       </c>
       <c r="CI17">
-        <v>-0.139032985988398</v>
+        <v>19.9163185616564</v>
+      </c>
+      <c r="CJ17">
+        <v>36.9710207486545</v>
+      </c>
+      <c r="CK17">
+        <v>36.9710207486545</v>
+      </c>
+      <c r="CL17">
+        <v>19.9163185616564</v>
       </c>
       <c r="CM17">
-        <v>-0.116314249805637</v>
+        <v>20.9195363373622</v>
+      </c>
+      <c r="CN17">
+        <v>37.9742385243603</v>
       </c>
       <c r="CO17">
-        <v>-0.172241907853504</v>
+        <v>37.9742385243603</v>
       </c>
       <c r="CP17">
-        <v>-0.13965516035672</v>
+        <v>20.9195363373622</v>
       </c>
       <c r="CQ17">
-        <v>-0.114124138633096</v>
+        <v>21.9227541130679</v>
       </c>
       <c r="CR17">
-        <v>-0.166113454907692</v>
+        <v>38.9774563000661</v>
       </c>
       <c r="CS17">
-        <v>-0.183738529625775</v>
+        <v>38.9774563000661</v>
       </c>
       <c r="CT17">
-        <v>-0.161373766443346</v>
+        <v>21.9227541130679</v>
       </c>
       <c r="CU17">
-        <v>-0.175080676680838</v>
+        <v>22.9259718887737</v>
       </c>
       <c r="CV17">
-        <v>-0.166417068077132</v>
+        <v>39.9806740757719</v>
       </c>
       <c r="CW17">
-        <v>-0.158694048969854</v>
+        <v>39.9806740757719</v>
       </c>
       <c r="CX17">
-        <v>-0.156716673480105</v>
+        <v>22.9259718887737</v>
       </c>
       <c r="CY17">
-        <v>-0.134784064961338</v>
+        <v>23.9291896644795</v>
+      </c>
+      <c r="CZ17">
+        <v>40.9838918514776</v>
       </c>
     </row>
-    <row r="18" spans="1:103">
+    <row r="18" spans="1:104">
       <c r="A18">
-        <v>32892</v>
+        <v>33329</v>
+      </c>
+      <c r="D18">
+        <v>4.85404046059494</v>
+      </c>
+      <c r="E18">
+        <v>-0.124686284367689</v>
+      </c>
+      <c r="F18">
+        <v>1.87804849898474</v>
+      </c>
+      <c r="G18">
+        <v>-0.136207019108864</v>
       </c>
       <c r="H18">
-        <v>-0.109218160943045</v>
+        <v>-0.127041562760935</v>
+      </c>
+      <c r="I18">
+        <v>-0.127503287276894</v>
       </c>
       <c r="J18">
-        <v>-0.126133141337371</v>
+        <v>-0.129622080679055</v>
       </c>
       <c r="K18">
-        <v>-0.147818955210973</v>
+        <v>-0.148096517866786</v>
+      </c>
+      <c r="L18">
+        <v>0.855121257838988</v>
       </c>
       <c r="M18">
-        <v>-0.140893885436667</v>
+        <v>1.85833903354476</v>
       </c>
       <c r="N18">
-        <v>-0.169693125520536</v>
+        <v>2.86155680925054</v>
       </c>
       <c r="O18">
-        <v>-0.170431273747109</v>
+        <v>3.86477458495631</v>
       </c>
       <c r="P18">
-        <v>-0.158120400732063</v>
+        <v>4.86799236066209</v>
       </c>
       <c r="Q18">
-        <v>-0.149302429764702</v>
+        <v>5.87121013636786</v>
       </c>
       <c r="R18">
-        <v>-0.164777218831626</v>
+        <v>6.87442791207364</v>
+      </c>
+      <c r="S18">
+        <v>7.87764568777941</v>
       </c>
       <c r="T18">
-        <v>-0.133807779941388</v>
+        <v>8.88086346348519</v>
       </c>
       <c r="U18">
-        <v>-0.132077044563463</v>
+        <v>9.88408123919096</v>
       </c>
       <c r="V18">
-        <v>-0.159817519755764</v>
+        <v>10.8872990148967</v>
+      </c>
+      <c r="W18">
+        <v>11.8905167906025</v>
       </c>
       <c r="X18">
-        <v>-0.192337077968752</v>
+        <v>12.8937345663083</v>
       </c>
       <c r="Y18">
-        <v>-0.160962306171166</v>
+        <v>13.896952342014</v>
+      </c>
+      <c r="Z18">
+        <v>14.9001701177198</v>
+      </c>
+      <c r="AA18">
+        <v>15.9033878934256</v>
+      </c>
+      <c r="AB18">
+        <v>16.9066056691313</v>
+      </c>
+      <c r="AC18">
+        <v>-0.148096517866786</v>
+      </c>
+      <c r="AD18">
+        <v>0.855121257838988</v>
+      </c>
+      <c r="AE18">
+        <v>17.9098234448371</v>
+      </c>
+      <c r="AF18">
+        <v>0.855121257838988</v>
       </c>
       <c r="AG18">
-        <v>-0.11732363854102</v>
+        <v>1.85833903354476</v>
+      </c>
+      <c r="AH18">
+        <v>18.9130412205429</v>
+      </c>
+      <c r="AI18">
+        <v>1.85833903354476</v>
+      </c>
+      <c r="AJ18">
+        <v>2.86155680925054</v>
+      </c>
+      <c r="AK18">
+        <v>19.9162589962487</v>
+      </c>
+      <c r="AL18">
+        <v>2.86155680925054</v>
       </c>
       <c r="AM18">
-        <v>-0.146891254612431</v>
+        <v>3.86477458495631</v>
       </c>
       <c r="AN18">
-        <v>-0.160937424035191</v>
+        <v>20.9194767719544</v>
+      </c>
+      <c r="AO18">
+        <v>3.86477458495631</v>
       </c>
       <c r="AP18">
-        <v>-0.21437268349186</v>
+        <v>4.86799236066209</v>
+      </c>
+      <c r="AQ18">
+        <v>21.9226945476602</v>
+      </c>
+      <c r="AR18">
+        <v>4.86799236066209</v>
       </c>
       <c r="AS18">
-        <v>-0.140784414440993</v>
+        <v>5.87121013636786</v>
+      </c>
+      <c r="AT18">
+        <v>22.925912323366</v>
+      </c>
+      <c r="AU18">
+        <v>5.87121013636786</v>
+      </c>
+      <c r="AV18">
+        <v>6.87442791207364</v>
+      </c>
+      <c r="AW18">
+        <v>23.9291300990718</v>
+      </c>
+      <c r="AX18">
+        <v>6.87442791207364</v>
       </c>
       <c r="AY18">
-        <v>-0.179042485519591</v>
+        <v>7.87764568777941</v>
       </c>
       <c r="AZ18">
-        <v>-0.128096970513549</v>
+        <v>24.9323478747775</v>
       </c>
       <c r="BA18">
-        <v>-0.142492816071311</v>
+        <v>7.87764568777941</v>
       </c>
       <c r="BB18">
-        <v>-0.165136875201852</v>
+        <v>8.88086346348519</v>
       </c>
       <c r="BC18">
-        <v>-0.14193173474103</v>
+        <v>25.9355656504833</v>
+      </c>
+      <c r="BD18">
+        <v>8.88086346348519</v>
+      </c>
+      <c r="BE18">
+        <v>9.88408123919096</v>
       </c>
       <c r="BF18">
-        <v>-0.132163189804495</v>
+        <v>26.9387834261891</v>
       </c>
       <c r="BG18">
-        <v>-0.150010602678875</v>
+        <v>9.88408123919096</v>
+      </c>
+      <c r="BH18">
+        <v>10.8872990148967</v>
       </c>
       <c r="BI18">
-        <v>-0.135159925081599</v>
+        <v>27.9420012018949</v>
+      </c>
+      <c r="BJ18">
+        <v>10.8872990148967</v>
       </c>
       <c r="BK18">
-        <v>-0.161745764337799</v>
+        <v>11.8905167906025</v>
+      </c>
+      <c r="BL18">
+        <v>28.9452189776006</v>
       </c>
       <c r="BM18">
-        <v>-0.13757858007807</v>
+        <v>11.8905167906025</v>
       </c>
       <c r="BN18">
-        <v>-0.149605328592869</v>
+        <v>12.8937345663083</v>
+      </c>
+      <c r="BO18">
+        <v>29.9484367533064</v>
       </c>
       <c r="BP18">
-        <v>-0.124920495242866</v>
+        <v>12.8937345663083</v>
+      </c>
+      <c r="BQ18">
+        <v>13.896952342014</v>
       </c>
       <c r="BR18">
-        <v>-0.161339128783302</v>
+        <v>30.9516545290122</v>
       </c>
       <c r="BS18">
-        <v>-0.169501024731357</v>
+        <v>13.896952342014</v>
       </c>
       <c r="BT18">
-        <v>-0.147645588852729</v>
+        <v>14.9001701177198</v>
       </c>
       <c r="BU18">
-        <v>-0.175309659122773</v>
+        <v>31.954872304718</v>
       </c>
       <c r="BV18">
-        <v>-0.182564011617241</v>
+        <v>14.9001701177198</v>
       </c>
       <c r="BW18">
-        <v>-0.161234641569094</v>
+        <v>15.9033878934256</v>
+      </c>
+      <c r="BX18">
+        <v>32.9580900804237</v>
       </c>
       <c r="BY18">
-        <v>-0.155521042291441</v>
+        <v>15.9033878934256</v>
+      </c>
+      <c r="BZ18">
+        <v>16.9066056691313</v>
       </c>
       <c r="CA18">
-        <v>-0.132712836755745</v>
+        <v>33.9613078561295</v>
+      </c>
+      <c r="CB18">
+        <v>16.9066056691313</v>
       </c>
       <c r="CC18">
-        <v>-0.149592161648503</v>
+        <v>17.9098234448371</v>
       </c>
       <c r="CD18">
-        <v>-0.150844662361424</v>
+        <v>34.9645256318353</v>
       </c>
       <c r="CE18">
-        <v>-0.219000488166834</v>
+        <v>17.9098234448371</v>
       </c>
       <c r="CF18">
-        <v>-0.194876751166723</v>
+        <v>18.9130412205429</v>
+      </c>
+      <c r="CG18">
+        <v>35.9677434075411</v>
       </c>
       <c r="CH18">
-        <v>-0.151381766860427</v>
+        <v>18.9130412205429</v>
       </c>
       <c r="CI18">
-        <v>-0.139927535202206</v>
+        <v>19.9162589962487</v>
+      </c>
+      <c r="CJ18">
+        <v>36.9709611832468</v>
+      </c>
+      <c r="CK18">
+        <v>36.9709611832468</v>
+      </c>
+      <c r="CL18">
+        <v>19.9162589962487</v>
       </c>
       <c r="CM18">
-        <v>-0.119321322350491</v>
+        <v>20.9194767719544</v>
+      </c>
+      <c r="CN18">
+        <v>37.9741789589526</v>
       </c>
       <c r="CO18">
-        <v>-0.17823757792773</v>
+        <v>37.9741789589526</v>
       </c>
       <c r="CP18">
-        <v>-0.142563221037311</v>
+        <v>20.9194767719544</v>
       </c>
       <c r="CQ18">
-        <v>-0.111965906597494</v>
+        <v>21.9226945476602</v>
       </c>
       <c r="CR18">
-        <v>-0.165950728608853</v>
+        <v>38.9773967346584</v>
       </c>
       <c r="CS18">
-        <v>-0.188966019720685</v>
+        <v>38.9773967346584</v>
       </c>
       <c r="CT18">
-        <v>-0.164469568516244</v>
+        <v>21.9226945476602</v>
       </c>
       <c r="CU18">
-        <v>-0.179071795555257</v>
+        <v>22.925912323366</v>
       </c>
       <c r="CV18">
-        <v>-0.17128584483945</v>
+        <v>39.9806145103642</v>
       </c>
       <c r="CW18">
-        <v>-0.161897180877559</v>
+        <v>39.9806145103642</v>
       </c>
       <c r="CX18">
-        <v>-0.158839829964489</v>
+        <v>22.925912323366</v>
       </c>
       <c r="CY18">
-        <v>-0.133045262448978</v>
+        <v>23.9291300990718</v>
+      </c>
+      <c r="CZ18">
+        <v>40.9838322860699</v>
       </c>
     </row>
-    <row r="19" spans="1:103">
+    <row r="19" spans="1:104">
       <c r="A19">
-        <v>32895</v>
+        <v>33359</v>
+      </c>
+      <c r="D19">
+        <v>4.85404946604348</v>
+      </c>
+      <c r="E19">
+        <v>-0.124725928826734</v>
+      </c>
+      <c r="F19">
+        <v>1.87781531020098</v>
+      </c>
+      <c r="G19">
+        <v>-0.136219659350704</v>
       </c>
       <c r="H19">
-        <v>-0.107159346472941</v>
+        <v>-0.127051020362437</v>
+      </c>
+      <c r="I19">
+        <v>-0.127510827218191</v>
       </c>
       <c r="J19">
-        <v>-0.12226055827795</v>
+        <v>-0.12965929721626</v>
       </c>
       <c r="K19">
-        <v>-0.147942745356163</v>
+        <v>-0.148155644994135</v>
+      </c>
+      <c r="L19">
+        <v>0.855062130711639</v>
       </c>
       <c r="M19">
-        <v>-0.142994348365375</v>
+        <v>1.85827990641742</v>
       </c>
       <c r="N19">
-        <v>-0.174361878305042</v>
+        <v>2.86149768212319</v>
       </c>
       <c r="O19">
-        <v>-0.174593408808676</v>
+        <v>3.86471545782896</v>
       </c>
       <c r="P19">
-        <v>-0.161936911869301</v>
+        <v>4.86793323353474</v>
       </c>
       <c r="Q19">
-        <v>-0.152182435504076</v>
+        <v>5.87115100924051</v>
       </c>
       <c r="R19">
-        <v>-0.169664312011609</v>
+        <v>6.87436878494629</v>
+      </c>
+      <c r="S19">
+        <v>7.87758656065206</v>
       </c>
       <c r="T19">
-        <v>-0.136428730047345</v>
+        <v>8.88080433635784</v>
       </c>
       <c r="U19">
-        <v>-0.13052983848853</v>
+        <v>9.88402211206361</v>
       </c>
       <c r="V19">
-        <v>-0.161416661459674</v>
+        <v>10.8872398877694</v>
+      </c>
+      <c r="W19">
+        <v>11.8904576634751</v>
       </c>
       <c r="X19">
-        <v>-0.198936775661226</v>
+        <v>12.8936754391809</v>
       </c>
       <c r="Y19">
-        <v>-0.160630113012591</v>
+        <v>13.8968932148867</v>
+      </c>
+      <c r="Z19">
+        <v>14.9001109905925</v>
+      </c>
+      <c r="AA19">
+        <v>15.9033287662982</v>
+      </c>
+      <c r="AB19">
+        <v>16.906546542004</v>
+      </c>
+      <c r="AC19">
+        <v>-0.148155644994135</v>
+      </c>
+      <c r="AD19">
+        <v>0.855062130711639</v>
+      </c>
+      <c r="AE19">
+        <v>17.9097643177098</v>
+      </c>
+      <c r="AF19">
+        <v>0.855062130711639</v>
       </c>
       <c r="AG19">
-        <v>-0.11543650394874</v>
+        <v>1.85827990641742</v>
+      </c>
+      <c r="AH19">
+        <v>18.9129820934156</v>
+      </c>
+      <c r="AI19">
+        <v>1.85827990641742</v>
+      </c>
+      <c r="AJ19">
+        <v>2.86149768212319</v>
+      </c>
+      <c r="AK19">
+        <v>19.9161998691213</v>
+      </c>
+      <c r="AL19">
+        <v>2.86149768212319</v>
       </c>
       <c r="AM19">
-        <v>-0.149930102779109</v>
+        <v>3.86471545782896</v>
       </c>
       <c r="AN19">
-        <v>-0.163692818938085</v>
+        <v>20.9194176448271</v>
+      </c>
+      <c r="AO19">
+        <v>3.86471545782896</v>
       </c>
       <c r="AP19">
-        <v>-0.22347473565638</v>
+        <v>4.86793323353474</v>
+      </c>
+      <c r="AQ19">
+        <v>21.9226354205329</v>
+      </c>
+      <c r="AR19">
+        <v>4.86793323353474</v>
       </c>
       <c r="AS19">
-        <v>-0.142093496839219</v>
+        <v>5.87115100924051</v>
+      </c>
+      <c r="AT19">
+        <v>22.9258531962386</v>
+      </c>
+      <c r="AU19">
+        <v>5.87115100924051</v>
+      </c>
+      <c r="AV19">
+        <v>6.87436878494629</v>
+      </c>
+      <c r="AW19">
+        <v>23.9290709719444</v>
+      </c>
+      <c r="AX19">
+        <v>6.87436878494629</v>
       </c>
       <c r="AY19">
-        <v>-0.182711623711539</v>
+        <v>7.87758656065206</v>
       </c>
       <c r="AZ19">
-        <v>-0.127762538560328</v>
+        <v>24.9322887476502</v>
       </c>
       <c r="BA19">
-        <v>-0.145510237807714</v>
+        <v>7.87758656065206</v>
       </c>
       <c r="BB19">
-        <v>-0.167567421686235</v>
+        <v>8.88080433635784</v>
       </c>
       <c r="BC19">
-        <v>-0.14483969644321</v>
+        <v>25.935506523356</v>
+      </c>
+      <c r="BD19">
+        <v>8.88080433635784</v>
+      </c>
+      <c r="BE19">
+        <v>9.88402211206361</v>
       </c>
       <c r="BF19">
-        <v>-0.133178512958551</v>
+        <v>26.9387242990617</v>
       </c>
       <c r="BG19">
-        <v>-0.149329004757476</v>
+        <v>9.88402211206361</v>
+      </c>
+      <c r="BH19">
+        <v>10.8872398877694</v>
       </c>
       <c r="BI19">
-        <v>-0.136771730939735</v>
+        <v>27.9419420747675</v>
+      </c>
+      <c r="BJ19">
+        <v>10.8872398877694</v>
       </c>
       <c r="BK19">
-        <v>-0.162378883340724</v>
+        <v>11.8904576634751</v>
+      </c>
+      <c r="BL19">
+        <v>28.9451598504733</v>
       </c>
       <c r="BM19">
-        <v>-0.137448563433354</v>
+        <v>11.8904576634751</v>
       </c>
       <c r="BN19">
-        <v>-0.149200047272709</v>
+        <v>12.8936754391809</v>
+      </c>
+      <c r="BO19">
+        <v>29.9483776261791</v>
       </c>
       <c r="BP19">
-        <v>-0.126060562010239</v>
+        <v>12.8936754391809</v>
+      </c>
+      <c r="BQ19">
+        <v>13.8968932148867</v>
       </c>
       <c r="BR19">
-        <v>-0.16371813725877</v>
+        <v>30.9515954018848</v>
       </c>
       <c r="BS19">
-        <v>-0.171751948934441</v>
+        <v>13.8968932148867</v>
       </c>
       <c r="BT19">
-        <v>-0.147743222588036</v>
+        <v>14.9001109905925</v>
       </c>
       <c r="BU19">
-        <v>-0.178308074472609</v>
+        <v>31.9548131775906</v>
       </c>
       <c r="BV19">
-        <v>-0.186741355367458</v>
+        <v>14.9001109905925</v>
       </c>
       <c r="BW19">
-        <v>-0.165122283134812</v>
+        <v>15.9033287662982</v>
+      </c>
+      <c r="BX19">
+        <v>32.9580309532964</v>
       </c>
       <c r="BY19">
-        <v>-0.158349513039906</v>
+        <v>15.9033287662982</v>
+      </c>
+      <c r="BZ19">
+        <v>16.906546542004</v>
       </c>
       <c r="CA19">
-        <v>-0.13247493219806</v>
+        <v>33.9612487290022</v>
+      </c>
+      <c r="CB19">
+        <v>16.906546542004</v>
       </c>
       <c r="CC19">
-        <v>-0.149196149608235</v>
+        <v>17.9097643177098</v>
       </c>
       <c r="CD19">
-        <v>-0.154085512382655</v>
+        <v>34.9644665047079</v>
       </c>
       <c r="CE19">
-        <v>-0.225932886068842</v>
+        <v>17.9097643177098</v>
       </c>
       <c r="CF19">
-        <v>-0.202884889681993</v>
+        <v>18.9129820934156</v>
+      </c>
+      <c r="CG19">
+        <v>35.9676842804137</v>
       </c>
       <c r="CH19">
-        <v>-0.151286400768382</v>
+        <v>18.9129820934156</v>
       </c>
       <c r="CI19">
-        <v>-0.140815502351614</v>
+        <v>19.9161998691213</v>
+      </c>
+      <c r="CJ19">
+        <v>36.9709020561195</v>
+      </c>
+      <c r="CK19">
+        <v>36.9709020561195</v>
+      </c>
+      <c r="CL19">
+        <v>19.9161998691213</v>
       </c>
       <c r="CM19">
-        <v>-0.12230626895209</v>
+        <v>20.9194176448271</v>
+      </c>
+      <c r="CN19">
+        <v>37.9741198318253</v>
       </c>
       <c r="CO19">
-        <v>-0.184189132054018</v>
+        <v>37.9741198318253</v>
       </c>
       <c r="CP19">
-        <v>-0.145449884300768</v>
+        <v>20.9194176448271</v>
       </c>
       <c r="CQ19">
-        <v>-0.109823554763927</v>
+        <v>21.9226354205329</v>
       </c>
       <c r="CR19">
-        <v>-0.165789199644897</v>
+        <v>38.977337607531</v>
       </c>
       <c r="CS19">
-        <v>-0.194155046111286</v>
+        <v>38.977337607531</v>
       </c>
       <c r="CT19">
-        <v>-0.167542591776869</v>
+        <v>21.9226354205329</v>
       </c>
       <c r="CU19">
-        <v>-0.183033547905118</v>
+        <v>22.9258531962386</v>
       </c>
       <c r="CV19">
-        <v>-0.176118797298645</v>
+        <v>39.9805553832368</v>
       </c>
       <c r="CW19">
-        <v>-0.165076744243512</v>
+        <v>39.9805553832368</v>
       </c>
       <c r="CX19">
-        <v>-0.160947364331617</v>
+        <v>22.9258531962386</v>
       </c>
       <c r="CY19">
-        <v>-0.131319253989686</v>
+        <v>23.9290709719444</v>
+      </c>
+      <c r="CZ19">
+        <v>40.9837731589426</v>
       </c>
     </row>
-    <row r="20" spans="1:103">
+    <row r="20" spans="1:104">
       <c r="A20">
-        <v>32896</v>
+        <v>33390</v>
+      </c>
+      <c r="D20">
+        <v>4.854045389982</v>
+      </c>
+      <c r="E20">
+        <v>-0.124707984884057</v>
+      </c>
+      <c r="F20">
+        <v>1.87792085650605</v>
+      </c>
+      <c r="G20">
+        <v>-0.136213938102881</v>
       </c>
       <c r="H20">
-        <v>-0.108091210590276</v>
+        <v>-0.127046739646713</v>
+      </c>
+      <c r="I20">
+        <v>-0.127507414477099</v>
       </c>
       <c r="J20">
-        <v>-0.124013373428065</v>
+        <v>-0.129642452203707</v>
       </c>
       <c r="K20">
-        <v>-0.147886715249489</v>
+        <v>-0.148128882772897</v>
+      </c>
+      <c r="L20">
+        <v>0.855088892932878</v>
       </c>
       <c r="M20">
-        <v>-0.142043633251664</v>
+        <v>1.85830666863865</v>
       </c>
       <c r="N20">
-        <v>-0.172248699455872</v>
+        <v>2.86152444434443</v>
       </c>
       <c r="O20">
-        <v>-0.172709536137439</v>
+        <v>3.8647422200502</v>
       </c>
       <c r="P20">
-        <v>-0.160209476088251</v>
+        <v>4.86795999575598</v>
       </c>
       <c r="Q20">
-        <v>-0.150878882393676</v>
+        <v>5.87117777146175</v>
       </c>
       <c r="R20">
-        <v>-0.167452307560198</v>
+        <v>6.87439554716753</v>
+      </c>
+      <c r="S20">
+        <v>7.8776133228733</v>
       </c>
       <c r="T20">
-        <v>-0.135242431139632</v>
+        <v>8.88083109857907</v>
       </c>
       <c r="U20">
-        <v>-0.131230137541353</v>
+        <v>9.88404887428485</v>
       </c>
       <c r="V20">
-        <v>-0.160692855213872</v>
+        <v>10.8872666499906</v>
+      </c>
+      <c r="W20">
+        <v>11.8904844256964</v>
       </c>
       <c r="X20">
-        <v>-0.195949609234052</v>
+        <v>12.8937022014021</v>
       </c>
       <c r="Y20">
-        <v>-0.160780470846672</v>
+        <v>13.8969199771079</v>
+      </c>
+      <c r="Z20">
+        <v>14.9001377528137</v>
+      </c>
+      <c r="AA20">
+        <v>15.9033555285195</v>
+      </c>
+      <c r="AB20">
+        <v>16.9065733042252</v>
+      </c>
+      <c r="AC20">
+        <v>-0.148128882772897</v>
+      </c>
+      <c r="AD20">
+        <v>0.855088892932878</v>
+      </c>
+      <c r="AE20">
+        <v>17.909791079931</v>
+      </c>
+      <c r="AF20">
+        <v>0.855088892932878</v>
       </c>
       <c r="AG20">
-        <v>-0.116290662026927</v>
+        <v>1.85830666863865</v>
+      </c>
+      <c r="AH20">
+        <v>18.9130088556368</v>
+      </c>
+      <c r="AI20">
+        <v>1.85830666863865</v>
+      </c>
+      <c r="AJ20">
+        <v>2.86152444434443</v>
+      </c>
+      <c r="AK20">
+        <v>19.9162266313426</v>
+      </c>
+      <c r="AL20">
+        <v>2.86152444434443</v>
       </c>
       <c r="AM20">
-        <v>-0.148554654138313</v>
+        <v>3.8647422200502</v>
       </c>
       <c r="AN20">
-        <v>-0.16244566739705</v>
+        <v>20.9194444070483</v>
+      </c>
+      <c r="AO20">
+        <v>3.8647422200502</v>
       </c>
       <c r="AP20">
-        <v>-0.219354949279612</v>
+        <v>4.86795999575598</v>
+      </c>
+      <c r="AQ20">
+        <v>21.9226621827541</v>
+      </c>
+      <c r="AR20">
+        <v>4.86795999575598</v>
       </c>
       <c r="AS20">
-        <v>-0.141500977731133</v>
+        <v>5.87117777146175</v>
+      </c>
+      <c r="AT20">
+        <v>22.9258799584599</v>
+      </c>
+      <c r="AU20">
+        <v>5.87117777146175</v>
+      </c>
+      <c r="AV20">
+        <v>6.87439554716753</v>
+      </c>
+      <c r="AW20">
+        <v>23.9290977341657</v>
+      </c>
+      <c r="AX20">
+        <v>6.87439554716753</v>
       </c>
       <c r="AY20">
-        <v>-0.181050892124372</v>
+        <v>7.8776133228733</v>
       </c>
       <c r="AZ20">
-        <v>-0.12791390972146</v>
+        <v>24.9323155098714</v>
       </c>
       <c r="BA20">
-        <v>-0.144144487234337</v>
+        <v>7.8776133228733</v>
       </c>
       <c r="BB20">
-        <v>-0.166467303590506</v>
+        <v>8.88083109857907</v>
       </c>
       <c r="BC20">
-        <v>-0.143523489857238</v>
+        <v>25.9355332855772</v>
+      </c>
+      <c r="BD20">
+        <v>8.88083109857907</v>
+      </c>
+      <c r="BE20">
+        <v>9.88404887428485</v>
       </c>
       <c r="BF20">
-        <v>-0.132718955660648</v>
+        <v>26.938751061283</v>
       </c>
       <c r="BG20">
-        <v>-0.149637510771313</v>
+        <v>9.88404887428485</v>
+      </c>
+      <c r="BH20">
+        <v>10.8872666499906</v>
       </c>
       <c r="BI20">
-        <v>-0.136042192622846</v>
+        <v>27.9419688369888</v>
+      </c>
+      <c r="BJ20">
+        <v>10.8872666499906</v>
       </c>
       <c r="BK20">
-        <v>-0.162092319937661</v>
+        <v>11.8904844256964</v>
+      </c>
+      <c r="BL20">
+        <v>28.9451866126945</v>
       </c>
       <c r="BM20">
-        <v>-0.137507411788865</v>
+        <v>11.8904844256964</v>
       </c>
       <c r="BN20">
-        <v>-0.149383486395159</v>
+        <v>12.8937022014021</v>
+      </c>
+      <c r="BO20">
+        <v>29.9484043884003</v>
       </c>
       <c r="BP20">
-        <v>-0.125544543045292</v>
+        <v>12.8937022014021</v>
+      </c>
+      <c r="BQ20">
+        <v>13.8969199771079</v>
       </c>
       <c r="BR20">
-        <v>-0.162641346384548</v>
+        <v>30.9516221641061</v>
       </c>
       <c r="BS20">
-        <v>-0.170733131782068</v>
+        <v>13.8969199771079</v>
       </c>
       <c r="BT20">
-        <v>-0.14769903144022</v>
+        <v>14.9001377528137</v>
       </c>
       <c r="BU20">
-        <v>-0.176950926602341</v>
+        <v>31.9548399398119</v>
       </c>
       <c r="BV20">
-        <v>-0.184850598913622</v>
+        <v>14.9001377528137</v>
       </c>
       <c r="BW20">
-        <v>-0.163362652177891</v>
+        <v>15.9033555285195</v>
+      </c>
+      <c r="BX20">
+        <v>32.9580577155176</v>
       </c>
       <c r="BY20">
-        <v>-0.157069285784998</v>
+        <v>15.9033555285195</v>
+      </c>
+      <c r="BZ20">
+        <v>16.9065733042252</v>
       </c>
       <c r="CA20">
-        <v>-0.132582612964771</v>
+        <v>33.9612754912234</v>
+      </c>
+      <c r="CB20">
+        <v>16.9065733042252</v>
       </c>
       <c r="CC20">
-        <v>-0.149375393253409</v>
+        <v>17.909791079931</v>
       </c>
       <c r="CD20">
-        <v>-0.152618633317881</v>
+        <v>34.9644932669292</v>
       </c>
       <c r="CE20">
-        <v>-0.222795132305317</v>
+        <v>17.909791079931</v>
       </c>
       <c r="CF20">
-        <v>-0.199260232367121</v>
+        <v>18.9130088556368</v>
+      </c>
+      <c r="CG20">
+        <v>35.967711042635</v>
       </c>
       <c r="CH20">
-        <v>-0.151329565531637</v>
+        <v>18.9130088556368</v>
       </c>
       <c r="CI20">
-        <v>-0.140413589145776</v>
+        <v>19.9162266313426</v>
+      </c>
+      <c r="CJ20">
+        <v>36.9709288183407</v>
+      </c>
+      <c r="CK20">
+        <v>36.9709288183407</v>
+      </c>
+      <c r="CL20">
+        <v>19.9162266313426</v>
       </c>
       <c r="CM20">
-        <v>-0.120955217329624</v>
+        <v>20.9194444070483</v>
+      </c>
+      <c r="CN20">
+        <v>37.9741465940465</v>
       </c>
       <c r="CO20">
-        <v>-0.181495329473359</v>
+        <v>37.9741465940465</v>
       </c>
       <c r="CP20">
-        <v>-0.144143317850461</v>
+        <v>20.9194444070483</v>
       </c>
       <c r="CQ20">
-        <v>-0.110793229705208</v>
+        <v>21.9226621827541</v>
       </c>
       <c r="CR20">
-        <v>-0.165862311160095</v>
+        <v>38.9773643697523</v>
       </c>
       <c r="CS20">
-        <v>-0.191806380135055</v>
+        <v>38.9773643697523</v>
       </c>
       <c r="CT20">
-        <v>-0.166151674746755</v>
+        <v>21.9226621827541</v>
       </c>
       <c r="CU20">
-        <v>-0.181240372798662</v>
+        <v>22.9258799584599</v>
       </c>
       <c r="CV20">
-        <v>-0.17393129811263</v>
+        <v>39.9805821454581</v>
       </c>
       <c r="CW20">
-        <v>-0.163637604849191</v>
+        <v>39.9805821454581</v>
       </c>
       <c r="CX20">
-        <v>-0.159993448531386</v>
+        <v>22.9258799584599</v>
       </c>
       <c r="CY20">
-        <v>-0.132100482882714</v>
+        <v>23.9290977341657</v>
+      </c>
+      <c r="CZ20">
+        <v>40.9837999211638</v>
       </c>
     </row>
-    <row r="21" spans="1:103">
+    <row r="21" spans="1:104">
       <c r="A21">
-        <v>32897</v>
+        <v>33420</v>
+      </c>
+      <c r="D21">
+        <v>4.85404843731725</v>
+      </c>
+      <c r="E21">
+        <v>-0.124721400091214</v>
+      </c>
+      <c r="F21">
+        <v>1.87784194823195</v>
+      </c>
+      <c r="G21">
+        <v>-0.136218215408383</v>
       </c>
       <c r="H21">
-        <v>-0.107394532585823</v>
+        <v>-0.127049939985081</v>
+      </c>
+      <c r="I21">
+        <v>-0.127509965902365</v>
       </c>
       <c r="J21">
-        <v>-0.122702937991996</v>
+        <v>-0.129655045831375</v>
       </c>
       <c r="K21">
-        <v>-0.147928604342738</v>
+        <v>-0.148148890680208</v>
+      </c>
+      <c r="L21">
+        <v>0.855068885025566</v>
       </c>
       <c r="M21">
-        <v>-0.142754404592573</v>
+        <v>1.85828666073134</v>
       </c>
       <c r="N21">
-        <v>-0.173828549131705</v>
+        <v>2.86150443643712</v>
       </c>
       <c r="O21">
-        <v>-0.174117952481438</v>
+        <v>3.86472221214289</v>
       </c>
       <c r="P21">
-        <v>-0.161500937461615</v>
+        <v>4.86793998784866</v>
       </c>
       <c r="Q21">
-        <v>-0.151853441626892</v>
+        <v>5.87115776355444</v>
       </c>
       <c r="R21">
-        <v>-0.169106040994485</v>
+        <v>6.87437553926021</v>
+      </c>
+      <c r="S21">
+        <v>7.87759331496599</v>
       </c>
       <c r="T21">
-        <v>-0.136129329068563</v>
+        <v>8.88081109067176</v>
       </c>
       <c r="U21">
-        <v>-0.130706581652072</v>
+        <v>9.88402886637754</v>
       </c>
       <c r="V21">
-        <v>-0.161233985494087</v>
+        <v>10.8872466420833</v>
+      </c>
+      <c r="W21">
+        <v>11.8904644177891</v>
       </c>
       <c r="X21">
-        <v>-0.198182867395556</v>
+        <v>12.8936821934948</v>
       </c>
       <c r="Y21">
-        <v>-0.160668060685306</v>
+        <v>13.8968999692006</v>
+      </c>
+      <c r="Z21">
+        <v>14.9001177449064</v>
+      </c>
+      <c r="AA21">
+        <v>15.9033355206122</v>
+      </c>
+      <c r="AB21">
+        <v>16.9065532963179</v>
+      </c>
+      <c r="AC21">
+        <v>-0.148148890680208</v>
+      </c>
+      <c r="AD21">
+        <v>0.855068885025566</v>
+      </c>
+      <c r="AE21">
+        <v>17.9097710720237</v>
+      </c>
+      <c r="AF21">
+        <v>0.855068885025566</v>
       </c>
       <c r="AG21">
-        <v>-0.115652078424094</v>
+        <v>1.85828666073134</v>
+      </c>
+      <c r="AH21">
+        <v>18.9129888477295</v>
+      </c>
+      <c r="AI21">
+        <v>1.85828666073134</v>
+      </c>
+      <c r="AJ21">
+        <v>2.86150443643712</v>
+      </c>
+      <c r="AK21">
+        <v>19.9162066234353</v>
+      </c>
+      <c r="AL21">
+        <v>2.86150443643712</v>
       </c>
       <c r="AM21">
-        <v>-0.149582963734606</v>
+        <v>3.86472221214289</v>
       </c>
       <c r="AN21">
-        <v>-0.163378059824975</v>
+        <v>20.919424399141</v>
+      </c>
+      <c r="AO21">
+        <v>3.86472221214289</v>
       </c>
       <c r="AP21">
-        <v>-0.222434974036812</v>
+        <v>4.86793998784866</v>
+      </c>
+      <c r="AQ21">
+        <v>21.9226421748468</v>
+      </c>
+      <c r="AR21">
+        <v>4.86793998784866</v>
       </c>
       <c r="AS21">
-        <v>-0.141943955438014</v>
+        <v>5.87115776355444</v>
+      </c>
+      <c r="AT21">
+        <v>22.9258599505526</v>
+      </c>
+      <c r="AU21">
+        <v>5.87115776355444</v>
+      </c>
+      <c r="AV21">
+        <v>6.87437553926021</v>
+      </c>
+      <c r="AW21">
+        <v>23.9290777262583</v>
+      </c>
+      <c r="AX21">
+        <v>6.87437553926021</v>
       </c>
       <c r="AY21">
-        <v>-0.182292484269145</v>
+        <v>7.87759331496599</v>
       </c>
       <c r="AZ21">
-        <v>-0.127800741978967</v>
+        <v>24.9322955019641</v>
       </c>
       <c r="BA21">
-        <v>-0.145165546384851</v>
+        <v>7.87759331496599</v>
       </c>
       <c r="BB21">
-        <v>-0.167289771228585</v>
+        <v>8.88081109067176</v>
       </c>
       <c r="BC21">
-        <v>-0.144507509051351</v>
+        <v>25.9355132776699</v>
+      </c>
+      <c r="BD21">
+        <v>8.88081109067176</v>
+      </c>
+      <c r="BE21">
+        <v>9.88402886637754</v>
       </c>
       <c r="BF21">
-        <v>-0.133062528779603</v>
+        <v>26.9387310533757</v>
       </c>
       <c r="BG21">
-        <v>-0.14940686624913</v>
+        <v>9.88402886637754</v>
+      </c>
+      <c r="BH21">
+        <v>10.8872466420833</v>
       </c>
       <c r="BI21">
-        <v>-0.136587608300225</v>
+        <v>27.9419488290814</v>
+      </c>
+      <c r="BJ21">
+        <v>10.8872466420833</v>
       </c>
       <c r="BK21">
-        <v>-0.162306559778085</v>
+        <v>11.8904644177891</v>
+      </c>
+      <c r="BL21">
+        <v>28.9451666047872</v>
       </c>
       <c r="BM21">
-        <v>-0.137463415723215</v>
+        <v>11.8904644177891</v>
       </c>
       <c r="BN21">
-        <v>-0.149246344080749</v>
+        <v>12.8936821934948</v>
+      </c>
+      <c r="BO21">
+        <v>29.948384380493</v>
       </c>
       <c r="BP21">
-        <v>-0.125930327899619</v>
+        <v>12.8936821934948</v>
+      </c>
+      <c r="BQ21">
+        <v>13.8968999692006</v>
       </c>
       <c r="BR21">
-        <v>-0.163446374181531</v>
+        <v>30.9516021561988</v>
       </c>
       <c r="BS21">
-        <v>-0.171494817404911</v>
+        <v>13.8968999692006</v>
       </c>
       <c r="BT21">
-        <v>-0.147732069519594</v>
+        <v>14.9001177449064</v>
       </c>
       <c r="BU21">
-        <v>-0.1779655542207</v>
+        <v>31.9548199319045</v>
       </c>
       <c r="BV21">
-        <v>-0.186264161694569</v>
+        <v>14.9001177449064</v>
       </c>
       <c r="BW21">
-        <v>-0.16467818323101</v>
+        <v>15.9033355206122</v>
+      </c>
+      <c r="BX21">
+        <v>32.9580377076103</v>
       </c>
       <c r="BY21">
-        <v>-0.158026406198375</v>
+        <v>15.9033355206122</v>
+      </c>
+      <c r="BZ21">
+        <v>16.9065532963179</v>
       </c>
       <c r="CA21">
-        <v>-0.132502108929607</v>
+        <v>33.9612554833161</v>
+      </c>
+      <c r="CB21">
+        <v>16.9065532963179</v>
       </c>
       <c r="CC21">
-        <v>-0.149241387551604</v>
+        <v>17.9097710720237</v>
       </c>
       <c r="CD21">
-        <v>-0.153715297907288</v>
+        <v>34.9644732590219</v>
       </c>
       <c r="CE21">
-        <v>-0.225140972208122</v>
+        <v>17.9097710720237</v>
       </c>
       <c r="CF21">
-        <v>-0.201970089928942</v>
+        <v>18.9129888477295</v>
+      </c>
+      <c r="CG21">
+        <v>35.9676910347276</v>
       </c>
       <c r="CH21">
-        <v>-0.151297294795413</v>
+        <v>18.9129888477295</v>
       </c>
       <c r="CI21">
-        <v>-0.140714066527615</v>
+        <v>19.9162066234353</v>
+      </c>
+      <c r="CJ21">
+        <v>36.9709088104334</v>
+      </c>
+      <c r="CK21">
+        <v>36.9709088104334</v>
+      </c>
+      <c r="CL21">
+        <v>19.9162066234353</v>
       </c>
       <c r="CM21">
-        <v>-0.121965287285901</v>
+        <v>20.919424399141</v>
+      </c>
+      <c r="CN21">
+        <v>37.9741265861392</v>
       </c>
       <c r="CO21">
-        <v>-0.183509263663303</v>
+        <v>37.9741265861392</v>
       </c>
       <c r="CP21">
-        <v>-0.145120129909592</v>
+        <v>20.919424399141</v>
       </c>
       <c r="CQ21">
-        <v>-0.110068283663728</v>
+        <v>21.9226421748468</v>
       </c>
       <c r="CR21">
-        <v>-0.165807651705392</v>
+        <v>38.977344361845</v>
       </c>
       <c r="CS21">
-        <v>-0.193562284129004</v>
+        <v>38.977344361845</v>
       </c>
       <c r="CT21">
-        <v>-0.167191548782972</v>
+        <v>21.9226421748468</v>
       </c>
       <c r="CU21">
-        <v>-0.182580982047973</v>
+        <v>22.9258599505526</v>
       </c>
       <c r="CV21">
-        <v>-0.17556671097949</v>
+        <v>39.9805621375507</v>
       </c>
       <c r="CW21">
-        <v>-0.164713530773061</v>
+        <v>39.9805621375507</v>
       </c>
       <c r="CX21">
-        <v>-0.160706612761834</v>
+        <v>22.9258599505526</v>
       </c>
       <c r="CY21">
-        <v>-0.13151642242144</v>
+        <v>23.9290777262583</v>
+      </c>
+      <c r="CZ21">
+        <v>40.9837799132565</v>
       </c>
     </row>
-    <row r="22" spans="1:103">
+    <row r="22" spans="1:104">
       <c r="A22">
-        <v>32898</v>
+        <v>33451</v>
+      </c>
+      <c r="D22">
+        <v>4.85404588434142</v>
+      </c>
+      <c r="E22">
+        <v>-0.12471016119008</v>
+      </c>
+      <c r="F22">
+        <v>1.87790805546987</v>
+      </c>
+      <c r="G22">
+        <v>-0.136214631996431</v>
       </c>
       <c r="H22">
-        <v>-0.107978190752446</v>
+        <v>-0.12704725882734</v>
+      </c>
+      <c r="I22">
+        <v>-0.127507828386636</v>
       </c>
       <c r="J22">
-        <v>-0.123800785690939</v>
+        <v>-0.129644495227525</v>
       </c>
       <c r="K22">
-        <v>-0.147893510782713</v>
+        <v>-0.148132128591518</v>
+      </c>
+      <c r="L22">
+        <v>0.855085647114257</v>
       </c>
       <c r="M22">
-        <v>-0.142158939406259</v>
+        <v>1.85830342282003</v>
       </c>
       <c r="N22">
-        <v>-0.172504993400877</v>
+        <v>2.86152119852581</v>
       </c>
       <c r="O22">
-        <v>-0.172938019002951</v>
+        <v>3.86473897423158</v>
       </c>
       <c r="P22">
-        <v>-0.16041898572405</v>
+        <v>4.86795674993736</v>
       </c>
       <c r="Q22">
-        <v>-0.15103698201185</v>
+        <v>5.87117452564313</v>
       </c>
       <c r="R22">
-        <v>-0.16772058743033</v>
+        <v>6.8743923013489</v>
+      </c>
+      <c r="S22">
+        <v>7.87761007705468</v>
       </c>
       <c r="T22">
-        <v>-0.135386309745616</v>
+        <v>8.88082785276045</v>
       </c>
       <c r="U22">
-        <v>-0.131145202748919</v>
+        <v>9.88404562846623</v>
       </c>
       <c r="V22">
-        <v>-0.160780641043372</v>
+        <v>10.887263404172</v>
+      </c>
+      <c r="W22">
+        <v>11.8904811798777</v>
       </c>
       <c r="X22">
-        <v>-0.196311903541657</v>
+        <v>12.8936989555835</v>
       </c>
       <c r="Y22">
-        <v>-0.160762234906788</v>
+        <v>13.8969167312893</v>
+      </c>
+      <c r="Z22">
+        <v>14.9001345069951</v>
+      </c>
+      <c r="AA22">
+        <v>15.9033522827008</v>
+      </c>
+      <c r="AB22">
+        <v>16.9065700584066</v>
+      </c>
+      <c r="AC22">
+        <v>-0.148132128591518</v>
+      </c>
+      <c r="AD22">
+        <v>0.855085647114257</v>
+      </c>
+      <c r="AE22">
+        <v>17.9097878341124</v>
+      </c>
+      <c r="AF22">
+        <v>0.855085647114257</v>
       </c>
       <c r="AG22">
-        <v>-0.116187066657514</v>
+        <v>1.85830342282003</v>
+      </c>
+      <c r="AH22">
+        <v>18.9130056098182</v>
+      </c>
+      <c r="AI22">
+        <v>1.85830342282003</v>
+      </c>
+      <c r="AJ22">
+        <v>2.86152119852581</v>
+      </c>
+      <c r="AK22">
+        <v>19.9162233855239</v>
+      </c>
+      <c r="AL22">
+        <v>2.86152119852581</v>
       </c>
       <c r="AM22">
-        <v>-0.148721473505466</v>
+        <v>3.86473897423158</v>
       </c>
       <c r="AN22">
-        <v>-0.162596926429666</v>
+        <v>20.9194411612297</v>
+      </c>
+      <c r="AO22">
+        <v>3.86473897423158</v>
       </c>
       <c r="AP22">
-        <v>-0.219854611815745</v>
+        <v>4.86795674993736</v>
+      </c>
+      <c r="AQ22">
+        <v>21.9226589369355</v>
+      </c>
+      <c r="AR22">
+        <v>4.86795674993736</v>
       </c>
       <c r="AS22">
-        <v>-0.141572840583518</v>
+        <v>5.87117452564313</v>
+      </c>
+      <c r="AT22">
+        <v>22.9258767126413</v>
+      </c>
+      <c r="AU22">
+        <v>5.87117452564313</v>
+      </c>
+      <c r="AV22">
+        <v>6.8743923013489</v>
+      </c>
+      <c r="AW22">
+        <v>23.929094488347</v>
+      </c>
+      <c r="AX22">
+        <v>6.8743923013489</v>
       </c>
       <c r="AY22">
-        <v>-0.181252311635189</v>
+        <v>7.87761007705468</v>
       </c>
       <c r="AZ22">
-        <v>-0.12789555088162</v>
+        <v>24.9323122640528</v>
       </c>
       <c r="BA22">
-        <v>-0.14431013038493</v>
+        <v>7.87761007705468</v>
       </c>
       <c r="BB22">
-        <v>-0.166600729877086</v>
+        <v>8.88082785276045</v>
       </c>
       <c r="BC22">
-        <v>-0.143683124134523</v>
+        <v>25.9355300397586</v>
+      </c>
+      <c r="BD22">
+        <v>8.88082785276045</v>
+      </c>
+      <c r="BE22">
+        <v>9.88404562846623</v>
       </c>
       <c r="BF22">
-        <v>-0.132774692425609</v>
+        <v>26.9387478154644</v>
       </c>
       <c r="BG22">
-        <v>-0.14960009405035</v>
+        <v>9.88404562846623</v>
+      </c>
+      <c r="BH22">
+        <v>10.887263404172</v>
       </c>
       <c r="BI22">
-        <v>-0.136130673658581</v>
+        <v>27.9419655911701</v>
+      </c>
+      <c r="BJ22">
+        <v>10.887263404172</v>
       </c>
       <c r="BK22">
-        <v>-0.162127075379726</v>
+        <v>11.8904811798777</v>
+      </c>
+      <c r="BL22">
+        <v>28.9451833668759</v>
       </c>
       <c r="BM22">
-        <v>-0.137500274448267</v>
+        <v>11.8904811798777</v>
       </c>
       <c r="BN22">
-        <v>-0.149361238237423</v>
+        <v>12.8936989555835</v>
+      </c>
+      <c r="BO22">
+        <v>29.9484011425817</v>
       </c>
       <c r="BP22">
-        <v>-0.125607127684673</v>
+        <v>12.8936989555835</v>
+      </c>
+      <c r="BQ22">
+        <v>13.8969167312893</v>
       </c>
       <c r="BR22">
-        <v>-0.162771943461652</v>
+        <v>30.9516189182875</v>
       </c>
       <c r="BS22">
-        <v>-0.170856697597296</v>
+        <v>13.8969167312893</v>
       </c>
       <c r="BT22">
-        <v>-0.147704391101856</v>
+        <v>14.9001345069951</v>
       </c>
       <c r="BU22">
-        <v>-0.177115526386104</v>
+        <v>31.9548366939932</v>
       </c>
       <c r="BV22">
-        <v>-0.185079916669091</v>
+        <v>14.9001345069951</v>
       </c>
       <c r="BW22">
-        <v>-0.163576066560625</v>
+        <v>15.9033522827008</v>
+      </c>
+      <c r="BX22">
+        <v>32.958054469699</v>
       </c>
       <c r="BY22">
-        <v>-0.157224556359371</v>
+        <v>15.9033522827008</v>
+      </c>
+      <c r="BZ22">
+        <v>16.9065700584066</v>
       </c>
       <c r="CA22">
-        <v>-0.132569553053391</v>
+        <v>33.9612722454048</v>
+      </c>
+      <c r="CB22">
+        <v>16.9065700584066</v>
       </c>
       <c r="CC22">
-        <v>-0.149353653938274</v>
+        <v>17.9097878341124</v>
       </c>
       <c r="CD22">
-        <v>-0.152796541696296</v>
+        <v>34.9644900211106</v>
       </c>
       <c r="CE22">
-        <v>-0.223175690387669</v>
+        <v>17.9097878341124</v>
       </c>
       <c r="CF22">
-        <v>-0.199699843866585</v>
+        <v>18.9130056098182</v>
+      </c>
+      <c r="CG22">
+        <v>35.9677077968163</v>
       </c>
       <c r="CH22">
-        <v>-0.151324330353619</v>
+        <v>18.9130056098182</v>
       </c>
       <c r="CI22">
-        <v>-0.140462334627548</v>
+        <v>19.9162233855239</v>
+      </c>
+      <c r="CJ22">
+        <v>36.9709255725221</v>
+      </c>
+      <c r="CK22">
+        <v>36.9709255725221</v>
+      </c>
+      <c r="CL22">
+        <v>19.9162233855239</v>
       </c>
       <c r="CM22">
-        <v>-0.121119077738487</v>
+        <v>20.9194411612297</v>
+      </c>
+      <c r="CN22">
+        <v>37.9741433482279</v>
       </c>
       <c r="CO22">
-        <v>-0.181822043556614</v>
+        <v>37.9741433482279</v>
       </c>
       <c r="CP22">
-        <v>-0.144301782937357</v>
+        <v>20.9194411612297</v>
       </c>
       <c r="CQ22">
-        <v>-0.11067562403441</v>
+        <v>21.9226589369355</v>
       </c>
       <c r="CR22">
-        <v>-0.165853443932098</v>
+        <v>38.9773611239337</v>
       </c>
       <c r="CS22">
-        <v>-0.192091234807334</v>
+        <v>38.9773611239337</v>
       </c>
       <c r="CT22">
-        <v>-0.166320370175901</v>
+        <v>21.9226589369355</v>
       </c>
       <c r="CU22">
-        <v>-0.181457855536717</v>
+        <v>22.9258767126413</v>
       </c>
       <c r="CV22">
-        <v>-0.174196605895877</v>
+        <v>39.9805788996394</v>
       </c>
       <c r="CW22">
-        <v>-0.163812148860422</v>
+        <v>39.9805788996394</v>
       </c>
       <c r="CX22">
-        <v>-0.160109142876775</v>
+        <v>22.9258767126413</v>
       </c>
       <c r="CY22">
-        <v>-0.132005732627654</v>
+        <v>23.929094488347</v>
+      </c>
+      <c r="CZ22">
+        <v>40.9837966753452</v>
       </c>
     </row>
-    <row r="23" spans="1:103">
+    <row r="23" spans="1:104">
       <c r="A23">
-        <v>32899</v>
+        <v>33482</v>
+      </c>
+      <c r="D23">
+        <v>4.85404195865766</v>
+      </c>
+      <c r="E23">
+        <v>-0.124692879251425</v>
+      </c>
+      <c r="F23">
+        <v>1.87800970786602</v>
+      </c>
+      <c r="G23">
+        <v>-0.136209121822013</v>
       </c>
       <c r="H23">
-        <v>-0.108875675703217</v>
+        <v>-0.127043136039618</v>
+      </c>
+      <c r="I23">
+        <v>-0.127504541551449</v>
       </c>
       <c r="J23">
-        <v>-0.125488934412891</v>
+        <v>-0.12962827167628</v>
       </c>
       <c r="K23">
-        <v>-0.147839547788973</v>
+        <v>-0.148106353706141</v>
+      </c>
+      <c r="L23">
+        <v>0.855111421999633</v>
       </c>
       <c r="M23">
-        <v>-0.141243298926972</v>
+        <v>1.85832919770541</v>
       </c>
       <c r="N23">
-        <v>-0.170469775840572</v>
+        <v>2.86154697341118</v>
       </c>
       <c r="O23">
-        <v>-0.171123647851458</v>
+        <v>3.86476474911696</v>
       </c>
       <c r="P23">
-        <v>-0.158755280052723</v>
+        <v>4.86798252482273</v>
       </c>
       <c r="Q23">
-        <v>-0.149781520751617</v>
+        <v>5.87120030052851</v>
       </c>
       <c r="R23">
-        <v>-0.165590190230513</v>
+        <v>6.87441807623428</v>
+      </c>
+      <c r="S23">
+        <v>7.87763585194005</v>
       </c>
       <c r="T23">
-        <v>-0.13424377684089</v>
+        <v>8.88085362764583</v>
       </c>
       <c r="U23">
-        <v>-0.131819665741169</v>
+        <v>9.8840714033516</v>
       </c>
       <c r="V23">
-        <v>-0.160083538106585</v>
+        <v>10.8872891790574</v>
+      </c>
+      <c r="W23">
+        <v>11.8905069547631</v>
       </c>
       <c r="X23">
-        <v>-0.193434942336728</v>
+        <v>12.8937247304689</v>
       </c>
       <c r="Y23">
-        <v>-0.160907045604837</v>
+        <v>13.8969425061747</v>
+      </c>
+      <c r="Z23">
+        <v>14.9001602818804</v>
+      </c>
+      <c r="AA23">
+        <v>15.9033780575862</v>
+      </c>
+      <c r="AB23">
+        <v>16.906595833292</v>
+      </c>
+      <c r="AC23">
+        <v>-0.148106353706141</v>
+      </c>
+      <c r="AD23">
+        <v>0.855111421999633</v>
+      </c>
+      <c r="AE23">
+        <v>17.9098136089978</v>
+      </c>
+      <c r="AF23">
+        <v>0.855111421999633</v>
       </c>
       <c r="AG23">
-        <v>-0.117009712370008</v>
+        <v>1.85832919770541</v>
+      </c>
+      <c r="AH23">
+        <v>18.9130313847035</v>
+      </c>
+      <c r="AI23">
+        <v>1.85832919770541</v>
+      </c>
+      <c r="AJ23">
+        <v>2.86154697341118</v>
+      </c>
+      <c r="AK23">
+        <v>19.9162491604093</v>
+      </c>
+      <c r="AL23">
+        <v>2.86154697341118</v>
       </c>
       <c r="AM23">
-        <v>-0.147396769149209</v>
+        <v>3.86476474911696</v>
       </c>
       <c r="AN23">
-        <v>-0.16139578592153</v>
+        <v>20.9194669361151</v>
+      </c>
+      <c r="AO23">
+        <v>3.86476474911696</v>
       </c>
       <c r="AP23">
-        <v>-0.215886816291955</v>
+        <v>4.86798252482273</v>
+      </c>
+      <c r="AQ23">
+        <v>21.9226847118209</v>
+      </c>
+      <c r="AR23">
+        <v>4.86798252482273</v>
       </c>
       <c r="AS23">
-        <v>-0.141002181221644</v>
+        <v>5.87120030052851</v>
+      </c>
+      <c r="AT23">
+        <v>22.9259024875266</v>
+      </c>
+      <c r="AU23">
+        <v>5.87120030052851</v>
+      </c>
+      <c r="AV23">
+        <v>6.87441807623428</v>
+      </c>
+      <c r="AW23">
+        <v>23.9291202632324</v>
+      </c>
+      <c r="AX23">
+        <v>6.87441807623428</v>
       </c>
       <c r="AY23">
-        <v>-0.179652849246814</v>
+        <v>7.87763585194005</v>
       </c>
       <c r="AZ23">
-        <v>-0.128041337522151</v>
+        <v>24.9323380389382</v>
       </c>
       <c r="BA23">
-        <v>-0.142994766306294</v>
+        <v>7.87763585194005</v>
       </c>
       <c r="BB23">
-        <v>-0.165541198324555</v>
+        <v>8.88085362764583</v>
       </c>
       <c r="BC23">
-        <v>-0.142415476222084</v>
+        <v>25.935555814644</v>
+      </c>
+      <c r="BD23">
+        <v>8.88085362764583</v>
+      </c>
+      <c r="BE23">
+        <v>9.8840714033516</v>
       </c>
       <c r="BF23">
-        <v>-0.132332089527597</v>
+        <v>26.9387735903497</v>
       </c>
       <c r="BG23">
-        <v>-0.149897218383705</v>
+        <v>9.8840714033516</v>
+      </c>
+      <c r="BH23">
+        <v>10.8872891790574</v>
       </c>
       <c r="BI23">
-        <v>-0.135428050123411</v>
+        <v>27.9419913660555</v>
+      </c>
+      <c r="BJ23">
+        <v>10.8872891790574</v>
       </c>
       <c r="BK23">
-        <v>-0.161851084130672</v>
+        <v>11.8905069547631</v>
+      </c>
+      <c r="BL23">
+        <v>28.9452091417613</v>
       </c>
       <c r="BM23">
-        <v>-0.13755695171748</v>
+        <v>11.8905069547631</v>
       </c>
       <c r="BN23">
-        <v>-0.149537909759289</v>
+        <v>12.8937247304689</v>
+      </c>
+      <c r="BO23">
+        <v>29.9484269174671</v>
       </c>
       <c r="BP23">
-        <v>-0.125110146154065</v>
+        <v>12.8937247304689</v>
+      </c>
+      <c r="BQ23">
+        <v>13.8969425061747</v>
       </c>
       <c r="BR23">
-        <v>-0.161734878521856</v>
+        <v>30.9516446931728</v>
       </c>
       <c r="BS23">
-        <v>-0.169875467560822</v>
+        <v>13.8969425061747</v>
       </c>
       <c r="BT23">
-        <v>-0.147661830293489</v>
+        <v>14.9001602818804</v>
       </c>
       <c r="BU23">
-        <v>-0.17580844763194</v>
+        <v>31.9548624688786</v>
       </c>
       <c r="BV23">
-        <v>-0.183258915697678</v>
+        <v>14.9001602818804</v>
       </c>
       <c r="BW23">
-        <v>-0.161881353486722</v>
+        <v>15.9033780575862</v>
+      </c>
+      <c r="BX23">
+        <v>32.9580802445844</v>
       </c>
       <c r="BY23">
-        <v>-0.155991560396254</v>
+        <v>15.9033780575862</v>
+      </c>
+      <c r="BZ23">
+        <v>16.906595833292</v>
       </c>
       <c r="CA23">
-        <v>-0.132673261164705</v>
+        <v>33.9612980202902</v>
+      </c>
+      <c r="CB23">
+        <v>16.906595833292</v>
       </c>
       <c r="CC23">
-        <v>-0.149526284766173</v>
+        <v>17.9098136089978</v>
       </c>
       <c r="CD23">
-        <v>-0.151383780049242</v>
+        <v>34.9645157959959</v>
       </c>
       <c r="CE23">
-        <v>-0.220153697449424</v>
+        <v>17.9098136089978</v>
       </c>
       <c r="CF23">
-        <v>-0.196208910659386</v>
+        <v>18.9130313847035</v>
+      </c>
+      <c r="CG23">
+        <v>35.9677335717017</v>
       </c>
       <c r="CH23">
-        <v>-0.151365902643724</v>
+        <v>18.9130313847035</v>
       </c>
       <c r="CI23">
-        <v>-0.140075249164071</v>
+        <v>19.9162491604093</v>
+      </c>
+      <c r="CJ23">
+        <v>36.9709513474075</v>
+      </c>
+      <c r="CK23">
+        <v>36.9709513474075</v>
+      </c>
+      <c r="CL23">
+        <v>19.9162491604093</v>
       </c>
       <c r="CM23">
-        <v>-0.119817870323884</v>
+        <v>20.9194669361151</v>
+      </c>
+      <c r="CN23">
+        <v>37.9741691231133</v>
       </c>
       <c r="CO23">
-        <v>-0.179227623156132</v>
+        <v>37.9741691231133</v>
       </c>
       <c r="CP23">
-        <v>-0.143043419508055</v>
+        <v>20.9194669361151</v>
       </c>
       <c r="CQ23">
-        <v>-0.111609524858308</v>
+        <v>21.9226847118209</v>
       </c>
       <c r="CR23">
-        <v>-0.165923858151722</v>
+        <v>38.977386898819</v>
       </c>
       <c r="CS23">
-        <v>-0.189829217922207</v>
+        <v>38.977386898819</v>
       </c>
       <c r="CT23">
-        <v>-0.164980768104014</v>
+        <v>21.9226847118209</v>
       </c>
       <c r="CU23">
-        <v>-0.179730835854121</v>
+        <v>22.9259024875266</v>
       </c>
       <c r="CV23">
-        <v>-0.172089809891232</v>
+        <v>39.9806046745248</v>
       </c>
       <c r="CW23">
-        <v>-0.162426103487027</v>
+        <v>39.9806046745248</v>
       </c>
       <c r="CX23">
-        <v>-0.159190419793565</v>
+        <v>22.9259024875266</v>
       </c>
       <c r="CY23">
-        <v>-0.13275813972388</v>
+        <v>23.9291202632324</v>
+      </c>
+      <c r="CZ23">
+        <v>40.9838224502306</v>
       </c>
     </row>
-    <row r="26" spans="1:103">
+    <row r="26" spans="1:104">
       <c r="A26" t="s">
         <v>201</v>
       </c>
+      <c r="D26">
+        <v>-0.00216919255855822</v>
+      </c>
+      <c r="E26">
+        <v>-0.00437466745534304</v>
+      </c>
+      <c r="F26">
+        <v>-0.026076862814557</v>
+      </c>
+      <c r="G26">
+        <v>-0.0044969272651595</v>
+      </c>
       <c r="H26">
-        <v>-0.0207124169011228</v>
+        <v>-0.00451755330628614</v>
+      </c>
+      <c r="I26">
+        <v>-0.0045258384722368</v>
       </c>
       <c r="J26">
-        <v>-0.0307852009583398</v>
+        <v>-0.000214581526277556</v>
       </c>
       <c r="K26">
-        <v>-0.00271210942134173</v>
+        <v>-0.0024613438794197</v>
+      </c>
+      <c r="L26">
+        <v>-0.00567911958519397</v>
       </c>
       <c r="M26">
-        <v>0.0140000291653014</v>
+        <v>-0.00889689529096827</v>
       </c>
       <c r="N26">
-        <v>0.0336172029905725</v>
+        <v>-0.0121146709967426</v>
       </c>
       <c r="O26">
-        <v>0.0314469267513139</v>
+        <v>-0.0153324467025168</v>
       </c>
       <c r="P26">
-        <v>0.0281389723539095</v>
+        <v>-0.0185502224082913</v>
       </c>
       <c r="Q26">
-        <v>0.0184636875718715</v>
+        <v>-0.0217679981140656</v>
       </c>
       <c r="R26">
-        <v>0.036950402456141</v>
+        <v>-0.0249857738198399</v>
+      </c>
+      <c r="S26">
+        <v>-0.0282035495256138</v>
       </c>
       <c r="T26">
-        <v>0.0178248330625987</v>
+        <v>-0.031421325231388</v>
       </c>
       <c r="U26">
-        <v>-0.0154473933889127</v>
+        <v>-0.0346391009371611</v>
       </c>
       <c r="V26">
-        <v>0.00985273641072427</v>
+        <v>-0.0378568766429386</v>
+      </c>
+      <c r="W26">
+        <v>-0.041074652348713</v>
       </c>
       <c r="X26">
-        <v>0.0521376381850935</v>
+        <v>-0.0442924280544875</v>
       </c>
       <c r="Y26">
-        <v>-0.00541695050273605</v>
+        <v>-0.047510203760262</v>
+      </c>
+      <c r="Z26">
+        <v>-0.0507279794660364</v>
+      </c>
+      <c r="AA26">
+        <v>-0.0539457551718107</v>
+      </c>
+      <c r="AB26">
+        <v>-0.0571635308775851</v>
+      </c>
+      <c r="AC26">
+        <v>-0.0024613438794197</v>
+      </c>
+      <c r="AD26">
+        <v>-0.00567911958519397</v>
+      </c>
+      <c r="AE26">
+        <v>-0.0603813065833595</v>
+      </c>
+      <c r="AF26">
+        <v>-0.00567911958519397</v>
       </c>
       <c r="AG26">
-        <v>-0.0192723444216481</v>
+        <v>-0.00889689529096827</v>
+      </c>
+      <c r="AH26">
+        <v>-0.0635990822891339</v>
+      </c>
+      <c r="AI26">
+        <v>-0.00889689529096827</v>
+      </c>
+      <c r="AJ26">
+        <v>-0.0121146709967426</v>
+      </c>
+      <c r="AK26">
+        <v>-0.0668168579949084</v>
+      </c>
+      <c r="AL26">
+        <v>-0.0121146709967426</v>
       </c>
       <c r="AM26">
-        <v>0.0215951924271401</v>
+        <v>-0.0153324467025168</v>
       </c>
       <c r="AN26">
-        <v>0.019486795495651</v>
+        <v>-0.0700346337006828</v>
+      </c>
+      <c r="AO26">
+        <v>-0.0153324467025168</v>
       </c>
       <c r="AP26">
-        <v>0.0724551098727168</v>
+        <v>-0.0185502224082913</v>
+      </c>
+      <c r="AQ26">
+        <v>-0.0732524094064572</v>
+      </c>
+      <c r="AR26">
+        <v>-0.0185502224082913</v>
       </c>
       <c r="AS26">
-        <v>0.00688413588315304</v>
+        <v>-0.0217679981140656</v>
+      </c>
+      <c r="AT26">
+        <v>-0.0764701851122317</v>
+      </c>
+      <c r="AU26">
+        <v>-0.0217679981140656</v>
+      </c>
+      <c r="AV26">
+        <v>-0.0249857738198399</v>
+      </c>
+      <c r="AW26">
+        <v>-0.079687960818006</v>
+      </c>
+      <c r="AX26">
+        <v>-0.0249857738198399</v>
       </c>
       <c r="AY26">
-        <v>0.0263394534578826</v>
+        <v>-0.0282035495256138</v>
       </c>
       <c r="AZ26">
-        <v>-0.00781048942167257</v>
+        <v>-0.0829057365237805</v>
       </c>
       <c r="BA26">
-        <v>0.0209519941534997</v>
+        <v>-0.0282035495256138</v>
       </c>
       <c r="BB26">
-        <v>0.0160348202387103</v>
+        <v>-0.031421325231388</v>
       </c>
       <c r="BC26">
-        <v>0.0200737946172374</v>
+        <v>-0.0861235122295549</v>
+      </c>
+      <c r="BD26">
+        <v>-0.031421325231388</v>
+      </c>
+      <c r="BE26">
+        <v>-0.0346391009371611</v>
       </c>
       <c r="BF26">
-        <v>0.00547131802205689</v>
+        <v>-0.0893412879353293</v>
       </c>
       <c r="BG26">
-        <v>-0.0106656951197712</v>
+        <v>-0.0346391009371611</v>
+      </c>
+      <c r="BH26">
+        <v>-0.0378568766429386</v>
       </c>
       <c r="BI26">
-        <v>0.0116439444956061</v>
+        <v>-0.0925590636411038</v>
+      </c>
+      <c r="BJ26">
+        <v>-0.0378568766429386</v>
       </c>
       <c r="BK26">
-        <v>0.00264718123075322</v>
+        <v>-0.041074652348713</v>
+      </c>
+      <c r="BL26">
+        <v>-0.0957768393468782</v>
       </c>
       <c r="BM26">
-        <v>-0.00499669849345339</v>
+        <v>-0.041074652348713</v>
       </c>
       <c r="BN26">
-        <v>-0.0052220099551481</v>
+        <v>-0.0442924280544875</v>
+      </c>
+      <c r="BO26">
+        <v>-0.0989946150526524</v>
       </c>
       <c r="BP26">
-        <v>0.00531305777128632</v>
+        <v>-0.0442924280544875</v>
+      </c>
+      <c r="BQ26">
+        <v>-0.047510203760262</v>
       </c>
       <c r="BR26">
-        <v>0.016687528021181</v>
+        <v>-0.102212390758427</v>
       </c>
       <c r="BS26">
-        <v>0.0151756979187995</v>
+        <v>-0.047510203760262</v>
       </c>
       <c r="BT26">
-        <v>-0.00269233065101303</v>
+        <v>-0.0507279794660364</v>
       </c>
       <c r="BU26">
-        <v>0.022752310305069</v>
+        <v>-0.1054301664642</v>
       </c>
       <c r="BV26">
-        <v>0.0305852693548212</v>
+        <v>-0.0507279794660364</v>
       </c>
       <c r="BW26">
-        <v>0.0272291971784947</v>
+        <v>-0.0539457551718107</v>
+      </c>
+      <c r="BX26">
+        <v>-0.108647942169975</v>
       </c>
       <c r="BY26">
-        <v>0.0195322769583785</v>
+        <v>-0.0539457551718107</v>
+      </c>
+      <c r="BZ26">
+        <v>-0.0571635308775851</v>
       </c>
       <c r="CA26">
-        <v>-0.00583885896865923</v>
+        <v>-0.111865717875749</v>
+      </c>
+      <c r="CB26">
+        <v>-0.0571635308775851</v>
       </c>
       <c r="CC26">
-        <v>-0.00541951136671652</v>
+        <v>-0.0603813065833595</v>
       </c>
       <c r="CD26">
-        <v>0.0237382627933565</v>
+        <v>-0.115083493581524</v>
       </c>
       <c r="CE26">
-        <v>0.048872337828866</v>
+        <v>-0.0603813065833595</v>
       </c>
       <c r="CF26">
-        <v>0.0606972674119344</v>
+        <v>-0.0635990822891339</v>
+      </c>
+      <c r="CG26">
+        <v>-0.118301269287298</v>
       </c>
       <c r="CH26">
-        <v>-0.00488622911208923</v>
+        <v>-0.0635990822891339</v>
       </c>
       <c r="CI26">
-        <v>0.00385364275537496</v>
+        <v>-0.0668168579949084</v>
+      </c>
+      <c r="CJ26">
+        <v>-0.121519044993073</v>
+      </c>
+      <c r="CK26">
+        <v>-0.121519044993073</v>
+      </c>
+      <c r="CL26">
+        <v>-0.0668168579949084</v>
       </c>
       <c r="CM26">
-        <v>0.0208495346016284</v>
+        <v>-0.0700346337006828</v>
+      </c>
+      <c r="CN26">
+        <v>-0.124736820698847</v>
       </c>
       <c r="CO26">
-        <v>0.0428849810391883</v>
+        <v>-0.124736820698847</v>
       </c>
       <c r="CP26">
-        <v>0.0174715765781913</v>
+        <v>-0.0700346337006828</v>
       </c>
       <c r="CQ26">
-        <v>-0.01783416314177</v>
+        <v>-0.0732524094064572</v>
       </c>
       <c r="CR26">
-        <v>-0.0049684836178169</v>
+        <v>-0.127954596404622</v>
       </c>
       <c r="CS26">
-        <v>0.0400158667699307</v>
+        <v>-0.127954596404622</v>
       </c>
       <c r="CT26">
-        <v>0.0210051622142387</v>
+        <v>-0.0732524094064572</v>
       </c>
       <c r="CU26">
-        <v>0.0297407484740029</v>
+        <v>-0.0764701851122317</v>
       </c>
       <c r="CV26">
-        <v>0.0368888328776742</v>
+        <v>-0.131172372110396</v>
       </c>
       <c r="CW26">
-        <v>0.0226442656518378</v>
+        <v>-0.131172372110396</v>
       </c>
       <c r="CX26">
-        <v>0.015118264583998</v>
+        <v>-0.0764701851122317</v>
       </c>
       <c r="CY26">
-        <v>-0.0172827984027042</v>
+        <v>-0.079687960818006</v>
+      </c>
+      <c r="CZ26">
+        <v>-0.13439014781617</v>
       </c>
     </row>
-    <row r="27" spans="1:103">
+    <row r="27" spans="1:104">
       <c r="A27" t="s">
         <v>202</v>
       </c>
+      <c r="D27">
+        <v>-0.000490088303538504</v>
+      </c>
+      <c r="E27">
+        <v>0.00215750338133202</v>
+      </c>
+      <c r="F27">
+        <v>0.0126904390064119</v>
+      </c>
+      <c r="G27">
+        <v>0.000687898515134613</v>
+      </c>
       <c r="H27">
-        <v>-0.112043379775788</v>
+        <v>0.000514695059862649</v>
+      </c>
+      <c r="I27">
+        <v>0.000410333480011383</v>
       </c>
       <c r="J27">
-        <v>-0.210751041796422</v>
+        <v>0.00202537269508945</v>
       </c>
       <c r="K27">
-        <v>0.00673682182217553</v>
+        <v>0.00321777570577427</v>
+      </c>
+      <c r="L27">
+        <v>0.00321777570577427</v>
       </c>
       <c r="M27">
-        <v>0.11430994343768</v>
+        <v>0.00321777570577428</v>
       </c>
       <c r="N27">
-        <v>0.254079640933966</v>
+        <v>0.00321777570577428</v>
       </c>
       <c r="O27">
-        <v>0.226508840963097</v>
+        <v>0.00321777570577428</v>
       </c>
       <c r="P27">
-        <v>0.207699534356999</v>
+        <v>0.00321777570577432</v>
       </c>
       <c r="Q27">
-        <v>0.156733684117162</v>
+        <v>0.00321777570577432</v>
       </c>
       <c r="R27">
-        <v>0.265962011203858</v>
+        <v>0.00321777570577432</v>
+      </c>
+      <c r="S27">
+        <v>0.00321777570577426</v>
       </c>
       <c r="T27">
-        <v>0.142635537276124</v>
+        <v>0.00321777570577426</v>
       </c>
       <c r="U27">
-        <v>-0.084200980886011</v>
+        <v>0.00321777570577414</v>
       </c>
       <c r="V27">
-        <v>0.0870273858320873</v>
+        <v>0.00321777570577444</v>
+      </c>
+      <c r="W27">
+        <v>0.00321777570577444</v>
       </c>
       <c r="X27">
-        <v>0.359164191674771</v>
+        <v>0.00321777570577444</v>
       </c>
       <c r="Y27">
-        <v>-0.0180783867441918</v>
+        <v>0.00321777570577444</v>
+      </c>
+      <c r="Z27">
+        <v>0.00321777570577445</v>
+      </c>
+      <c r="AA27">
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="AB27">
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="AC27">
+        <v>0.00321777570577427</v>
+      </c>
+      <c r="AD27">
+        <v>0.00321777570577427</v>
+      </c>
+      <c r="AE27">
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="AF27">
+        <v>0.00321777570577427</v>
       </c>
       <c r="AG27">
-        <v>-0.10270033598519</v>
+        <v>0.00321777570577428</v>
+      </c>
+      <c r="AH27">
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="AI27">
+        <v>0.00321777570577428</v>
+      </c>
+      <c r="AJ27">
+        <v>0.00321777570577428</v>
+      </c>
+      <c r="AK27">
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="AL27">
+        <v>0.00321777570577428</v>
       </c>
       <c r="AM27">
-        <v>0.165378097037978</v>
+        <v>0.00321777570577428</v>
       </c>
       <c r="AN27">
-        <v>0.149952199200129</v>
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="AO27">
+        <v>0.00321777570577428</v>
       </c>
       <c r="AP27">
-        <v>0.495345599235495</v>
+        <v>0.00321777570577432</v>
+      </c>
+      <c r="AQ27">
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="AR27">
+        <v>0.00321777570577432</v>
       </c>
       <c r="AS27">
-        <v>0.0712419785425332</v>
+        <v>0.00321777570577432</v>
+      </c>
+      <c r="AT27">
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="AU27">
+        <v>0.00321777570577432</v>
+      </c>
+      <c r="AV27">
+        <v>0.00321777570577432</v>
+      </c>
+      <c r="AW27">
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="AX27">
+        <v>0.00321777570577432</v>
       </c>
       <c r="AY27">
-        <v>0.199679305668323</v>
+        <v>0.00321777570577426</v>
       </c>
       <c r="AZ27">
-        <v>-0.0182002248808817</v>
+        <v>0.00321777570577443</v>
       </c>
       <c r="BA27">
-        <v>0.164212042641402</v>
+        <v>0.00321777570577426</v>
       </c>
       <c r="BB27">
-        <v>0.132273522829218</v>
+        <v>0.00321777570577426</v>
       </c>
       <c r="BC27">
-        <v>0.158255084225404</v>
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="BD27">
+        <v>0.00321777570577426</v>
+      </c>
+      <c r="BE27">
+        <v>0.00321777570577414</v>
       </c>
       <c r="BF27">
-        <v>0.0552552157550119</v>
+        <v>0.00321777570577443</v>
       </c>
       <c r="BG27">
-        <v>-0.0370934515327172</v>
+        <v>0.00321777570577414</v>
+      </c>
+      <c r="BH27">
+        <v>0.00321777570577444</v>
       </c>
       <c r="BI27">
-        <v>0.0877165856906079</v>
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="BJ27">
+        <v>0.00321777570577444</v>
       </c>
       <c r="BK27">
-        <v>0.0344551652992854</v>
+        <v>0.00321777570577444</v>
+      </c>
+      <c r="BL27">
+        <v>0.00321777570577443</v>
       </c>
       <c r="BM27">
-        <v>-0.00707567608088864</v>
+        <v>0.00321777570577444</v>
       </c>
       <c r="BN27">
-        <v>-0.0220559402171316</v>
+        <v>0.00321777570577444</v>
+      </c>
+      <c r="BO27">
+        <v>0.00321777570577442</v>
       </c>
       <c r="BP27">
-        <v>0.0620439265613118</v>
+        <v>0.00321777570577444</v>
+      </c>
+      <c r="BQ27">
+        <v>0.00321777570577444</v>
       </c>
       <c r="BR27">
-        <v>0.129468756887643</v>
+        <v>0.00321777570577442</v>
       </c>
       <c r="BS27">
-        <v>0.122498243039772</v>
+        <v>0.00321777570577444</v>
       </c>
       <c r="BT27">
-        <v>0.00531335574078416</v>
+        <v>0.00321777570577445</v>
       </c>
       <c r="BU27">
-        <v>0.163177690192877</v>
+        <v>0.00321777570577439</v>
       </c>
       <c r="BV27">
-        <v>0.227336517717389</v>
+        <v>0.00321777570577445</v>
       </c>
       <c r="BW27">
-        <v>0.211570545430427</v>
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="BX27">
+        <v>0.00321777570577441</v>
       </c>
       <c r="BY27">
-        <v>0.153929082419404</v>
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="BZ27">
+        <v>0.00321777570577443</v>
       </c>
       <c r="CA27">
-        <v>-0.012947077599294</v>
+        <v>0.00321777570577441</v>
+      </c>
+      <c r="CB27">
+        <v>0.00321777570577443</v>
       </c>
       <c r="CC27">
-        <v>-0.0215514938658974</v>
+        <v>0.00321777570577443</v>
       </c>
       <c r="CD27">
-        <v>0.176371302513176</v>
+        <v>0.00321777570577441</v>
       </c>
       <c r="CE27">
-        <v>0.377270172796253</v>
+        <v>0.00321777570577443</v>
       </c>
       <c r="CF27">
-        <v>0.435813385806541</v>
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="CG27">
+        <v>0.00321777570577441</v>
       </c>
       <c r="CH27">
-        <v>-0.00518994762464248</v>
+        <v>0.00321777570577443</v>
       </c>
       <c r="CI27">
-        <v>0.0483243351911097</v>
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="CJ27">
+        <v>0.00321777570577441</v>
+      </c>
+      <c r="CK27">
+        <v>0.00321777570577441</v>
+      </c>
+      <c r="CL27">
+        <v>0.00321777570577443</v>
       </c>
       <c r="CM27">
-        <v>0.162444703274599</v>
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="CN27">
+        <v>0.00321777570577441</v>
       </c>
       <c r="CO27">
-        <v>0.323891369966052</v>
+        <v>0.00321777570577441</v>
       </c>
       <c r="CP27">
-        <v>0.157095995296708</v>
+        <v>0.00321777570577443</v>
       </c>
       <c r="CQ27">
-        <v>-0.116589592499595</v>
+        <v>0.00321777570577443</v>
       </c>
       <c r="CR27">
-        <v>-0.00879061776381615</v>
+        <v>0.00321777570577441</v>
       </c>
       <c r="CS27">
-        <v>0.282393611950509</v>
+        <v>0.00321777570577441</v>
       </c>
       <c r="CT27">
-        <v>0.167237950407769</v>
+        <v>0.00321777570577443</v>
       </c>
       <c r="CU27">
-        <v>0.215603751362151</v>
+        <v>0.00321777570577443</v>
       </c>
       <c r="CV27">
-        <v>0.263015602273566</v>
+        <v>0.00321777570577441</v>
       </c>
       <c r="CW27">
-        <v>0.17303600246923</v>
+        <v>0.00321777570577441</v>
       </c>
       <c r="CX27">
-        <v>0.114694780377545</v>
+        <v>0.00321777570577443</v>
       </c>
       <c r="CY27">
-        <v>-0.0939316408102176</v>
+        <v>0.00321777570577443</v>
+      </c>
+      <c r="CZ27">
+        <v>0.00321777570577441</v>
       </c>
     </row>
-    <row r="28" spans="1:103">
+    <row r="28" spans="1:104">
       <c r="A28" t="s">
         <v>203</v>
       </c>
